--- a/calc.xlsx
+++ b/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa.shenshin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa.shenshin\Documents\calc_pos_moex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Депозит</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>UGLD</t>
+  </si>
+  <si>
+    <t>SiH6</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1758,8 @@
   <dimension ref="A3:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V39" sqref="V39"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,23 +1822,23 @@
       </c>
       <c r="L7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-1, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-03</v>
+        <v>2026-02-04</v>
       </c>
       <c r="M7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-2, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-02</v>
+        <v>2026-02-03</v>
       </c>
       <c r="N7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-3, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-01</v>
+        <v>2026-02-02</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-4, "ГГГГ-ММ-ДД")</f>
-        <v>2026-01-31</v>
+        <f ca="1">TEXT(TODAY()-6, "ГГГГ-ММ-ДД")</f>
+        <v>2026-01-30</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-5, "ГГГГ-ММ-ДД")</f>
-        <v>2026-01-30</v>
+        <f ca="1">TEXT(TODAY()-7, "ГГГГ-ММ-ДД")</f>
+        <v>2026-01-29</v>
       </c>
       <c r="R7" s="28">
         <v>45566</v>
@@ -1871,37 +1874,35 @@
         <f t="shared" ref="G8:G25" si="1">ROUND($C$4/(D8/E8*F8),0)</f>
         <v>336</v>
       </c>
-      <c r="H8" s="1">
-        <f>D8/E8</f>
+      <c r="H8" s="22">
+        <f t="shared" ref="H8:H16" si="2">ROUND(D8/E8,0)</f>
         <v>60</v>
       </c>
       <c r="I8" s="23"/>
-      <c r="J8" s="30">
-        <v>45735</v>
-      </c>
+      <c r="J8" s="30"/>
       <c r="K8">
         <f ca="1">ROUND(AVERAGE(L8:P8),2)</f>
-        <v>-9222.09</v>
+        <v>-18426.29</v>
       </c>
       <c r="L8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.24000000000000021</v>
+        <v>0.41400000000000148</v>
       </c>
       <c r="M8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>-46111.281000000003</v>
+        <v>0.24000000000000021</v>
       </c>
       <c r="N8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.19100000000000072</v>
+        <v>-46111.281000000003</v>
       </c>
       <c r="O8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.10400000000000098</v>
+        <v>0.31300000000000061</v>
       </c>
       <c r="P8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.31300000000000061</v>
+        <v>-46021.16</v>
       </c>
       <c r="R8" s="29">
         <v>54</v>
@@ -1935,34 +1936,34 @@
         <f t="shared" si="1"/>
         <v>672</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" ref="H9:H50" si="2">D9/E9</f>
+      <c r="H9" s="22">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I9" s="23"/>
       <c r="K9">
         <f ca="1">ROUND(AVERAGE(L9:P9),2)</f>
-        <v>0.89</v>
+        <v>1.57</v>
       </c>
       <c r="L9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.4200000000000017</v>
+        <v>1.9699999999999989</v>
       </c>
       <c r="M9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.009999999999998</v>
+        <v>1.4200000000000017</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N47" ca="1" si="3">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.54999999999999716</v>
+        <v>1.009999999999998</v>
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O47" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.24000000000000199</v>
+        <v>1.25</v>
       </c>
       <c r="P9">
         <f t="shared" ref="P9:P47" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.25</v>
+        <v>2.220000000000006</v>
       </c>
       <c r="R9" s="25">
         <v>-30</v>
@@ -1997,33 +1998,33 @@
         <v>1680</v>
       </c>
       <c r="H10" s="22">
-        <f>D10/E10</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I10" s="24"/>
       <c r="K10">
         <f ca="1">ROUND(AVERAGE(L10:P10),2)</f>
-        <v>0.61</v>
+        <v>0.94</v>
       </c>
       <c r="L10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.44000000000000483</v>
+        <v>0.96999999999999886</v>
       </c>
       <c r="M10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.71000000000000085</v>
+        <v>0.44000000000000483</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35000000000000142</v>
+        <v>0.71000000000000085</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32999999999999829</v>
+        <v>1.230000000000004</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="5"/>
-        <v>1.230000000000004</v>
+        <v>1.3399999999999963</v>
       </c>
       <c r="R10" s="29">
         <v>39</v>
@@ -2057,34 +2058,34 @@
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="22">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I11" s="23"/>
       <c r="K11">
         <f t="shared" ref="K11:K47" ca="1" si="6">ROUND(AVERAGE(L11:P11),2)</f>
-        <v>19.079999999999998</v>
+        <v>29.76</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L47" ca="1" si="7">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>17.200000000000045</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M50" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>22</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ref="M11:M47" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>20.799999999999955</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="3"/>
-        <v>11.799999999999955</v>
+        <v>20.799999999999955</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>33.800000000000068</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="5"/>
-        <v>33.800000000000068</v>
+        <v>55</v>
       </c>
       <c r="R11" s="29">
         <v>80</v>
@@ -2119,33 +2120,33 @@
         <v>626</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" ref="H12:H17" si="11">D12/E12</f>
-        <v>32.200000000000003</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="I12" s="24"/>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71000000000000796</v>
+        <v>1.8599999999999994</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7800000000000011</v>
+        <v>0.71000000000000796</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84000000000000341</v>
+        <v>1.7800000000000011</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45000000000000284</v>
+        <v>2.4100000000000108</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4100000000000108</v>
+        <v>1.7199999999999989</v>
       </c>
       <c r="R12" s="29">
         <v>27</v>
@@ -2177,34 +2178,34 @@
         <f t="shared" si="10"/>
         <v>3733</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="11"/>
-        <v>10.8</v>
+      <c r="H13" s="22">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="I13" s="23"/>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2999999999999829</v>
+        <v>2.3499999999999943</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6500000000000057</v>
+        <v>2.2999999999999829</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0999999999999943</v>
+        <v>1.4500000000000171</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4500000000000171</v>
+        <v>2.5499999999999829</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2216,11 +2217,11 @@
         <v>64</v>
       </c>
       <c r="C14" s="22">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="D14" s="25">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="E14" s="22">
         <v>0.01</v>
@@ -2230,39 +2231,39 @@
       </c>
       <c r="G14" s="26">
         <f t="shared" si="10"/>
-        <v>504</v>
+        <v>1120</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="30">
-        <v>45738</v>
+        <v>46058</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.71</v>
+        <v>2.4</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5799999999999983</v>
+        <v>2.1999999999999886</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8800000000000097</v>
+        <v>1.5799999999999983</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3100000000000023</v>
+        <v>1.8800000000000097</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70999999999999375</v>
+        <v>3.0800000000000125</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0800000000000125</v>
+        <v>3.2599999999999909</v>
       </c>
       <c r="R14" s="25">
         <v>-2</v>
@@ -2297,33 +2298,33 @@
         <v>593</v>
       </c>
       <c r="H15" s="22">
-        <f t="shared" si="11"/>
-        <v>16.999999999999996</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="I15" s="24"/>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8000000000000114</v>
+        <v>7.2400000000000091</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3600000000000136</v>
+        <v>2.8000000000000114</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.460000000000008</v>
+        <v>6.3600000000000136</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7599999999999909</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="5"/>
-        <v>10.099999999999994</v>
+        <v>6.5199999999999818</v>
       </c>
       <c r="R15" s="25">
         <v>-211</v>
@@ -2356,33 +2357,33 @@
         <v>2568</v>
       </c>
       <c r="H16" s="22">
-        <f t="shared" si="11"/>
-        <v>15.699999999999998</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="I16" s="24"/>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>327999.73</v>
+        <v>-220617.61</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>-1131886</v>
+        <v>0.11499999999999977</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="8"/>
-        <v>1367469</v>
+        <v>-1131886</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="3"/>
-        <v>116878</v>
+        <v>1367469</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="4"/>
-        <v>1287537.4850000001</v>
+        <v>0.15600000000000014</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15600000000000014</v>
+        <v>-1338671.345</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="25">
@@ -2413,36 +2414,34 @@
         <v>183</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H17:H41" si="11">ROUND(D17/E17,0)</f>
         <v>22</v>
       </c>
       <c r="I17" s="24"/>
-      <c r="J17" s="30">
-        <v>45729</v>
-      </c>
+      <c r="J17" s="30"/>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>60.8</v>
+        <v>108.4</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>93.5</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>195.5</v>
       </c>
       <c r="R17" s="25">
         <v>-741</v>
@@ -2476,34 +2475,34 @@
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="2"/>
-        <v>27.999999999999996</v>
+      <c r="H18" s="22">
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="I18" s="23"/>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97</v>
+        <v>1.44</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4400000000000013</v>
+        <v>1.1449999999999996</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="8"/>
-        <v>1.615000000000002</v>
+        <v>1.4400000000000013</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000114</v>
+        <v>1.615000000000002</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35000000000000142</v>
+        <v>1.1649999999999991</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1649999999999991</v>
+        <v>1.8300000000000018</v>
       </c>
       <c r="R18" s="25">
         <v>-107</v>
@@ -2537,37 +2536,35 @@
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="2"/>
+      <c r="H19" s="22">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="I19" s="23"/>
-      <c r="J19" s="30">
-        <v>45729</v>
-      </c>
+      <c r="J19" s="30"/>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>57.1</v>
+        <v>85.6</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="4"/>
-        <v>19.5</v>
+        <v>102</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="R19" s="29">
         <v>45</v>
@@ -2602,36 +2599,34 @@
         <v>354</v>
       </c>
       <c r="H20" s="22">
-        <f>D20/E20</f>
-        <v>57.000000000000007</v>
+        <f t="shared" si="11"/>
+        <v>57</v>
       </c>
       <c r="I20" s="24"/>
-      <c r="J20" s="30">
-        <v>45738</v>
-      </c>
+      <c r="J20" s="30"/>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>3.94</v>
+        <v>5.6</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1500000000000057</v>
+        <v>7.0700000000000216</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3300000000000125</v>
+        <v>8.1500000000000057</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="3"/>
-        <v>1.789999999999992</v>
+        <v>3.3300000000000125</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3600000000000136</v>
+        <v>5.0699999999999932</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0699999999999932</v>
+        <v>4.4000000000000057</v>
       </c>
       <c r="R20" s="25">
         <v>-146</v>
@@ -2665,37 +2660,35 @@
         <f t="shared" si="1"/>
         <v>3102</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
+      <c r="H21" s="22">
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="I21" s="23"/>
-      <c r="J21" s="30">
-        <v>45738</v>
-      </c>
+      <c r="J21" s="30"/>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>1.27</v>
+        <v>1.9</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2700000000000102</v>
+        <v>1.8200000000000074</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6300000000000097</v>
+        <v>1.2700000000000102</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>1.6300000000000097</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87999999999999545</v>
+        <v>2.0699999999999932</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0699999999999932</v>
+        <v>2.7199999999999989</v>
       </c>
       <c r="R21" s="25">
         <v>-6</v>
@@ -2729,34 +2722,34 @@
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>11.999999999999998</v>
+      <c r="H22" s="22">
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="I22" s="23"/>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>2.38</v>
+        <v>3.33</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5999999999999943</v>
+        <v>3.5499999999999829</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="8"/>
-        <v>4.2999999999999829</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0499999999999829</v>
+        <v>4.2999999999999829</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84999999999999432</v>
+        <v>2.0999999999999943</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0999999999999943</v>
+        <v>3.0999999999999943</v>
       </c>
       <c r="R22" s="25">
         <v>-149</v>
@@ -2790,37 +2783,35 @@
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="2"/>
+      <c r="H23" s="22">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I23" s="23"/>
-      <c r="J23" s="30">
-        <v>45729</v>
-      </c>
+      <c r="J23" s="30"/>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>2.58</v>
+        <v>4.38</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4399999999999977</v>
+        <v>3.980000000000004</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="8"/>
-        <v>3.9200000000000017</v>
+        <v>3.4399999999999977</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1400000000000006</v>
+        <v>3.9200000000000017</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2199999999999989</v>
+        <v>3.1600000000000108</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1600000000000108</v>
+        <v>7.4000000000000057</v>
       </c>
       <c r="R23" s="29">
         <v>23</v>
@@ -2855,33 +2846,33 @@
         <v>403</v>
       </c>
       <c r="H24" s="22">
-        <f>D24/E24</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="I24" s="24"/>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>16.739999999999998</v>
+        <v>25.08</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>15.900000000000091</v>
+        <v>25.5</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="8"/>
-        <v>12.799999999999955</v>
+        <v>15.900000000000091</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="3"/>
-        <v>10.400000000000091</v>
+        <v>12.799999999999955</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4000000000000909</v>
+        <v>36.200000000000045</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="5"/>
-        <v>36.200000000000045</v>
+        <v>35</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="29">
@@ -2911,37 +2902,35 @@
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="2"/>
+      <c r="H25" s="22">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="30">
-        <v>45735</v>
-      </c>
+      <c r="J25" s="30"/>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>125.5</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="7"/>
-        <v>110.5</v>
+        <v>88.5</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="8"/>
-        <v>152</v>
+        <v>110.5</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>208.5</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="5"/>
-        <v>208.5</v>
+        <v>68</v>
       </c>
       <c r="R25" s="25">
         <v>-6</v>
@@ -2976,33 +2965,33 @@
         <v>144</v>
       </c>
       <c r="H26" s="22">
-        <f>D26/E26</f>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="I26" s="24"/>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>26.92</v>
+        <v>44.04</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="7"/>
-        <v>23.599999999999909</v>
+        <v>55.799999999999955</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>23.599999999999909</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="3"/>
-        <v>14.600000000000136</v>
+        <v>53</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>35.399999999999864</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="5"/>
-        <v>35.399999999999864</v>
+        <v>52.400000000000091</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="25">
@@ -3033,33 +3022,33 @@
         <v>180</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ref="H27:H40" si="14">D27/E27</f>
-        <v>11.2</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="I27" s="24"/>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="8"/>
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="R27" s="25">
         <v>-31</v>
@@ -3092,33 +3081,33 @@
         <v>604</v>
       </c>
       <c r="H28" s="22">
-        <f>D28/E28</f>
-        <v>33.4</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="I28" s="24"/>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>7.38</v>
+        <v>14.14</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8999999999999773</v>
+        <v>32.100000000000023</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3000000000000114</v>
+        <v>7.8999999999999773</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7999999999999545</v>
+        <v>6.3000000000000114</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5</v>
+        <v>12.399999999999977</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="5"/>
-        <v>12.399999999999977</v>
+        <v>12</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="29">
@@ -3151,36 +3140,34 @@
         <v>39</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
       <c r="I29" s="24"/>
-      <c r="J29" s="30">
-        <v>45729</v>
-      </c>
+      <c r="J29" s="30"/>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>74.040000000000006</v>
+        <v>109.84</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="8"/>
-        <v>132.20000000000027</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="3"/>
-        <v>19.199999999999818</v>
+        <v>132.20000000000027</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="4"/>
-        <v>27.800000000000182</v>
+        <v>143</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="5"/>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R29" s="25">
         <v>-68</v>
@@ -3213,33 +3200,33 @@
         <v>2016</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I30" s="24"/>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>3.25</v>
+        <v>5.08</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1999999999999886</v>
+        <v>3.3000000000000114</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1000000000000085</v>
+        <v>3.1999999999999886</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9500000000000028</v>
+        <v>3.1000000000000085</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2000000000000028</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7999999999999972</v>
+        <v>11</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3253,11 +3240,11 @@
         <v>49</v>
       </c>
       <c r="C31" s="22">
-        <v>12.5</v>
+        <v>7.51</v>
       </c>
       <c r="D31" s="25">
         <f t="shared" si="12"/>
-        <v>1.25</v>
+        <v>0.751</v>
       </c>
       <c r="E31" s="22">
         <v>0.05</v>
@@ -3267,39 +3254,39 @@
       </c>
       <c r="G31" s="26">
         <f t="shared" si="13"/>
-        <v>1613</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="14"/>
-        <v>25</v>
+        <v>2684</v>
+      </c>
+      <c r="H31" s="22">
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="30">
-        <v>45743</v>
+        <v>46058</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0999999999999996</v>
+        <v>7.51</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="7"/>
-        <v>4.75</v>
+        <v>5.9499999999999886</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3999999999999773</v>
+        <v>9</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4499999999999886</v>
+        <v>7.8999999999999773</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8999999999999773</v>
+        <v>9.9499999999999886</v>
       </c>
       <c r="R31" s="29">
         <v>342</v>
@@ -3334,33 +3321,33 @@
         <v>1792</v>
       </c>
       <c r="H32" s="22">
-        <f>D32/E32</f>
-        <v>22.5</v>
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
       <c r="I32" s="24"/>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1299999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0900000000000034</v>
+        <v>1.75</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2650000000000006</v>
+        <v>1.0900000000000034</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37999999999999545</v>
+        <v>1.2650000000000006</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34499999999999886</v>
+        <v>2.5849999999999937</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5849999999999937</v>
+        <v>3.25</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="25">
@@ -3390,37 +3377,35 @@
         <f t="shared" si="13"/>
         <v>336</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" si="14"/>
+      <c r="H33" s="22">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="I33" s="23"/>
-      <c r="J33" s="30">
-        <v>45729</v>
-      </c>
+      <c r="J33" s="30"/>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>2.75</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1700000000000159</v>
+        <v>2.6299999999999955</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="8"/>
-        <v>4.4900000000000091</v>
+        <v>2.1700000000000159</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5600000000000023</v>
+        <v>4.4900000000000091</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94999999999998863</v>
+        <v>4.5799999999999841</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5799999999999841</v>
+        <v>7.910000000000025</v>
       </c>
       <c r="R33" s="29">
         <v>32</v>
@@ -3455,33 +3440,33 @@
         <v>288</v>
       </c>
       <c r="H34" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="I34" s="24"/>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>44.16</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="8"/>
-        <v>55.200000000000045</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="3"/>
-        <v>9.7999999999999545</v>
+        <v>55.200000000000045</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="4"/>
-        <v>14.799999999999955</v>
+        <v>52.200000000000045</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="5"/>
-        <v>52.200000000000045</v>
+        <v>29.399999999999977</v>
       </c>
       <c r="R34" s="25">
         <v>-89</v>
@@ -3514,33 +3499,33 @@
         <v>1440</v>
       </c>
       <c r="H35" s="22">
-        <f>D35/E35</f>
-        <v>14.000000000000002</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="I35" s="24"/>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>-36889.72</v>
+        <v>-34552.17</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="7"/>
-        <v>-184448.73800000001</v>
+        <v>5.1999999999999824E-2</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="8"/>
-        <v>3.499999999999992E-2</v>
+        <v>-184448.73800000001</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4000000000000012E-2</v>
+        <v>3.499999999999992E-2</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8000000000000016E-2</v>
+        <v>4.8999999999999932E-2</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8999999999999932E-2</v>
+        <v>11687.748</v>
       </c>
       <c r="R35" s="29">
         <v>71</v>
@@ -3571,33 +3556,33 @@
         <v>1084</v>
       </c>
       <c r="H36" s="22">
-        <f>D36/E36</f>
-        <v>37.200000000000003</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="I36" s="24"/>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="7"/>
-        <v>5.8000000000000114</v>
+        <v>8</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="8"/>
-        <v>9.4000000000000341</v>
+        <v>5.8000000000000114</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6000000000000227</v>
+        <v>9.4000000000000341</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9500000000000455</v>
+        <v>11.25</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="5"/>
-        <v>11.25</v>
+        <v>14.300000000000011</v>
       </c>
       <c r="R36" s="25">
         <v>-9</v>
@@ -3620,43 +3605,46 @@
         <v>6</v>
       </c>
       <c r="E37" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F37" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G37" s="26">
         <f>ROUND($C$4/(D37/E37*F37),0)</f>
         <v>336</v>
       </c>
       <c r="H37" s="22">
-        <f>D37/E37</f>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>30</v>
       </c>
       <c r="I37" s="24"/>
+      <c r="J37" s="30">
+        <v>46058</v>
+      </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>20.5</v>
+        <v>45.6</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="8"/>
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>35.5</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -3687,33 +3675,33 @@
         <v>0</v>
       </c>
       <c r="H38" s="22">
-        <f>D38/E38</f>
+        <f t="shared" si="11"/>
         <v>13800</v>
       </c>
       <c r="I38" s="24"/>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>-9228.08</v>
+        <v>-18487.09</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26500000000000057</v>
+        <v>-46264.525000000001</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="8"/>
-        <v>0.54499999999999815</v>
+        <v>0.26500000000000057</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000057</v>
+        <v>0.54499999999999815</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="4"/>
-        <v>-46141.824999999997</v>
+        <v>0.49500000000000099</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49500000000000099</v>
+        <v>-46172.25</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3738,33 +3726,33 @@
         <v>1222</v>
       </c>
       <c r="H39" s="22">
-        <f t="shared" si="14"/>
-        <v>32.999999999999993</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="I39" s="24"/>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53</v>
+        <v>0.79</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42999999999999972</v>
+        <v>1.0300000000000011</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.86999999999999744</v>
+        <v>0.42999999999999972</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.375</v>
+        <v>0.86999999999999744</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39999999999999858</v>
+        <v>0.57999999999999829</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57999999999999829</v>
+        <v>1.0649999999999977</v>
       </c>
       <c r="R39" s="25">
         <v>-18</v>
@@ -3799,33 +3787,33 @@
         <v>1680</v>
       </c>
       <c r="H40" s="22">
-        <f t="shared" si="14"/>
-        <v>11.999999999999998</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="I40" s="24"/>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>8.8800000000000008</v>
+        <v>13.62</v>
       </c>
       <c r="L40">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B40&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B40&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>8.8000000000000682</v>
+        <v>14.899999999999977</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="8"/>
-        <v>13.700000000000045</v>
+        <v>8.8000000000000682</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7000000000000455</v>
+        <v>13.700000000000045</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>12.199999999999932</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="5"/>
-        <v>12.199999999999932</v>
+        <v>18.5</v>
       </c>
       <c r="R40" s="25">
         <v>-114</v>
@@ -3854,37 +3842,37 @@
         <v>0.2</v>
       </c>
       <c r="G41" s="26">
-        <f>ROUND($C$4/(D41/E41*F41),0)</f>
+        <f t="shared" ref="G41:G46" si="14">ROUND($C$4/(D41/E41*F41),0)</f>
         <v>336</v>
       </c>
       <c r="H41" s="22">
-        <f>D41/E41</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="I41" s="24"/>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6</v>
+        <v>2.63</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1999999999999886</v>
+        <v>3.3599999999999994</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6599999999999966</v>
+        <v>2.1999999999999886</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2199999999999989</v>
+        <v>1.6599999999999966</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84000000000000341</v>
+        <v>2.0600000000000023</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0600000000000023</v>
+        <v>3.8799999999999955</v>
       </c>
       <c r="R41" s="29">
         <v>7</v>
@@ -3913,37 +3901,37 @@
         <v>0.5</v>
       </c>
       <c r="G42" s="26">
-        <f>ROUND($C$4/(D42/E42*F42),0)</f>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
       <c r="H42" s="22">
-        <f>D42/E42</f>
+        <f t="shared" ref="H42:H44" si="15">ROUND(D42/E42,0)</f>
         <v>14</v>
       </c>
       <c r="I42" s="24"/>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>13.8</v>
+        <v>17.04</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8000000000001819</v>
+        <v>18.399999999999864</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="8"/>
-        <v>22.799999999999955</v>
+        <v>9.8000000000001819</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="3"/>
-        <v>12.400000000000091</v>
+        <v>22.799999999999955</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="4"/>
-        <v>8.3999999999998636</v>
+        <v>15.599999999999909</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="5"/>
-        <v>15.599999999999909</v>
+        <v>18.599999999999909</v>
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="25">
@@ -3972,11 +3960,11 @@
         <v>0.1</v>
       </c>
       <c r="G43" s="26">
-        <f>ROUND($C$4/(D43/E43*F43),0)</f>
+        <f t="shared" si="14"/>
         <v>395</v>
       </c>
       <c r="H43" s="22">
-        <f>D43/E43</f>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="I43" s="24"/>
@@ -3985,27 +3973,27 @@
       </c>
       <c r="K43">
         <f ca="1">ROUND(AVERAGE(L43:P43),4)</f>
-        <v>5.1400000000000001E-2</v>
+        <v>0.12180000000000001</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6999999999999957E-2</v>
+        <v>8.2900000000000085E-2</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2799999999999958E-2</v>
+        <v>7.6999999999999957E-2</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0199999999999987E-2</v>
+        <v>5.2799999999999958E-2</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7900000000000036E-2</v>
+        <v>8.890000000000009E-2</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="5"/>
-        <v>8.890000000000009E-2</v>
+        <v>0.3073999999999999</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="22"/>
@@ -4017,50 +4005,53 @@
         <v>44</v>
       </c>
       <c r="C44" s="1">
-        <v>24</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="D44" s="25">
         <f>C44/10</f>
-        <v>2.4</v>
+        <v>0.97100000000000009</v>
       </c>
       <c r="E44" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F44" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G44" s="26">
-        <f>ROUND($C$4/(D44/E44*F44),0)</f>
-        <v>840</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="2"/>
-        <v>23.999999999999996</v>
+        <f t="shared" si="14"/>
+        <v>2076</v>
+      </c>
+      <c r="H44" s="22">
+        <f t="shared" si="15"/>
+        <v>19</v>
       </c>
       <c r="I44" s="23"/>
+      <c r="J44" s="30">
+        <v>46058</v>
+      </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="7"/>
-        <v>12.600000000000023</v>
+        <v>10.449999999999989</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5999999999999659</v>
+        <v>12.600000000000023</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3000000000000114</v>
+        <v>7.5999999999999659</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3000000000000114</v>
+        <v>7.6999999999999886</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6999999999999886</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="29">
@@ -4090,12 +4081,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G45" s="26">
-        <f>ROUND($C$4/(D45/E45*F45),0)</f>
+        <f t="shared" si="14"/>
         <v>7724</v>
       </c>
       <c r="H45" s="22">
-        <f>D45/E45</f>
-        <v>52.2</v>
+        <f>ROUND(D45/E45,0)</f>
+        <v>52</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="30">
@@ -4103,27 +4094,27 @@
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>2.61</v>
+        <v>3.58</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6299999999999955</v>
+        <v>2.4749999999999943</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5100000000000051</v>
+        <v>2.6299999999999955</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7000000000000028</v>
+        <v>4.5100000000000051</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>3.4400000000000119</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4400000000000119</v>
+        <v>4.8499999999999943</v>
       </c>
       <c r="R45" s="29">
         <v>19</v>
@@ -4152,37 +4143,37 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="26">
-        <f>ROUND($C$4/(D46/E46*F46),0)</f>
+        <f t="shared" si="14"/>
         <v>202</v>
       </c>
       <c r="H46" s="22">
-        <f>D46/E46</f>
+        <f>ROUND(D46/E46,0)</f>
         <v>20</v>
       </c>
       <c r="I46" s="24"/>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>24.3</v>
+        <v>43.3</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="7"/>
-        <v>23.5</v>
+        <v>70</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>23.5</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -4197,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="D47" s="25">
-        <f t="shared" ref="D47:D50" si="15">C47/10</f>
+        <f t="shared" ref="D47:D50" si="16">C47/10</f>
         <v>14</v>
       </c>
       <c r="E47" s="1">
@@ -4207,21 +4198,21 @@
         <v>0.5</v>
       </c>
       <c r="G47" s="26">
-        <f t="shared" ref="G47:G50" si="16">ROUND($C$4/(D47/E47*F47),0)</f>
+        <f t="shared" ref="G47:G50" si="17">ROUND($C$4/(D47/E47*F47),0)</f>
         <v>144</v>
       </c>
-      <c r="H47" s="1">
-        <f t="shared" si="2"/>
+      <c r="H47" s="22">
+        <f t="shared" ref="H47:H50" si="18">ROUND(D47/E47,0)</f>
         <v>28</v>
       </c>
       <c r="I47" s="23"/>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>61.5</v>
+        <v>85.3</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>85.5</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="8"/>
@@ -4229,15 +4220,15 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="3"/>
-        <v>23.5</v>
+        <v>65</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="R47" s="1">
         <v>-97</v>
@@ -4258,7 +4249,7 @@
         <v>60</v>
       </c>
       <c r="D48" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E48" s="1">
@@ -4268,11 +4259,11 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
-      <c r="H48" s="1">
-        <f t="shared" si="2"/>
+      <c r="H48" s="22">
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="I48" s="23"/>
@@ -4293,7 +4284,7 @@
         <v>0.1</v>
       </c>
       <c r="D49" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="E49" s="22">
@@ -4303,11 +4294,11 @@
         <v>1</v>
       </c>
       <c r="G49" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>202</v>
       </c>
       <c r="H49" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I49" s="24"/>
@@ -4324,13 +4315,13 @@
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="27" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C50" s="22">
         <v>550</v>
       </c>
       <c r="D50" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="E50" s="22">
@@ -4340,14 +4331,18 @@
         <v>1</v>
       </c>
       <c r="G50" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="H50" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="I50" s="24"/>
+      <c r="M50">
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B50&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B50&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>629</v>
+      </c>
       <c r="R50" s="29">
         <v>459</v>
       </c>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -1758,8 +1758,8 @@
   <dimension ref="A3:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,6 +1791,28 @@
       </c>
       <c r="D4" s="32"/>
     </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L6" s="5" t="str">
+        <f ca="1">TEXT(L7,"ддд")</f>
+        <v>Ср</v>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f ca="1">TEXT(M7,"ддд")</f>
+        <v>Вт</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f t="shared" ref="N6:P6" ca="1" si="0">TEXT(N7,"ддд")</f>
+        <v>Пн</v>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Пт</v>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Чт</v>
+      </c>
+    </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -1861,7 +1883,7 @@
         <v>0.6</v>
       </c>
       <c r="D8" s="25">
-        <f t="shared" ref="D8:D25" si="0">C8/10</f>
+        <f t="shared" ref="D8:D25" si="1">C8/10</f>
         <v>0.06</v>
       </c>
       <c r="E8" s="22">
@@ -1871,11 +1893,11 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="26">
-        <f t="shared" ref="G8:G25" si="1">ROUND($C$4/(D8/E8*F8),0)</f>
+        <f t="shared" ref="G8:G25" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
         <v>336</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" ref="H8:H16" si="2">ROUND(D8/E8,0)</f>
+        <f t="shared" ref="H8:H16" si="3">ROUND(D8/E8,0)</f>
         <v>60</v>
       </c>
       <c r="I8" s="23"/>
@@ -1923,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="E9" s="1">
@@ -1933,11 +1955,11 @@
         <v>0.1</v>
       </c>
       <c r="G9" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>672</v>
       </c>
       <c r="H9" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="I9" s="23"/>
@@ -1954,15 +1976,15 @@
         <v>1.4200000000000017</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N47" ca="1" si="3">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <f t="shared" ref="N9:N47" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>1.009999999999998</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:O47" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <f t="shared" ref="O9:O47" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>1.25</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P47" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <f t="shared" ref="P9:P47" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>2.220000000000006</v>
       </c>
       <c r="R9" s="25">
@@ -1998,7 +2020,7 @@
         <v>1680</v>
       </c>
       <c r="H10" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I10" s="24"/>
@@ -2015,15 +2037,15 @@
         <v>0.44000000000000483</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.71000000000000085</v>
       </c>
       <c r="O10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.230000000000004</v>
       </c>
       <c r="P10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1.3399999999999963</v>
       </c>
       <c r="R10" s="29">
@@ -2045,7 +2067,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E11" s="1">
@@ -2055,36 +2077,36 @@
         <v>0.2</v>
       </c>
       <c r="G11" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>403</v>
       </c>
       <c r="H11" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I11" s="23"/>
       <c r="K11">
-        <f t="shared" ref="K11:K47" ca="1" si="6">ROUND(AVERAGE(L11:P11),2)</f>
+        <f t="shared" ref="K11:K47" ca="1" si="7">ROUND(AVERAGE(L11:P11),2)</f>
         <v>29.76</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L47" ca="1" si="7">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <f t="shared" ref="L11:L47" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>17.200000000000045</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M50" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <f t="shared" ref="M11:M47" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>22</v>
       </c>
       <c r="N11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>20.799999999999955</v>
       </c>
       <c r="O11">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33.800000000000068</v>
       </c>
       <c r="P11">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>55</v>
       </c>
       <c r="R11" s="29">
@@ -2106,7 +2128,7 @@
         <v>3.22</v>
       </c>
       <c r="D12" s="25">
-        <f t="shared" ref="D12:D17" si="9">C12/10</f>
+        <f t="shared" ref="D12:D17" si="10">C12/10</f>
         <v>0.32200000000000001</v>
       </c>
       <c r="E12" s="22">
@@ -2116,36 +2138,36 @@
         <v>0.1</v>
       </c>
       <c r="G12" s="26">
-        <f t="shared" ref="G12:G17" si="10">ROUND($C$4/(D12/E12*F12),0)</f>
+        <f t="shared" ref="G12:G17" si="11">ROUND($C$4/(D12/E12*F12),0)</f>
         <v>626</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="I12" s="24"/>
       <c r="K12">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.8599999999999994</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.71000000000000796</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7800000000000011</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4100000000000108</v>
+      </c>
+      <c r="P12">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.8599999999999994</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.71000000000000796</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7800000000000011</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.4100000000000108</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="5"/>
         <v>1.7199999999999989</v>
       </c>
       <c r="R12" s="29">
@@ -2165,7 +2187,7 @@
         <v>5.4</v>
       </c>
       <c r="D13" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.54</v>
       </c>
       <c r="E13" s="22">
@@ -2175,36 +2197,36 @@
         <v>0.05</v>
       </c>
       <c r="G13" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3733</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I13" s="23"/>
       <c r="K13">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.2999999999999829</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.6500000000000057</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4500000000000171</v>
+      </c>
+      <c r="P13">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.3499999999999943</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2999999999999829</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.6500000000000057</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.4500000000000171</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="5"/>
         <v>2.5499999999999829</v>
       </c>
       <c r="R13" s="1"/>
@@ -2220,7 +2242,7 @@
         <v>1.8</v>
       </c>
       <c r="D14" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
       <c r="E14" s="22">
@@ -2230,11 +2252,11 @@
         <v>0.1</v>
       </c>
       <c r="G14" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1120</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I14" s="24"/>
@@ -2242,27 +2264,27 @@
         <v>46058</v>
       </c>
       <c r="K14">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.5799999999999983</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8800000000000097</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0800000000000125</v>
+      </c>
+      <c r="P14">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.1999999999999886</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.5799999999999983</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.8800000000000097</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.0800000000000125</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="5"/>
         <v>3.2599999999999909</v>
       </c>
       <c r="R14" s="25">
@@ -2284,7 +2306,7 @@
         <v>3.4</v>
       </c>
       <c r="D15" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33999999999999997</v>
       </c>
       <c r="E15" s="22">
@@ -2294,36 +2316,36 @@
         <v>0.2</v>
       </c>
       <c r="G15" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>593</v>
       </c>
       <c r="H15" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I15" s="24"/>
       <c r="K15">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.6</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.2400000000000091</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.3600000000000136</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="5"/>
+        <v>10.099999999999994</v>
+      </c>
+      <c r="P15">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.2400000000000091</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.8000000000000114</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3600000000000136</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="4"/>
-        <v>10.099999999999994</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="5"/>
         <v>6.5199999999999818</v>
       </c>
       <c r="R15" s="25">
@@ -2343,7 +2365,7 @@
         <v>7.85E-2</v>
       </c>
       <c r="D16" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8499999999999993E-3</v>
       </c>
       <c r="E16" s="22">
@@ -2353,36 +2375,36 @@
         <v>0.05</v>
       </c>
       <c r="G16" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2568</v>
       </c>
       <c r="H16" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I16" s="24"/>
       <c r="K16">
+        <f t="shared" ca="1" si="7"/>
+        <v>-220617.61</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.11499999999999977</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1131886</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="4"/>
+        <v>1367469</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15600000000000014</v>
+      </c>
+      <c r="P16">
         <f t="shared" ca="1" si="6"/>
-        <v>-220617.61</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.11499999999999977</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="8"/>
-        <v>-1131886</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="3"/>
-        <v>1367469</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.15600000000000014</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ca="1" si="5"/>
         <v>-1338671.345</v>
       </c>
       <c r="R16" s="1"/>
@@ -2400,7 +2422,7 @@
         <v>110</v>
       </c>
       <c r="D17" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="E17" s="22">
@@ -2410,37 +2432,37 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>183</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" ref="H17:H41" si="11">ROUND(D17/E17,0)</f>
+        <f t="shared" ref="H17:H41" si="12">ROUND(D17/E17,0)</f>
         <v>22</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="30"/>
       <c r="K17">
+        <f t="shared" ca="1" si="7"/>
+        <v>108.4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="8"/>
+        <v>93.5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="P17">
         <f t="shared" ca="1" si="6"/>
-        <v>108.4</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="7"/>
-        <v>93.5</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="5"/>
         <v>195.5</v>
       </c>
       <c r="R17" s="25">
@@ -2462,7 +2484,7 @@
         <v>1.4</v>
       </c>
       <c r="D18" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="E18" s="1">
@@ -2472,36 +2494,36 @@
         <v>0.05</v>
       </c>
       <c r="G18" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1440</v>
       </c>
       <c r="H18" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="I18" s="23"/>
       <c r="K18">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.44</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.1449999999999996</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.4400000000000013</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.615000000000002</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1649999999999991</v>
+      </c>
+      <c r="P18">
         <f t="shared" ca="1" si="6"/>
-        <v>1.44</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.1449999999999996</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.4400000000000013</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.615000000000002</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.1649999999999991</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="5"/>
         <v>1.8300000000000018</v>
       </c>
       <c r="R18" s="25">
@@ -2523,7 +2545,7 @@
         <v>150</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E19" s="1">
@@ -2533,37 +2555,37 @@
         <v>0.5</v>
       </c>
       <c r="G19" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="H19" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="30"/>
       <c r="K19">
+        <f t="shared" ca="1" si="7"/>
+        <v>85.6</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="P19">
         <f t="shared" ca="1" si="6"/>
-        <v>85.6</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="5"/>
         <v>108</v>
       </c>
       <c r="R19" s="29">
@@ -2599,33 +2621,33 @@
         <v>354</v>
       </c>
       <c r="H20" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="30"/>
       <c r="K20">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.6</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.0700000000000216</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.1500000000000057</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3300000000000125</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0699999999999932</v>
+      </c>
+      <c r="P20">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.0700000000000216</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="8"/>
-        <v>8.1500000000000057</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.3300000000000125</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0699999999999932</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="5"/>
         <v>4.4000000000000057</v>
       </c>
       <c r="R20" s="25">
@@ -2647,7 +2669,7 @@
         <v>6.5</v>
       </c>
       <c r="D21" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
       <c r="E21" s="22">
@@ -2657,37 +2679,37 @@
         <v>0.01</v>
       </c>
       <c r="G21" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3102</v>
       </c>
       <c r="H21" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="30"/>
       <c r="K21">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.8200000000000074</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.2700000000000102</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6300000000000097</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0699999999999932</v>
+      </c>
+      <c r="P21">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.8200000000000074</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.2700000000000102</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6300000000000097</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.0699999999999932</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ca="1" si="5"/>
         <v>2.7199999999999989</v>
       </c>
       <c r="R21" s="25">
@@ -2709,7 +2731,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="E22" s="1">
@@ -2719,36 +2741,36 @@
         <v>0.5</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="I22" s="23"/>
       <c r="K22">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.33</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.5499999999999829</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2999999999999829</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="P22">
         <f t="shared" ca="1" si="6"/>
-        <v>3.33</v>
-      </c>
-      <c r="L22">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.5499999999999829</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.5999999999999943</v>
-      </c>
-      <c r="N22">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.2999999999999829</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.0999999999999943</v>
-      </c>
-      <c r="P22">
-        <f t="shared" ca="1" si="5"/>
         <v>3.0999999999999943</v>
       </c>
       <c r="R22" s="25">
@@ -2770,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="E23" s="1">
@@ -2780,37 +2802,37 @@
         <v>0.2</v>
       </c>
       <c r="G23" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>504</v>
       </c>
       <c r="H23" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="30"/>
       <c r="K23">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.980000000000004</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.4399999999999977</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9200000000000017</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1600000000000108</v>
+      </c>
+      <c r="P23">
         <f t="shared" ca="1" si="6"/>
-        <v>4.38</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.980000000000004</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.4399999999999977</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.9200000000000017</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.1600000000000108</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ca="1" si="5"/>
         <v>7.4000000000000057</v>
       </c>
       <c r="R23" s="29">
@@ -2846,32 +2868,32 @@
         <v>403</v>
       </c>
       <c r="H24" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="I24" s="24"/>
       <c r="K24">
+        <f t="shared" ca="1" si="7"/>
+        <v>25.08</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="9"/>
+        <v>15.900000000000091</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.799999999999955</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="5"/>
+        <v>36.200000000000045</v>
+      </c>
+      <c r="P24">
         <f t="shared" ca="1" si="6"/>
-        <v>25.08</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="7"/>
-        <v>25.5</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="8"/>
-        <v>15.900000000000091</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="3"/>
-        <v>12.799999999999955</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="4"/>
-        <v>36.200000000000045</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ca="1" si="5"/>
         <v>35</v>
       </c>
       <c r="R24" s="1"/>
@@ -2889,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E25" s="1">
@@ -2899,37 +2921,37 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="H25" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="30"/>
       <c r="K25">
+        <f t="shared" ca="1" si="7"/>
+        <v>125.5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="8"/>
+        <v>88.5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="9"/>
+        <v>110.5</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="5"/>
+        <v>208.5</v>
+      </c>
+      <c r="P25">
         <f t="shared" ca="1" si="6"/>
-        <v>125.5</v>
-      </c>
-      <c r="L25">
-        <f t="shared" ca="1" si="7"/>
-        <v>88.5</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="8"/>
-        <v>110.5</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="4"/>
-        <v>208.5</v>
-      </c>
-      <c r="P25">
-        <f t="shared" ca="1" si="5"/>
         <v>68</v>
       </c>
       <c r="R25" s="25">
@@ -2965,32 +2987,32 @@
         <v>144</v>
       </c>
       <c r="H26" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="I26" s="24"/>
       <c r="K26">
+        <f t="shared" ca="1" si="7"/>
+        <v>44.04</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="8"/>
+        <v>55.799999999999955</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="9"/>
+        <v>23.599999999999909</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="5"/>
+        <v>35.399999999999864</v>
+      </c>
+      <c r="P26">
         <f t="shared" ca="1" si="6"/>
-        <v>44.04</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="7"/>
-        <v>55.799999999999955</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="8"/>
-        <v>23.599999999999909</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="4"/>
-        <v>35.399999999999864</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ca="1" si="5"/>
         <v>52.400000000000091</v>
       </c>
       <c r="R26" s="1"/>
@@ -3008,7 +3030,7 @@
         <v>112</v>
       </c>
       <c r="D27" s="25">
-        <f t="shared" ref="D27:D40" si="12">C27/10</f>
+        <f t="shared" ref="D27:D40" si="13">C27/10</f>
         <v>11.2</v>
       </c>
       <c r="E27" s="22">
@@ -3018,36 +3040,36 @@
         <v>1</v>
       </c>
       <c r="G27" s="26">
-        <f t="shared" ref="G27:G40" si="13">ROUND($C$4/(D27/E27*F27),0)</f>
+        <f t="shared" ref="G27:G40" si="14">ROUND($C$4/(D27/E27*F27),0)</f>
         <v>180</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="I27" s="24"/>
       <c r="K27">
+        <f t="shared" ca="1" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="P27">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="P27">
-        <f t="shared" ca="1" si="5"/>
         <v>92</v>
       </c>
       <c r="R27" s="25">
@@ -3081,32 +3103,32 @@
         <v>604</v>
       </c>
       <c r="H28" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="I28" s="24"/>
       <c r="K28">
+        <f t="shared" ca="1" si="7"/>
+        <v>14.14</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="8"/>
+        <v>32.100000000000023</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.3000000000000114</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="5"/>
+        <v>12.399999999999977</v>
+      </c>
+      <c r="P28">
         <f t="shared" ca="1" si="6"/>
-        <v>14.14</v>
-      </c>
-      <c r="L28">
-        <f t="shared" ca="1" si="7"/>
-        <v>32.100000000000023</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ca="1" si="8"/>
-        <v>7.8999999999999773</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3000000000000114</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ca="1" si="4"/>
-        <v>12.399999999999977</v>
-      </c>
-      <c r="P28">
-        <f t="shared" ca="1" si="5"/>
         <v>12</v>
       </c>
       <c r="R28" s="1"/>
@@ -3126,7 +3148,7 @@
         <v>520</v>
       </c>
       <c r="D29" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="E29" s="22">
@@ -3136,37 +3158,37 @@
         <v>0.5</v>
       </c>
       <c r="G29" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="30"/>
       <c r="K29">
+        <f t="shared" ca="1" si="7"/>
+        <v>109.84</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ca="1" si="4"/>
+        <v>132.20000000000027</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="P29">
         <f t="shared" ca="1" si="6"/>
-        <v>109.84</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ca="1" si="7"/>
-        <v>81</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ca="1" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="N29">
-        <f t="shared" ca="1" si="3"/>
-        <v>132.20000000000027</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="4"/>
-        <v>143</v>
-      </c>
-      <c r="P29">
-        <f t="shared" ca="1" si="5"/>
         <v>145</v>
       </c>
       <c r="R29" s="25">
@@ -3186,7 +3208,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E30" s="22">
@@ -3196,36 +3218,36 @@
         <v>0.05</v>
       </c>
       <c r="G30" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2016</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="I30" s="24"/>
       <c r="K30">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.08</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1000000000000085</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="P30">
         <f t="shared" ca="1" si="6"/>
-        <v>5.08</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.3000000000000114</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.1999999999999886</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.1000000000000085</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7999999999999972</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ca="1" si="5"/>
         <v>11</v>
       </c>
       <c r="R30" s="1"/>
@@ -3243,7 +3265,7 @@
         <v>7.51</v>
       </c>
       <c r="D31" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.751</v>
       </c>
       <c r="E31" s="22">
@@ -3253,11 +3275,11 @@
         <v>0.05</v>
       </c>
       <c r="G31" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2684</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="I31" s="23"/>
@@ -3265,27 +3287,27 @@
         <v>46058</v>
       </c>
       <c r="K31">
+        <f t="shared" ca="1" si="7"/>
+        <v>7.51</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.9499999999999886</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="P31">
         <f t="shared" ca="1" si="6"/>
-        <v>7.51</v>
-      </c>
-      <c r="L31">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.9499999999999886</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.75</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.8999999999999773</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ca="1" si="5"/>
         <v>9.9499999999999886</v>
       </c>
       <c r="R31" s="29">
@@ -3321,32 +3343,32 @@
         <v>1792</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="I32" s="24"/>
       <c r="K32">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.99</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.75</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0900000000000034</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2650000000000006</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.5849999999999937</v>
+      </c>
+      <c r="P32">
         <f t="shared" ca="1" si="6"/>
-        <v>1.99</v>
-      </c>
-      <c r="L32">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.75</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0900000000000034</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2650000000000006</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.5849999999999937</v>
-      </c>
-      <c r="P32">
-        <f t="shared" ca="1" si="5"/>
         <v>3.25</v>
       </c>
       <c r="R32" s="1"/>
@@ -3364,7 +3386,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="E33" s="22">
@@ -3374,37 +3396,37 @@
         <v>0.1</v>
       </c>
       <c r="G33" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>336</v>
       </c>
       <c r="H33" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="30"/>
       <c r="K33">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.6299999999999955</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.1700000000000159</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4900000000000091</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.5799999999999841</v>
+      </c>
+      <c r="P33">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.6299999999999955</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1700000000000159</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.4900000000000091</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5799999999999841</v>
-      </c>
-      <c r="P33">
-        <f t="shared" ca="1" si="5"/>
         <v>7.910000000000025</v>
       </c>
       <c r="R33" s="29">
@@ -3426,7 +3448,7 @@
         <v>70</v>
       </c>
       <c r="D34" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="E34" s="22">
@@ -3436,36 +3458,36 @@
         <v>0.2</v>
       </c>
       <c r="G34" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
       <c r="H34" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="I34" s="24"/>
       <c r="K34">
+        <f t="shared" ca="1" si="7"/>
+        <v>44.16</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="4"/>
+        <v>55.200000000000045</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="5"/>
+        <v>52.200000000000045</v>
+      </c>
+      <c r="P34">
         <f t="shared" ca="1" si="6"/>
-        <v>44.16</v>
-      </c>
-      <c r="L34">
-        <f t="shared" ca="1" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ca="1" si="3"/>
-        <v>55.200000000000045</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ca="1" si="4"/>
-        <v>52.200000000000045</v>
-      </c>
-      <c r="P34">
-        <f t="shared" ca="1" si="5"/>
         <v>29.399999999999977</v>
       </c>
       <c r="R34" s="25">
@@ -3499,32 +3521,32 @@
         <v>1440</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="I35" s="24"/>
       <c r="K35">
+        <f t="shared" ca="1" si="7"/>
+        <v>-34552.17</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.1999999999999824E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="9"/>
+        <v>-184448.73800000001</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.8999999999999932E-2</v>
+      </c>
+      <c r="P35">
         <f t="shared" ca="1" si="6"/>
-        <v>-34552.17</v>
-      </c>
-      <c r="L35">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.1999999999999824E-2</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="8"/>
-        <v>-184448.73800000001</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.499999999999992E-2</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.8999999999999932E-2</v>
-      </c>
-      <c r="P35">
-        <f t="shared" ca="1" si="5"/>
         <v>11687.748</v>
       </c>
       <c r="R35" s="29">
@@ -3556,32 +3578,32 @@
         <v>1084</v>
       </c>
       <c r="H36" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="I36" s="24"/>
       <c r="K36">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.75</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.8000000000000114</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.4000000000000341</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="5"/>
+        <v>11.25</v>
+      </c>
+      <c r="P36">
         <f t="shared" ca="1" si="6"/>
-        <v>9.75</v>
-      </c>
-      <c r="L36">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="M36">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.8000000000000114</v>
-      </c>
-      <c r="N36">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4000000000000341</v>
-      </c>
-      <c r="O36">
-        <f t="shared" ca="1" si="4"/>
-        <v>11.25</v>
-      </c>
-      <c r="P36">
-        <f t="shared" ca="1" si="5"/>
         <v>14.300000000000011</v>
       </c>
       <c r="R36" s="25">
@@ -3615,7 +3637,7 @@
         <v>336</v>
       </c>
       <c r="H37" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="I37" s="24"/>
@@ -3623,27 +3645,27 @@
         <v>46058</v>
       </c>
       <c r="K37">
+        <f t="shared" ca="1" si="7"/>
+        <v>45.6</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.5</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="P37">
         <f t="shared" ca="1" si="6"/>
-        <v>45.6</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ca="1" si="7"/>
-        <v>115</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ca="1" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ca="1" si="3"/>
-        <v>15.5</v>
-      </c>
-      <c r="O37">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="P37">
-        <f t="shared" ca="1" si="5"/>
         <v>35.5</v>
       </c>
       <c r="R37" s="1"/>
@@ -3675,32 +3697,32 @@
         <v>0</v>
       </c>
       <c r="H38" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13800</v>
       </c>
       <c r="I38" s="24"/>
       <c r="K38">
+        <f t="shared" ca="1" si="7"/>
+        <v>-18487.09</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="8"/>
+        <v>-46264.525000000001</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.26500000000000057</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.54499999999999815</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.49500000000000099</v>
+      </c>
+      <c r="P38">
         <f t="shared" ca="1" si="6"/>
-        <v>-18487.09</v>
-      </c>
-      <c r="L38">
-        <f t="shared" ca="1" si="7"/>
-        <v>-46264.525000000001</v>
-      </c>
-      <c r="M38">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.26500000000000057</v>
-      </c>
-      <c r="N38">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.54499999999999815</v>
-      </c>
-      <c r="O38">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.49500000000000099</v>
-      </c>
-      <c r="P38">
-        <f t="shared" ca="1" si="5"/>
         <v>-46172.25</v>
       </c>
     </row>
@@ -3712,7 +3734,7 @@
         <v>1.65</v>
       </c>
       <c r="D39" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16499999999999998</v>
       </c>
       <c r="E39" s="22">
@@ -3722,36 +3744,36 @@
         <v>0.05</v>
       </c>
       <c r="G39" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1222</v>
       </c>
       <c r="H39" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="I39" s="24"/>
       <c r="K39">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.79</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.42999999999999972</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.86999999999999744</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="P39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.79</v>
-      </c>
-      <c r="L39">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.0300000000000011</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.42999999999999972</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.86999999999999744</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.57999999999999829</v>
-      </c>
-      <c r="P39">
-        <f t="shared" ca="1" si="5"/>
         <v>1.0649999999999977</v>
       </c>
       <c r="R39" s="25">
@@ -3773,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
       <c r="E40" s="22">
@@ -3783,16 +3805,16 @@
         <v>0.1</v>
       </c>
       <c r="G40" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1680</v>
       </c>
       <c r="H40" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="I40" s="24"/>
       <c r="K40">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>13.62</v>
       </c>
       <c r="L40">
@@ -3800,19 +3822,19 @@
         <v>14.899999999999977</v>
       </c>
       <c r="M40">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>8.8000000000000682</v>
       </c>
       <c r="N40">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>13.700000000000045</v>
       </c>
       <c r="O40">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>12.199999999999932</v>
       </c>
       <c r="P40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>18.5</v>
       </c>
       <c r="R40" s="25">
@@ -3842,36 +3864,36 @@
         <v>0.2</v>
       </c>
       <c r="G41" s="26">
-        <f t="shared" ref="G41:G46" si="14">ROUND($C$4/(D41/E41*F41),0)</f>
+        <f t="shared" ref="G41:G46" si="15">ROUND($C$4/(D41/E41*F41),0)</f>
         <v>336</v>
       </c>
       <c r="H41" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="I41" s="24"/>
       <c r="K41">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.63</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6599999999999966</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="P41">
         <f t="shared" ca="1" si="6"/>
-        <v>2.63</v>
-      </c>
-      <c r="L41">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.3599999999999994</v>
-      </c>
-      <c r="M41">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1999999999999886</v>
-      </c>
-      <c r="N41">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6599999999999966</v>
-      </c>
-      <c r="O41">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.0600000000000023</v>
-      </c>
-      <c r="P41">
-        <f t="shared" ca="1" si="5"/>
         <v>3.8799999999999955</v>
       </c>
       <c r="R41" s="29">
@@ -3901,36 +3923,36 @@
         <v>0.5</v>
       </c>
       <c r="G42" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288</v>
       </c>
       <c r="H42" s="22">
-        <f t="shared" ref="H42:H44" si="15">ROUND(D42/E42,0)</f>
+        <f t="shared" ref="H42:H44" si="16">ROUND(D42/E42,0)</f>
         <v>14</v>
       </c>
       <c r="I42" s="24"/>
       <c r="K42">
+        <f t="shared" ca="1" si="7"/>
+        <v>17.04</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="8"/>
+        <v>18.399999999999864</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.8000000000001819</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.799999999999955</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ca="1" si="5"/>
+        <v>15.599999999999909</v>
+      </c>
+      <c r="P42">
         <f t="shared" ca="1" si="6"/>
-        <v>17.04</v>
-      </c>
-      <c r="L42">
-        <f t="shared" ca="1" si="7"/>
-        <v>18.399999999999864</v>
-      </c>
-      <c r="M42">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.8000000000001819</v>
-      </c>
-      <c r="N42">
-        <f t="shared" ca="1" si="3"/>
-        <v>22.799999999999955</v>
-      </c>
-      <c r="O42">
-        <f t="shared" ca="1" si="4"/>
-        <v>15.599999999999909</v>
-      </c>
-      <c r="P42">
-        <f t="shared" ca="1" si="5"/>
         <v>18.599999999999909</v>
       </c>
       <c r="R42" s="1"/>
@@ -3960,11 +3982,11 @@
         <v>0.1</v>
       </c>
       <c r="G43" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>395</v>
       </c>
       <c r="H43" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="I43" s="24"/>
@@ -3976,23 +3998,23 @@
         <v>0.12180000000000001</v>
       </c>
       <c r="L43">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>8.2900000000000085E-2</v>
       </c>
       <c r="M43">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>7.6999999999999957E-2</v>
       </c>
       <c r="N43">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5.2799999999999958E-2</v>
       </c>
       <c r="O43">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8.890000000000009E-2</v>
       </c>
       <c r="P43">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3073999999999999</v>
       </c>
       <c r="R43" s="1"/>
@@ -4018,11 +4040,11 @@
         <v>0.05</v>
       </c>
       <c r="G44" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2076</v>
       </c>
       <c r="H44" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="I44" s="23"/>
@@ -4030,27 +4052,27 @@
         <v>46058</v>
       </c>
       <c r="K44">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="8"/>
+        <v>10.449999999999989</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="9"/>
+        <v>12.600000000000023</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.5999999999999659</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="P44">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="L44">
-        <f t="shared" ca="1" si="7"/>
-        <v>10.449999999999989</v>
-      </c>
-      <c r="M44">
-        <f t="shared" ca="1" si="8"/>
-        <v>12.600000000000023</v>
-      </c>
-      <c r="N44">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.5999999999999659</v>
-      </c>
-      <c r="O44">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.6999999999999886</v>
-      </c>
-      <c r="P44">
-        <f t="shared" ca="1" si="5"/>
         <v>10.200000000000045</v>
       </c>
       <c r="R44" s="1"/>
@@ -4081,7 +4103,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G45" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7724</v>
       </c>
       <c r="H45" s="22">
@@ -4093,27 +4115,27 @@
         <v>46057</v>
       </c>
       <c r="K45">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.58</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.4749999999999943</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.6299999999999955</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5100000000000051</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.4400000000000119</v>
+      </c>
+      <c r="P45">
         <f t="shared" ca="1" si="6"/>
-        <v>3.58</v>
-      </c>
-      <c r="L45">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.4749999999999943</v>
-      </c>
-      <c r="M45">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.6299999999999955</v>
-      </c>
-      <c r="N45">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.5100000000000051</v>
-      </c>
-      <c r="O45">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.4400000000000119</v>
-      </c>
-      <c r="P45">
-        <f t="shared" ca="1" si="5"/>
         <v>4.8499999999999943</v>
       </c>
       <c r="R45" s="29">
@@ -4143,7 +4165,7 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>202</v>
       </c>
       <c r="H46" s="22">
@@ -4152,27 +4174,27 @@
       </c>
       <c r="I46" s="24"/>
       <c r="K46">
+        <f t="shared" ca="1" si="7"/>
+        <v>43.3</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="9"/>
+        <v>23.5</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ca="1" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="P46">
         <f t="shared" ca="1" si="6"/>
-        <v>43.3</v>
-      </c>
-      <c r="L46">
-        <f t="shared" ca="1" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="M46">
-        <f t="shared" ca="1" si="8"/>
-        <v>23.5</v>
-      </c>
-      <c r="N46">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="O46">
-        <f t="shared" ca="1" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="P46">
-        <f t="shared" ca="1" si="5"/>
         <v>49</v>
       </c>
       <c r="R46" s="1"/>
@@ -4188,7 +4210,7 @@
         <v>140</v>
       </c>
       <c r="D47" s="25">
-        <f t="shared" ref="D47:D50" si="16">C47/10</f>
+        <f t="shared" ref="D47:D50" si="17">C47/10</f>
         <v>14</v>
       </c>
       <c r="E47" s="1">
@@ -4198,36 +4220,36 @@
         <v>0.5</v>
       </c>
       <c r="G47" s="26">
-        <f t="shared" ref="G47:G50" si="17">ROUND($C$4/(D47/E47*F47),0)</f>
+        <f t="shared" ref="G47:G50" si="18">ROUND($C$4/(D47/E47*F47),0)</f>
         <v>144</v>
       </c>
       <c r="H47" s="22">
-        <f t="shared" ref="H47:H50" si="18">ROUND(D47/E47,0)</f>
+        <f t="shared" ref="H47:H50" si="19">ROUND(D47/E47,0)</f>
         <v>28</v>
       </c>
       <c r="I47" s="23"/>
       <c r="K47">
+        <f t="shared" ca="1" si="7"/>
+        <v>85.3</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="8"/>
+        <v>85.5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ca="1" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="P47">
         <f t="shared" ca="1" si="6"/>
-        <v>85.3</v>
-      </c>
-      <c r="L47">
-        <f t="shared" ca="1" si="7"/>
-        <v>85.5</v>
-      </c>
-      <c r="M47">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
-      </c>
-      <c r="N47">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="O47">
-        <f t="shared" ca="1" si="4"/>
-        <v>116</v>
-      </c>
-      <c r="P47">
-        <f t="shared" ca="1" si="5"/>
         <v>95</v>
       </c>
       <c r="R47" s="1">
@@ -4249,7 +4271,7 @@
         <v>60</v>
       </c>
       <c r="D48" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="E48" s="1">
@@ -4259,11 +4281,11 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="H48" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>120</v>
       </c>
       <c r="I48" s="23"/>
@@ -4284,7 +4306,7 @@
         <v>0.1</v>
       </c>
       <c r="D49" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
       <c r="E49" s="22">
@@ -4294,11 +4316,11 @@
         <v>1</v>
       </c>
       <c r="G49" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>202</v>
       </c>
       <c r="H49" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I49" s="24"/>
@@ -4321,7 +4343,7 @@
         <v>550</v>
       </c>
       <c r="D50" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="E50" s="22">
@@ -4331,11 +4353,11 @@
         <v>1</v>
       </c>
       <c r="G50" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="H50" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>55</v>
       </c>
       <c r="I50" s="24"/>
@@ -4356,6 +4378,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/calc.xlsx
+++ b/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa.shenshin\Documents\calc_pos_moex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moex\calc_pos_moex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -785,19 +785,19 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>15</v>
@@ -1046,17 +1046,17 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>-9954.7800000000061</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>38.640000000000036</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>3.3543999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1603,7 +1603,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1612,7 +1612,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1621,7 +1621,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1630,7 +1630,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1639,7 +1639,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1648,7 +1648,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1657,7 +1657,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1666,7 +1666,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1675,7 +1675,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1684,7 +1684,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1693,7 +1693,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1702,7 +1702,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1711,7 +1711,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1720,7 +1720,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1729,7 +1729,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1738,7 +1738,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1757,23 +1757,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="12" max="16" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="12" max="16" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="L6" s="5" t="str">
         <f ca="1">TEXT(L7,"ддд")</f>
         <v>Ср</v>
@@ -1813,7 +1813,7 @@
         <v>Чт</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>68</v>
       </c>
@@ -2179,7 +2179,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
@@ -2298,16 +2298,16 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="22">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="10"/>
-        <v>0.33999999999999997</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="E15" s="22">
         <v>0.02</v>
@@ -2317,13 +2317,16 @@
       </c>
       <c r="G15" s="26">
         <f t="shared" si="11"/>
-        <v>593</v>
+        <v>305</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I15" s="24"/>
+      <c r="J15" s="30">
+        <v>46058</v>
+      </c>
       <c r="K15">
         <f t="shared" ca="1" si="7"/>
         <v>6.6</v>
@@ -2357,7 +2360,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="22" t="s">
         <v>51</v>
       </c>
@@ -2414,7 +2417,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="22" t="s">
         <v>55</v>
       </c>
@@ -2476,7 +2479,7 @@
       </c>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2537,7 +2540,7 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2599,7 +2602,7 @@
       </c>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>53</v>
       </c>
@@ -2661,7 +2664,7 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
         <v>45</v>
       </c>
@@ -2723,7 +2726,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2784,7 +2787,7 @@
       </c>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2846,7 +2849,7 @@
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
         <v>66</v>
       </c>
@@ -2903,16 +2906,16 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="1">
-        <v>100</v>
+        <v>125.5</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.55</v>
       </c>
       <c r="E25" s="1">
         <v>0.5</v>
@@ -2922,14 +2925,16 @@
       </c>
       <c r="G25" s="26">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="30">
+        <v>46058</v>
+      </c>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
         <v>125.5</v>
@@ -2965,7 +2970,7 @@
       </c>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="22" t="s">
         <v>72</v>
       </c>
@@ -3022,7 +3027,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="22" t="s">
         <v>54</v>
       </c>
@@ -3081,7 +3086,7 @@
       </c>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="22" t="s">
         <v>70</v>
       </c>
@@ -3140,33 +3145,35 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="22">
-        <v>520</v>
+        <v>109.84</v>
       </c>
       <c r="D29" s="25">
         <f t="shared" si="13"/>
-        <v>52</v>
+        <v>10.984</v>
       </c>
       <c r="E29" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F29" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G29" s="26">
         <f t="shared" si="14"/>
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="12"/>
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I29" s="24"/>
-      <c r="J29" s="30"/>
+      <c r="J29" s="30">
+        <v>46058</v>
+      </c>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
         <v>109.84</v>
@@ -3200,7 +3207,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="22" t="s">
         <v>63</v>
       </c>
@@ -3257,7 +3264,7 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="22" t="s">
         <v>49</v>
       </c>
@@ -3321,7 +3328,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="22" t="s">
         <v>67</v>
       </c>
@@ -3378,7 +3385,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B33" s="22" t="s">
         <v>48</v>
       </c>
@@ -3440,16 +3447,16 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B34" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="22">
-        <v>70</v>
+        <v>44.16</v>
       </c>
       <c r="D34" s="25">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>4.4159999999999995</v>
       </c>
       <c r="E34" s="22">
         <v>0.2</v>
@@ -3459,13 +3466,16 @@
       </c>
       <c r="G34" s="26">
         <f t="shared" si="14"/>
-        <v>288</v>
+        <v>457</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I34" s="24"/>
+      <c r="J34" s="30">
+        <v>46058</v>
+      </c>
       <c r="K34">
         <f t="shared" ca="1" si="7"/>
         <v>44.16</v>
@@ -3499,7 +3509,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B35" s="22" t="s">
         <v>65</v>
       </c>
@@ -3556,7 +3566,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B36" s="22" t="s">
         <v>71</v>
       </c>
@@ -3615,16 +3625,16 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B37" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="22">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D37" s="25">
         <f>C37/10</f>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E37" s="22">
         <v>0.2</v>
@@ -3634,11 +3644,11 @@
       </c>
       <c r="G37" s="26">
         <f>ROUND($C$4/(D37/E37*F37),0)</f>
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="30">
@@ -3675,7 +3685,7 @@
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
@@ -3726,7 +3736,7 @@
         <v>-46172.25</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B39" s="22" t="s">
         <v>60</v>
       </c>
@@ -3787,7 +3797,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B40" s="22" t="s">
         <v>62</v>
       </c>
@@ -3846,7 +3856,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B41" s="22" t="s">
         <v>52</v>
       </c>
@@ -3905,7 +3915,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B42" s="22" t="s">
         <v>74</v>
       </c>
@@ -3964,7 +3974,7 @@
       </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B43" s="22" t="s">
         <v>81</v>
       </c>
@@ -4022,7 +4032,7 @@
       <c r="T43" s="22"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
@@ -4082,7 +4092,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -4147,7 +4157,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
@@ -4202,7 +4212,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
@@ -4263,7 +4273,7 @@
       </c>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B48" s="27" t="s">
         <v>73</v>
       </c>
@@ -4298,7 +4308,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="27" t="s">
         <v>11</v>
       </c>
@@ -4335,7 +4345,7 @@
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B50" s="27" t="s">
         <v>82</v>
       </c>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moex\calc_pos_moex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa.shenshin\Documents\calc_pos_moex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>Депозит</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>SiH6</t>
+  </si>
+  <si>
+    <t>FEES</t>
   </si>
 </sst>
 </file>
@@ -785,19 +788,19 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -805,7 +808,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -901,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>15</v>
@@ -1046,17 +1049,17 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>-9954.7800000000061</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>38.640000000000036</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1225,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>3.3543999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1356,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1392,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
@@ -1425,7 +1428,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
@@ -1461,7 +1464,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1493,7 +1496,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1548,7 +1551,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
@@ -1571,7 +1574,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
@@ -1594,7 +1597,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1603,7 +1606,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1612,7 +1615,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1621,7 +1624,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1630,7 +1633,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1639,7 +1642,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1648,7 +1651,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1657,7 +1660,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1666,7 +1669,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1675,7 +1678,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1684,7 +1687,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1693,7 +1696,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1702,7 +1705,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1711,7 +1714,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1720,7 +1723,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1729,7 +1732,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1738,7 +1741,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1755,65 +1758,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U50"/>
+  <dimension ref="A3:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="12" max="16" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="12" max="16" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="31">
         <f>C3*1.2/100</f>
-        <v>2016</v>
+        <v>1680</v>
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L6" s="5" t="str">
         <f ca="1">TEXT(L7,"ддд")</f>
-        <v>Ср</v>
+        <v>Пт</v>
       </c>
       <c r="M6" s="5" t="str">
         <f ca="1">TEXT(M7,"ддд")</f>
-        <v>Вт</v>
+        <v>Чт</v>
       </c>
       <c r="N6" s="5" t="str">
         <f t="shared" ref="N6:P6" ca="1" si="0">TEXT(N7,"ддд")</f>
-        <v>Пн</v>
+        <v>Ср</v>
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Пт</v>
+        <v>Вт</v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Чт</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+        <v>Пн</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1843,24 +1846,24 @@
         <v>79</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-1, "ГГГГ-ММ-ДД")</f>
+        <f ca="1">TEXT(TODAY()-3, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-06</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-4, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-05</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-5, "ГГГГ-ММ-ДД")</f>
         <v>2026-02-04</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-2, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-03</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-3, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-02</v>
       </c>
       <c r="O7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-6, "ГГГГ-ММ-ДД")</f>
-        <v>2026-01-30</v>
+        <v>2026-02-03</v>
       </c>
       <c r="P7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-7, "ГГГГ-ММ-ДД")</f>
-        <v>2026-01-29</v>
+        <v>2026-02-02</v>
       </c>
       <c r="R7" s="28">
         <v>45566</v>
@@ -1875,7 +1878,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>0.6</v>
       </c>
       <c r="D8" s="25">
-        <f t="shared" ref="D8:D25" si="1">C8/10</f>
+        <f t="shared" ref="D8:D26" si="1">C8/10</f>
         <v>0.06</v>
       </c>
       <c r="E8" s="22">
@@ -1893,38 +1896,38 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="26">
-        <f t="shared" ref="G8:G25" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
-        <v>336</v>
+        <f t="shared" ref="G8:G26" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
+        <v>280</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" ref="H8:H16" si="3">ROUND(D8/E8,0)</f>
+        <f t="shared" ref="H8:H17" si="3">ROUND(D8/E8,0)</f>
         <v>60</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="30"/>
       <c r="K8">
         <f ca="1">ROUND(AVERAGE(L8:P8),2)</f>
-        <v>-18426.29</v>
+        <v>-18493.16</v>
       </c>
       <c r="L8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.41400000000000148</v>
+        <v>-46355.578000000001</v>
       </c>
       <c r="M8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.24000000000000021</v>
+        <v>0.41499999999999915</v>
       </c>
       <c r="N8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>-46111.281000000003</v>
+        <v>0.41400000000000148</v>
       </c>
       <c r="O8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.31300000000000061</v>
+        <v>0.24000000000000021</v>
       </c>
       <c r="P8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>-46021.16</v>
+        <v>-46111.281000000003</v>
       </c>
       <c r="R8" s="29">
         <v>54</v>
@@ -1937,16 +1940,16 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>1.24</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.124</v>
       </c>
       <c r="E9" s="1">
         <v>0.01</v>
@@ -1956,36 +1959,39 @@
       </c>
       <c r="G9" s="26">
         <f t="shared" si="2"/>
-        <v>672</v>
+        <v>1355</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I9" s="23"/>
+      <c r="J9" s="30">
+        <v>46062</v>
+      </c>
       <c r="K9">
         <f ca="1">ROUND(AVERAGE(L9:P9),2)</f>
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="L9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.9699999999999989</v>
+        <v>1.0799999999999983</v>
       </c>
       <c r="M9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>0.72999999999999687</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N48" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>1.9699999999999989</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O48" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>1.4200000000000017</v>
       </c>
-      <c r="N9">
-        <f t="shared" ref="N9:N47" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+      <c r="P9">
+        <f t="shared" ref="P9:P48" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>1.009999999999998</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ref="O9:O47" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.25</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ref="P9:P47" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>2.220000000000006</v>
       </c>
       <c r="R9" s="25">
         <v>-30</v>
@@ -1998,7 +2004,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
@@ -2017,7 +2023,7 @@
       </c>
       <c r="G10" s="26">
         <f>ROUND($C$4/(D10/E10*F10),0)</f>
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
@@ -2026,27 +2032,27 @@
       <c r="I10" s="24"/>
       <c r="K10">
         <f ca="1">ROUND(AVERAGE(L10:P10),2)</f>
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="L10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.96999999999999886</v>
+        <v>0.81000000000000227</v>
       </c>
       <c r="M10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.44000000000000483</v>
+        <v>0.82000000000000028</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71000000000000085</v>
+        <v>0.96999999999999886</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="5"/>
-        <v>1.230000000000004</v>
+        <v>0.44000000000000483</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3399999999999963</v>
+        <v>0.71000000000000085</v>
       </c>
       <c r="R10" s="29">
         <v>39</v>
@@ -2059,7 +2065,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2078,7 +2084,7 @@
       </c>
       <c r="G11" s="26">
         <f t="shared" si="2"/>
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
@@ -2086,28 +2092,28 @@
       </c>
       <c r="I11" s="23"/>
       <c r="K11">
-        <f t="shared" ref="K11:K47" ca="1" si="7">ROUND(AVERAGE(L11:P11),2)</f>
-        <v>29.76</v>
+        <f t="shared" ref="K11:K48" ca="1" si="7">ROUND(AVERAGE(L11:P11),2)</f>
+        <v>18.64</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L47" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>17.200000000000045</v>
+        <f t="shared" ref="L11:L48" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>13</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M47" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>22</v>
+        <f t="shared" ref="M11:M48" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>20.200000000000045</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="4"/>
-        <v>20.799999999999955</v>
+        <v>17.200000000000045</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="5"/>
-        <v>33.800000000000068</v>
+        <v>22</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>20.799999999999955</v>
       </c>
       <c r="R11" s="29">
         <v>80</v>
@@ -2120,7 +2126,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>68</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>3.22</v>
       </c>
       <c r="D12" s="25">
-        <f t="shared" ref="D12:D17" si="10">C12/10</f>
+        <f t="shared" ref="D12:D18" si="10">C12/10</f>
         <v>0.32200000000000001</v>
       </c>
       <c r="E12" s="22">
@@ -2138,8 +2144,8 @@
         <v>0.1</v>
       </c>
       <c r="G12" s="26">
-        <f t="shared" ref="G12:G17" si="11">ROUND($C$4/(D12/E12*F12),0)</f>
-        <v>626</v>
+        <f t="shared" ref="G12:G18" si="11">ROUND($C$4/(D12/E12*F12),0)</f>
+        <v>522</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
@@ -2148,27 +2154,27 @@
       <c r="I12" s="24"/>
       <c r="K12">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8599999999999994</v>
+        <v>2.75</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="9"/>
-        <v>0.71000000000000796</v>
+        <v>1.2099999999999937</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7800000000000011</v>
+        <v>1.8599999999999994</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4100000000000108</v>
+        <v>0.71000000000000796</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7199999999999989</v>
+        <v>1.7800000000000011</v>
       </c>
       <c r="R12" s="29">
         <v>27</v>
@@ -2179,7 +2185,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>50</v>
       </c>
@@ -2198,7 +2204,7 @@
       </c>
       <c r="G13" s="26">
         <f t="shared" si="11"/>
-        <v>3733</v>
+        <v>3111</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="3"/>
@@ -2207,34 +2213,34 @@
       <c r="I13" s="23"/>
       <c r="K13">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2599999999999998</v>
+        <v>2.69</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3499999999999943</v>
+        <v>3.1500000000000057</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2999999999999829</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6500000000000057</v>
+        <v>2.3499999999999943</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4500000000000171</v>
+        <v>2.2999999999999829</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5499999999999829</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
@@ -2253,7 +2259,7 @@
       </c>
       <c r="G14" s="26">
         <f t="shared" si="11"/>
-        <v>1120</v>
+        <v>933</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
@@ -2265,27 +2271,27 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1999999999999886</v>
+        <v>1.25</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5799999999999983</v>
+        <v>2.5300000000000011</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8800000000000097</v>
+        <v>2.1999999999999886</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0800000000000125</v>
+        <v>1.5799999999999983</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2599999999999909</v>
+        <v>1.8800000000000097</v>
       </c>
       <c r="R14" s="25">
         <v>-2</v>
@@ -2298,982 +2304,986 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C15" s="22">
-        <v>6.6</v>
+        <v>1.8600000000000001E-3</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="10"/>
-        <v>0.65999999999999992</v>
+        <v>1.8600000000000002E-4</v>
       </c>
       <c r="E15" s="22">
-        <v>0.02</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="F15" s="22">
         <v>0.2</v>
       </c>
       <c r="G15" s="26">
         <f t="shared" si="11"/>
-        <v>305</v>
+        <v>903</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="30">
-        <v>46058</v>
+        <v>46062</v>
       </c>
       <c r="K15">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.6</v>
+        <f ca="1">ROUND(AVERAGE(L15:P15),5)</f>
+        <v>1.8600000000000001E-3</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="8"/>
-        <v>7.2400000000000091</v>
+        <v>1.6599999999999948E-3</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="9"/>
-        <v>2.8000000000000114</v>
+        <v>1.9600000000000034E-3</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3600000000000136</v>
+        <v>2.8599999999999876E-3</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="5"/>
-        <v>10.099999999999994</v>
+        <v>1.5399999999999997E-3</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5199999999999818</v>
-      </c>
-      <c r="R15" s="25">
-        <v>-211</v>
-      </c>
-      <c r="S15" s="25">
-        <v>-701</v>
-      </c>
-      <c r="T15" s="1"/>
+        <v>1.2999999999999956E-3</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C16" s="22">
-        <v>7.85E-2</v>
+        <v>6.6</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="10"/>
-        <v>7.8499999999999993E-3</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="E16" s="22">
-        <v>5.0000000000000001E-4</v>
+        <v>0.02</v>
       </c>
       <c r="F16" s="22">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G16" s="26">
         <f t="shared" si="11"/>
-        <v>2568</v>
+        <v>255</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I16" s="24"/>
+      <c r="J16" s="30">
+        <v>46058</v>
+      </c>
       <c r="K16">
         <f t="shared" ca="1" si="7"/>
-        <v>-220617.61</v>
+        <v>5.14</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.11499999999999977</v>
+        <v>5.039999999999992</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="9"/>
-        <v>-1131886</v>
+        <v>4.2800000000000011</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="4"/>
-        <v>1367469</v>
+        <v>7.2400000000000091</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15600000000000014</v>
+        <v>2.8000000000000114</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="6"/>
-        <v>-1338671.345</v>
-      </c>
-      <c r="R16" s="1"/>
+        <v>6.3600000000000136</v>
+      </c>
+      <c r="R16" s="25">
+        <v>-211</v>
+      </c>
       <c r="S16" s="25">
-        <v>-488</v>
+        <v>-701</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C17" s="22">
-        <v>110</v>
+        <v>7.85E-2</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>7.8499999999999993E-3</v>
       </c>
       <c r="E17" s="22">
-        <v>0.5</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F17" s="22">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" si="11"/>
-        <v>183</v>
+        <v>2140</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" ref="H17:H41" si="12">ROUND(D17/E17,0)</f>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="I17" s="24"/>
-      <c r="J17" s="30"/>
       <c r="K17">
         <f t="shared" ca="1" si="7"/>
-        <v>108.4</v>
+        <v>110534.35</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="8"/>
-        <v>93.5</v>
+        <v>-787828</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>1104916.6140000001</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>0.11499999999999977</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>-1131886</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="6"/>
-        <v>195.5</v>
-      </c>
-      <c r="R17" s="25">
+        <v>1367469</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="25">
+        <v>-488</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="22">
+        <v>80</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" ref="H18:H42" si="12">ROUND(D18/E18,0)</f>
+        <v>16</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="30"/>
+      <c r="K18">
+        <f t="shared" ca="1" si="7"/>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="9"/>
+        <v>105.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="4"/>
+        <v>93.5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="R18" s="25">
         <v>-741</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S18" s="25">
         <v>-475</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T18" s="29">
         <v>34</v>
       </c>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>1.4</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D19" s="25">
         <f t="shared" si="1"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>0.05</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G19" s="26">
         <f t="shared" si="2"/>
-        <v>1440</v>
-      </c>
-      <c r="H18" s="22">
+        <v>1200</v>
+      </c>
+      <c r="H19" s="22">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="K18">
+      <c r="I19" s="23"/>
+      <c r="K19">
         <f t="shared" ca="1" si="7"/>
-        <v>1.44</v>
-      </c>
-      <c r="L18">
+        <v>1.24</v>
+      </c>
+      <c r="L19">
         <f t="shared" ca="1" si="8"/>
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.82500000000000284</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="4"/>
         <v>1.1449999999999996</v>
       </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="9"/>
+      <c r="O19">
+        <f t="shared" ca="1" si="5"/>
         <v>1.4400000000000013</v>
       </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="4"/>
+      <c r="P19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.615000000000002</v>
       </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.1649999999999991</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.8300000000000018</v>
-      </c>
-      <c r="R18" s="25">
+      <c r="R19" s="25">
         <v>-107</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S19" s="25">
         <v>-169</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T19" s="29">
         <v>24</v>
       </c>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>150</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D20" s="25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>0.5</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>0.5</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G20" s="26">
         <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="H19" s="22">
+        <v>112</v>
+      </c>
+      <c r="H20" s="22">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="30"/>
-      <c r="K19">
-        <f t="shared" ca="1" si="7"/>
-        <v>85.6</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="9"/>
-        <v>41</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="5"/>
-        <v>102</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="6"/>
-        <v>108</v>
-      </c>
-      <c r="R19" s="29">
-        <v>45</v>
-      </c>
-      <c r="S19" s="29">
-        <v>10</v>
-      </c>
-      <c r="T19" s="29">
-        <v>44</v>
-      </c>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="22">
-        <v>5.7</v>
-      </c>
-      <c r="D20" s="25">
-        <f>C20/10</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="26">
-        <f>ROUND($C$4/(D20/E20*F20),0)</f>
-        <v>354</v>
-      </c>
-      <c r="H20" s="22">
-        <f t="shared" si="12"/>
-        <v>57</v>
-      </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="30"/>
       <c r="K20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6</v>
+        <v>92</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="8"/>
-        <v>7.0700000000000216</v>
+        <v>135.5</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1500000000000057</v>
+        <v>106.5</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3300000000000125</v>
+        <v>89</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0699999999999932</v>
+        <v>41</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4000000000000057</v>
-      </c>
-      <c r="R20" s="25">
-        <v>-146</v>
-      </c>
-      <c r="S20" s="25">
-        <v>-28</v>
+        <v>88</v>
+      </c>
+      <c r="R20" s="29">
+        <v>45</v>
+      </c>
+      <c r="S20" s="29">
+        <v>10</v>
       </c>
       <c r="T20" s="29">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C21" s="22">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="D21" s="25">
-        <f t="shared" si="1"/>
-        <v>0.65</v>
+        <f>C21/10</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="E21" s="22">
         <v>0.01</v>
       </c>
       <c r="F21" s="22">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G21" s="26">
-        <f t="shared" si="2"/>
-        <v>3102</v>
+        <f>ROUND($C$4/(D21/E21*F21),0)</f>
+        <v>295</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="12"/>
-        <v>65</v>
-      </c>
-      <c r="I21" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="I21" s="24"/>
       <c r="J21" s="30"/>
       <c r="K21">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9</v>
+        <v>5.48</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8200000000000074</v>
+        <v>3.3300000000000125</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2700000000000102</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6300000000000097</v>
+        <v>7.0700000000000216</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0699999999999932</v>
+        <v>8.1500000000000057</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7199999999999989</v>
+        <v>3.3300000000000125</v>
       </c>
       <c r="R21" s="25">
-        <v>-6</v>
-      </c>
-      <c r="S21" s="29">
-        <v>142</v>
+        <v>-146</v>
+      </c>
+      <c r="S21" s="25">
+        <v>-28</v>
       </c>
       <c r="T21" s="29">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6</v>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="22">
+        <v>6.5</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.5</v>
+        <v>0.65</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0.01</v>
       </c>
       <c r="G22" s="26">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>2585</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I22" s="23"/>
+      <c r="J22" s="30"/>
       <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>3.33</v>
+        <v>1.77</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5499999999999829</v>
+        <v>2.6300000000000097</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="9"/>
-        <v>3.5999999999999943</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2999999999999829</v>
+        <v>1.8200000000000074</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0999999999999943</v>
+        <v>1.2700000000000102</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0999999999999943</v>
+        <v>1.6300000000000097</v>
       </c>
       <c r="R22" s="25">
-        <v>-149</v>
+        <v>-6</v>
       </c>
       <c r="S22" s="29">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="T22" s="29">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F23" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="26">
         <f t="shared" si="2"/>
-        <v>504</v>
+        <v>280</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="23"/>
-      <c r="J23" s="30"/>
       <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>4.38</v>
+        <v>4.01</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="8"/>
-        <v>3.980000000000004</v>
+        <v>3.3499999999999943</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="9"/>
-        <v>3.4399999999999977</v>
+        <v>5.25</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9200000000000017</v>
+        <v>3.5499999999999829</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1600000000000108</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4000000000000057</v>
-      </c>
-      <c r="R23" s="29">
-        <v>23</v>
+        <v>4.2999999999999829</v>
+      </c>
+      <c r="R23" s="25">
+        <v>-149</v>
       </c>
       <c r="S23" s="29">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="T23" s="29">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B24" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="22">
-        <v>50</v>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
       </c>
       <c r="D24" s="25">
-        <f>C24/10</f>
-        <v>5</v>
-      </c>
-      <c r="E24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.2</v>
       </c>
-      <c r="F24" s="22">
-        <v>0.2</v>
-      </c>
       <c r="G24" s="26">
-        <f>ROUND($C$4/(D24/E24*F24),0)</f>
-        <v>403</v>
+        <f t="shared" si="2"/>
+        <v>420</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="I24" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="30"/>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>25.08</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="8"/>
-        <v>25.5</v>
+        <v>1.9000000000000057</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="9"/>
-        <v>15.900000000000091</v>
+        <v>3.019999999999996</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="4"/>
-        <v>12.799999999999955</v>
+        <v>3.980000000000004</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="5"/>
-        <v>36.200000000000045</v>
+        <v>3.4399999999999977</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="R24" s="1"/>
+        <v>3.9200000000000017</v>
+      </c>
+      <c r="R24" s="29">
+        <v>23</v>
+      </c>
       <c r="S24" s="29">
+        <v>241</v>
+      </c>
+      <c r="T24" s="29">
+        <v>13</v>
+      </c>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="22">
+        <v>20</v>
+      </c>
+      <c r="D25" s="25">
+        <f>C25/10</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="26">
+        <f>ROUND($C$4/(D25/E25*F25),0)</f>
+        <v>840</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="30">
+        <v>46062</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="7"/>
+        <v>20.46</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="8"/>
+        <v>15.5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="9"/>
+        <v>32.599999999999909</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="5"/>
+        <v>15.900000000000091</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ca="1" si="6"/>
+        <v>12.799999999999955</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="29">
         <v>55</v>
       </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>125.5</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D26" s="25">
         <f t="shared" si="1"/>
         <v>12.55</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>0.5</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>0.5</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G26" s="26">
         <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
-      <c r="H25" s="22">
+        <v>134</v>
+      </c>
+      <c r="H26" s="22">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="30">
+      <c r="I26" s="23"/>
+      <c r="J26" s="30">
         <v>46058</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>125.5</v>
-      </c>
-      <c r="L25">
+        <v>128.1</v>
+      </c>
+      <c r="L26">
         <f t="shared" ca="1" si="8"/>
+        <v>126.5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="9"/>
+        <v>163</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="4"/>
         <v>88.5</v>
       </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="9"/>
+      <c r="O26">
+        <f t="shared" ca="1" si="5"/>
         <v>110.5</v>
       </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="4"/>
+      <c r="P26">
+        <f t="shared" ca="1" si="6"/>
         <v>152</v>
       </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="5"/>
-        <v>208.5</v>
-      </c>
-      <c r="P25">
-        <f t="shared" ca="1" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="R25" s="25">
+      <c r="R26" s="25">
         <v>-6</v>
       </c>
-      <c r="S25" s="25">
+      <c r="S26" s="25">
         <v>-340</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T26" s="29">
         <v>22</v>
       </c>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B26" s="22" t="s">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C27" s="22">
         <v>140</v>
       </c>
-      <c r="D26" s="25">
-        <f>C26/10</f>
+      <c r="D27" s="25">
+        <f>C27/10</f>
         <v>14</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E27" s="22">
         <v>0.2</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F27" s="22">
         <v>0.2</v>
       </c>
-      <c r="G26" s="26">
-        <f>ROUND($C$4/(D26/E26*F26),0)</f>
-        <v>144</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="G27" s="26">
+        <f>ROUND($C$4/(D27/E27*F27),0)</f>
+        <v>120</v>
+      </c>
+      <c r="H27" s="22">
         <f t="shared" si="12"/>
         <v>70</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="K26">
-        <f t="shared" ca="1" si="7"/>
-        <v>44.04</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="8"/>
-        <v>55.799999999999955</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="9"/>
-        <v>23.599999999999909</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="5"/>
-        <v>35.399999999999864</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ca="1" si="6"/>
-        <v>52.400000000000091</v>
-      </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="25">
-        <v>-426</v>
-      </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B27" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="22">
-        <v>112</v>
-      </c>
-      <c r="D27" s="25">
-        <f t="shared" ref="D27:D40" si="13">C27/10</f>
-        <v>11.2</v>
-      </c>
-      <c r="E27" s="22">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-      <c r="G27" s="26">
-        <f t="shared" ref="G27:G40" si="14">ROUND($C$4/(D27/E27*F27),0)</f>
-        <v>180</v>
-      </c>
-      <c r="H27" s="22">
-        <f t="shared" si="12"/>
-        <v>11</v>
       </c>
       <c r="I27" s="24"/>
       <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>41.92</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>53.200000000000045</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="4"/>
-        <v>108</v>
+        <v>55.799999999999955</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
+        <v>23.599999999999909</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="R27" s="25">
-        <v>-31</v>
-      </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="29">
-        <v>35</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="25">
+        <v>-426</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C28" s="22">
-        <v>33.4</v>
+        <v>112</v>
       </c>
       <c r="D28" s="25">
-        <f>C28/10</f>
-        <v>3.34</v>
+        <f t="shared" ref="D28:D41" si="13">C28/10</f>
+        <v>11.2</v>
       </c>
       <c r="E28" s="22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F28" s="22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G28" s="26">
-        <f>ROUND($C$4/(D28/E28*F28),0)</f>
-        <v>604</v>
+        <f t="shared" ref="G28:G41" si="14">ROUND($C$4/(D28/E28*F28),0)</f>
+        <v>150</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I28" s="24"/>
       <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>14.14</v>
+        <v>84.6</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="8"/>
-        <v>32.100000000000023</v>
+        <v>79</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8999999999999773</v>
+        <v>86</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3000000000000114</v>
+        <v>83</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="5"/>
-        <v>12.399999999999977</v>
+        <v>67</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="29">
-        <v>61</v>
-      </c>
-      <c r="T28" s="25">
-        <v>-11</v>
+        <v>108</v>
+      </c>
+      <c r="R28" s="25">
+        <v>-31</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="29">
+        <v>35</v>
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C29" s="22">
-        <v>109.84</v>
+        <v>33.4</v>
       </c>
       <c r="D29" s="25">
-        <f t="shared" si="13"/>
-        <v>10.984</v>
+        <f>C29/10</f>
+        <v>3.34</v>
       </c>
       <c r="E29" s="22">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="22">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="26">
-        <f t="shared" si="14"/>
-        <v>184</v>
+        <f>ROUND($C$4/(D29/E29*F29),0)</f>
+        <v>503</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I29" s="24"/>
-      <c r="J29" s="30">
-        <v>46058</v>
-      </c>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>109.84</v>
+        <v>15.3</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>15.600000000000023</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>14.600000000000023</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="4"/>
-        <v>132.20000000000027</v>
+        <v>32.100000000000023</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="5"/>
-        <v>143</v>
+        <v>7.8999999999999773</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="6"/>
-        <v>145</v>
-      </c>
-      <c r="R29" s="25">
-        <v>-68</v>
-      </c>
-      <c r="S29" s="25">
-        <v>-291</v>
-      </c>
-      <c r="T29" s="1"/>
+        <v>6.3000000000000114</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="29">
+        <v>61</v>
+      </c>
+      <c r="T29" s="25">
+        <v>-11</v>
+      </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C30" s="22">
-        <v>10</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="D30" s="25">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>7.6239999999999997</v>
       </c>
       <c r="E30" s="22">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F30" s="22">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G30" s="26">
         <f t="shared" si="14"/>
-        <v>2016</v>
+        <v>220</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I30" s="24"/>
+      <c r="J30" s="30">
+        <v>46058</v>
+      </c>
       <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>5.08</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3000000000000114</v>
+        <v>44.199999999999818</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1999999999999886</v>
+        <v>75.800000000000182</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1000000000000085</v>
+        <v>81</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7999999999999972</v>
+        <v>48</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="29">
-        <v>33</v>
-      </c>
+        <v>132.20000000000027</v>
+      </c>
+      <c r="R30" s="25">
+        <v>-68</v>
+      </c>
+      <c r="S30" s="25">
+        <v>-291</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C31" s="22">
-        <v>7.51</v>
+        <v>10</v>
       </c>
       <c r="D31" s="25">
         <f t="shared" si="13"/>
-        <v>0.751</v>
+        <v>1</v>
       </c>
       <c r="E31" s="22">
         <v>0.05</v>
@@ -3283,1108 +3293,1168 @@
       </c>
       <c r="G31" s="26">
         <f t="shared" si="14"/>
-        <v>2684</v>
+        <v>1680</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="30">
-        <v>46058</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I31" s="24"/>
       <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>7.51</v>
+        <v>3.29</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9499999999999886</v>
+        <v>2.6000000000000085</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="9"/>
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3.3000000000000114</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8999999999999773</v>
+        <v>3.1999999999999886</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="6"/>
-        <v>9.9499999999999886</v>
-      </c>
-      <c r="R31" s="29">
-        <v>342</v>
-      </c>
-      <c r="S31" s="25">
-        <v>-106</v>
-      </c>
-      <c r="T31" s="25">
-        <v>-93</v>
+        <v>3.1000000000000085</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="29">
+        <v>33</v>
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C32" s="22">
-        <v>1.125</v>
+        <v>6.34</v>
       </c>
       <c r="D32" s="25">
-        <f>C32/10</f>
-        <v>0.1125</v>
+        <f t="shared" si="13"/>
+        <v>0.63400000000000001</v>
       </c>
       <c r="E32" s="22">
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F32" s="22">
         <v>0.05</v>
       </c>
       <c r="G32" s="26">
-        <f>ROUND($C$4/(D32/E32*F32),0)</f>
-        <v>1792</v>
+        <f t="shared" si="14"/>
+        <v>2650</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="I32" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="30">
+        <v>46062</v>
+      </c>
       <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>1.99</v>
+        <v>6.34</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="8"/>
-        <v>1.75</v>
+        <v>4.6499999999999773</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0900000000000034</v>
+        <v>7.3500000000000227</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2650000000000006</v>
+        <v>5.9499999999999886</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5849999999999937</v>
+        <v>4.75</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="6"/>
-        <v>3.25</v>
-      </c>
-      <c r="R32" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="R32" s="29">
+        <v>342</v>
+      </c>
       <c r="S32" s="25">
+        <v>-106</v>
+      </c>
+      <c r="T32" s="25">
+        <v>-93</v>
+      </c>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D33" s="25">
+        <f>C33/10</f>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="E33" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="G33" s="26">
+        <f>ROUND($C$4/(D33/E33*F33),0)</f>
+        <v>1487</v>
+      </c>
+      <c r="H33" s="22">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="30">
+        <v>46062</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.78499999999999659</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.76500000000000057</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0900000000000034</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.2650000000000006</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="25">
         <v>-143</v>
       </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B33" s="22" t="s">
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D34" s="25">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="22">
         <v>0.01</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="22">
         <v>0.1</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G34" s="26">
         <f t="shared" si="14"/>
-        <v>336</v>
-      </c>
-      <c r="H33" s="22">
+        <v>280</v>
+      </c>
+      <c r="H34" s="22">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="30"/>
-      <c r="K33">
+      <c r="I34" s="23"/>
+      <c r="J34" s="30"/>
+      <c r="K34">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="L33">
+        <v>3.01</v>
+      </c>
+      <c r="L34">
         <f t="shared" ca="1" si="8"/>
+        <v>1.9800000000000182</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.7799999999999727</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="4"/>
         <v>2.6299999999999955</v>
       </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="9"/>
+      <c r="O34">
+        <f t="shared" ca="1" si="5"/>
         <v>2.1700000000000159</v>
       </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="4"/>
+      <c r="P34">
+        <f t="shared" ca="1" si="6"/>
         <v>4.4900000000000091</v>
       </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.5799999999999841</v>
-      </c>
-      <c r="P33">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.910000000000025</v>
-      </c>
-      <c r="R33" s="29">
+      <c r="R34" s="29">
         <v>32</v>
       </c>
-      <c r="S33" s="25">
+      <c r="S34" s="25">
         <v>-139</v>
       </c>
-      <c r="T33" s="29">
+      <c r="T34" s="29">
         <v>40</v>
       </c>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B34" s="22" t="s">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C35" s="22">
         <v>44.16</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D35" s="25">
         <f t="shared" si="13"/>
         <v>4.4159999999999995</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E35" s="22">
         <v>0.2</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <v>0.2</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G35" s="26">
         <f t="shared" si="14"/>
-        <v>457</v>
-      </c>
-      <c r="H34" s="22">
+        <v>380</v>
+      </c>
+      <c r="H35" s="22">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="30">
+      <c r="I35" s="24"/>
+      <c r="J35" s="30">
         <v>46058</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>44.16</v>
-      </c>
-      <c r="L34">
+        <v>77</v>
+      </c>
+      <c r="L35">
         <f t="shared" ca="1" si="8"/>
+        <v>132</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="9"/>
+        <v>113.79999999999995</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="9"/>
+      <c r="O35">
+        <f t="shared" ca="1" si="5"/>
         <v>43</v>
       </c>
-      <c r="N34">
-        <f t="shared" ca="1" si="4"/>
+      <c r="P35">
+        <f t="shared" ca="1" si="6"/>
         <v>55.200000000000045</v>
       </c>
-      <c r="O34">
-        <f t="shared" ca="1" si="5"/>
-        <v>52.200000000000045</v>
-      </c>
-      <c r="P34">
-        <f t="shared" ca="1" si="6"/>
-        <v>29.399999999999977</v>
-      </c>
-      <c r="R34" s="25">
+      <c r="R35" s="25">
         <v>-89</v>
       </c>
-      <c r="S34" s="25">
+      <c r="S35" s="25">
         <v>-300</v>
       </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B35" s="22" t="s">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C36" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D35" s="25">
-        <f>C35/10</f>
+      <c r="D36" s="25">
+        <f>C36/10</f>
         <v>1.4000000000000002E-2</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="22">
         <v>1E-3</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="22">
         <v>0.1</v>
       </c>
-      <c r="G35" s="26">
-        <f>ROUND($C$4/(D35/E35*F35),0)</f>
-        <v>1440</v>
-      </c>
-      <c r="H35" s="22">
+      <c r="G36" s="26">
+        <f>ROUND($C$4/(D36/E36*F36),0)</f>
+        <v>1200</v>
+      </c>
+      <c r="H36" s="22">
         <f t="shared" si="12"/>
         <v>14</v>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="K35">
-        <f t="shared" ca="1" si="7"/>
-        <v>-34552.17</v>
-      </c>
-      <c r="L35">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.1999999999999824E-2</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="9"/>
-        <v>-184448.73800000001</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.499999999999992E-2</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.8999999999999932E-2</v>
-      </c>
-      <c r="P35">
-        <f t="shared" ca="1" si="6"/>
-        <v>11687.748</v>
-      </c>
-      <c r="R35" s="29">
-        <v>71</v>
-      </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B36" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="22">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D36" s="25">
-        <f>C36/10</f>
-        <v>1.86</v>
-      </c>
-      <c r="E36" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="G36" s="26">
-        <f>ROUND($C$4/(D36/E36*F36),0)</f>
-        <v>1084</v>
-      </c>
-      <c r="H36" s="22">
-        <f t="shared" si="12"/>
-        <v>37</v>
       </c>
       <c r="I36" s="24"/>
       <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>9.75</v>
+        <v>45290.22</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>272106.75400000002</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8000000000000114</v>
+        <v>138793</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4000000000000341</v>
+        <v>5.1999999999999824E-2</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="5"/>
-        <v>11.25</v>
+        <v>-184448.73800000001</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="6"/>
-        <v>14.300000000000011</v>
-      </c>
-      <c r="R36" s="25">
-        <v>-9</v>
-      </c>
-      <c r="S36" s="29">
-        <v>42</v>
-      </c>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="R36" s="29">
+        <v>71</v>
+      </c>
+      <c r="S36" s="22"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" s="22">
-        <v>45</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D37" s="25">
         <f>C37/10</f>
-        <v>4.5</v>
+        <v>1.86</v>
       </c>
       <c r="E37" s="22">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F37" s="22">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G37" s="26">
         <f>ROUND($C$4/(D37/E37*F37),0)</f>
-        <v>448</v>
+        <v>903</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I37" s="24"/>
-      <c r="J37" s="30">
-        <v>46058</v>
-      </c>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>45.6</v>
+        <v>7.94</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="8"/>
-        <v>115</v>
+        <v>6.9499999999999886</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>9.5500000000000114</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="4"/>
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>5.8000000000000114</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="6"/>
-        <v>35.5</v>
-      </c>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="29">
-        <v>22</v>
-      </c>
+        <v>9.4000000000000341</v>
+      </c>
+      <c r="R37" s="25">
+        <v>-9</v>
+      </c>
+      <c r="S37" s="29">
+        <v>42</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
-        <v>76</v>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C38" s="22">
-        <v>690</v>
+        <v>45</v>
       </c>
       <c r="D38" s="25">
         <f>C38/10</f>
-        <v>69</v>
+        <v>4.5</v>
       </c>
       <c r="E38" s="22">
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F38" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G38" s="26">
         <f>ROUND($C$4/(D38/E38*F38),0)</f>
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="H38" s="22">
         <f t="shared" si="12"/>
-        <v>13800</v>
+        <v>23</v>
       </c>
       <c r="I38" s="24"/>
+      <c r="J38" s="30">
+        <v>46058</v>
+      </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>-18487.09</v>
+        <v>52.66</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>-46264.525000000001</v>
+        <v>41.199999999999932</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26500000000000057</v>
+        <v>69.600000000000023</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54499999999999815</v>
+        <v>115</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49500000000000099</v>
+        <v>22</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="6"/>
-        <v>-46172.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B39" s="22" t="s">
-        <v>60</v>
+        <v>15.5</v>
+      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="29">
+        <v>22</v>
+      </c>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C39" s="22">
-        <v>1.65</v>
+        <v>690</v>
       </c>
       <c r="D39" s="25">
-        <f t="shared" si="13"/>
-        <v>0.16499999999999998</v>
+        <f>C39/10</f>
+        <v>69</v>
       </c>
       <c r="E39" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F39" s="22">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G39" s="26">
-        <f t="shared" si="14"/>
-        <v>1222</v>
+        <f>ROUND($C$4/(D39/E39*F39),0)</f>
+        <v>0</v>
       </c>
       <c r="H39" s="22">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>13800</v>
       </c>
       <c r="I39" s="24"/>
       <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79</v>
+        <v>-9252.58</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0300000000000011</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42999999999999972</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86999999999999744</v>
+        <v>-46264.525000000001</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57999999999999829</v>
+        <v>0.26500000000000057</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0649999999999977</v>
-      </c>
-      <c r="R39" s="25">
-        <v>-18</v>
-      </c>
-      <c r="S39" s="25">
-        <v>-76</v>
-      </c>
-      <c r="T39" s="25">
-        <v>-116</v>
-      </c>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0.54499999999999815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="22">
-        <v>12</v>
+        <v>1.65</v>
       </c>
       <c r="D40" s="25">
         <f t="shared" si="13"/>
-        <v>1.2</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="E40" s="22">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G40" s="26">
         <f t="shared" si="14"/>
-        <v>1680</v>
+        <v>1018</v>
       </c>
       <c r="H40" s="22">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I40" s="24"/>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>13.62</v>
+        <v>0.87</v>
       </c>
       <c r="L40">
-        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B40&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B40&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>14.899999999999977</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0649999999999977</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8000000000000682</v>
+        <v>0.94000000000000483</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="4"/>
-        <v>13.700000000000045</v>
+        <v>1.0300000000000011</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="5"/>
-        <v>12.199999999999932</v>
+        <v>0.42999999999999972</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="6"/>
-        <v>18.5</v>
+        <v>0.86999999999999744</v>
       </c>
       <c r="R40" s="25">
-        <v>-114</v>
-      </c>
-      <c r="S40" s="29">
-        <v>6</v>
-      </c>
-      <c r="T40" s="1"/>
+        <v>-18</v>
+      </c>
+      <c r="S40" s="25">
+        <v>-76</v>
+      </c>
+      <c r="T40" s="25">
+        <v>-116</v>
+      </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C41" s="22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D41" s="25">
-        <f>C41/10</f>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>1.2</v>
       </c>
       <c r="E41" s="22">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F41" s="22">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G41" s="26">
-        <f t="shared" ref="G41:G46" si="15">ROUND($C$4/(D41/E41*F41),0)</f>
-        <v>336</v>
+        <f t="shared" si="14"/>
+        <v>1400</v>
       </c>
       <c r="H41" s="22">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I41" s="24"/>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>2.63</v>
+        <v>11.86</v>
       </c>
       <c r="L41">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.3599999999999994</v>
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>8.3999999999999773</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1999999999999886</v>
+        <v>13.5</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6599999999999966</v>
+        <v>14.899999999999977</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0600000000000023</v>
+        <v>8.8000000000000682</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8799999999999955</v>
-      </c>
-      <c r="R41" s="29">
-        <v>7</v>
-      </c>
-      <c r="S41" s="25">
-        <v>-262</v>
+        <v>13.700000000000045</v>
+      </c>
+      <c r="R41" s="25">
+        <v>-114</v>
+      </c>
+      <c r="S41" s="29">
+        <v>6</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C42" s="22">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D42" s="25">
         <f>C42/10</f>
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="E42" s="22">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F42" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G42" s="26">
-        <f t="shared" si="15"/>
-        <v>288</v>
+        <f t="shared" ref="G42:G47" si="15">ROUND($C$4/(D42/E42*F42),0)</f>
+        <v>280</v>
       </c>
       <c r="H42" s="22">
-        <f t="shared" ref="H42:H44" si="16">ROUND(D42/E42,0)</f>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="I42" s="24"/>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>17.04</v>
+        <v>2.21</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="8"/>
-        <v>18.399999999999864</v>
+        <v>1.4000000000000057</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000001819</v>
+        <v>2.4399999999999977</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="4"/>
-        <v>22.799999999999955</v>
+        <v>3.3599999999999994</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="5"/>
-        <v>15.599999999999909</v>
+        <v>2.1999999999999886</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="6"/>
-        <v>18.599999999999909</v>
-      </c>
-      <c r="R42" s="1"/>
+        <v>1.6599999999999966</v>
+      </c>
+      <c r="R42" s="29">
+        <v>7</v>
+      </c>
       <c r="S42" s="25">
-        <v>-8</v>
-      </c>
-      <c r="T42" s="29">
-        <v>5</v>
-      </c>
+        <v>-262</v>
+      </c>
+      <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C43" s="22">
-        <v>5.1400000000000001E-2</v>
+        <v>70</v>
       </c>
       <c r="D43" s="25">
-        <f>ROUND(C43/10,4)</f>
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0.1</v>
+        <f>C43/10</f>
+        <v>7</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="22">
+        <v>0.5</v>
       </c>
       <c r="G43" s="26">
         <f t="shared" si="15"/>
-        <v>395</v>
+        <v>240</v>
       </c>
       <c r="H43" s="22">
+        <f t="shared" ref="H43:H45" si="16">ROUND(D43/E43,0)</f>
+        <v>14</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="K43">
+        <f t="shared" ca="1" si="7"/>
+        <v>17.68</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.399999999999864</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.399999999999864</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8000000000001819</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ca="1" si="6"/>
+        <v>22.799999999999955</v>
+      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="25">
+        <v>-8</v>
+      </c>
+      <c r="T43" s="29">
+        <v>5</v>
+      </c>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="22">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D44" s="25">
+        <f>ROUND(C44/10,4)</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G44" s="26">
+        <f t="shared" si="15"/>
+        <v>329</v>
+      </c>
+      <c r="H44" s="22">
         <f t="shared" si="16"/>
         <v>51</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="30">
+      <c r="I44" s="24"/>
+      <c r="J44" s="30">
         <v>46057</v>
       </c>
-      <c r="K43">
-        <f ca="1">ROUND(AVERAGE(L43:P43),4)</f>
-        <v>0.12180000000000001</v>
-      </c>
-      <c r="L43">
+      <c r="K44">
+        <f ca="1">ROUND(AVERAGE(L44:P44),4)</f>
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="L44">
         <f t="shared" ca="1" si="8"/>
+        <v>4.0999999999999925E-2</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.0599999999999969E-2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ca="1" si="4"/>
         <v>8.2900000000000085E-2</v>
       </c>
-      <c r="M43">
-        <f t="shared" ca="1" si="9"/>
+      <c r="O44">
+        <f t="shared" ca="1" si="5"/>
         <v>7.6999999999999957E-2</v>
       </c>
-      <c r="N43">
-        <f t="shared" ca="1" si="4"/>
+      <c r="P44">
+        <f t="shared" ca="1" si="6"/>
         <v>5.2799999999999958E-2</v>
       </c>
-      <c r="O43">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.890000000000009E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.3073999999999999</v>
-      </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B44" s="1" t="s">
+      <c r="R44" s="1"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>9.7100000000000009</v>
       </c>
-      <c r="D44" s="25">
-        <f>C44/10</f>
+      <c r="D45" s="25">
+        <f>C45/10</f>
         <v>0.97100000000000009</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>0.05</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>0.05</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G45" s="26">
         <f t="shared" si="15"/>
-        <v>2076</v>
-      </c>
-      <c r="H44" s="22">
+        <v>1730</v>
+      </c>
+      <c r="H45" s="22">
         <f t="shared" si="16"/>
         <v>19</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="30">
+      <c r="I45" s="23"/>
+      <c r="J45" s="30">
         <v>46058</v>
-      </c>
-      <c r="K44">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="L44">
-        <f t="shared" ca="1" si="8"/>
-        <v>10.449999999999989</v>
-      </c>
-      <c r="M44">
-        <f t="shared" ca="1" si="9"/>
-        <v>12.600000000000023</v>
-      </c>
-      <c r="N44">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.5999999999999659</v>
-      </c>
-      <c r="O44">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6999999999999886</v>
-      </c>
-      <c r="P44">
-        <f t="shared" ca="1" si="6"/>
-        <v>10.200000000000045</v>
-      </c>
-      <c r="R44" s="1"/>
-      <c r="S44" s="29">
-        <v>24</v>
-      </c>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="22">
-        <v>2.61</v>
-      </c>
-      <c r="D45" s="25">
-        <f>C45/10</f>
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="E45" s="22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F45" s="22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G45" s="26">
-        <f t="shared" si="15"/>
-        <v>7724</v>
-      </c>
-      <c r="H45" s="22">
-        <f>ROUND(D45/E45,0)</f>
-        <v>52</v>
-      </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="30">
-        <v>46057</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="7"/>
-        <v>3.58</v>
+        <v>8.61</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4749999999999943</v>
+        <v>5.3499999999999659</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6299999999999955</v>
+        <v>7.0500000000000114</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5100000000000051</v>
+        <v>10.449999999999989</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4400000000000119</v>
+        <v>12.600000000000023</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8499999999999943</v>
-      </c>
-      <c r="R45" s="29">
-        <v>19</v>
-      </c>
+        <v>7.5999999999999659</v>
+      </c>
+      <c r="R45" s="1"/>
       <c r="S45" s="29">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
-        <v>77</v>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="C46" s="22">
-        <v>100</v>
+        <v>2.61</v>
       </c>
       <c r="D46" s="25">
         <f>C46/10</f>
-        <v>10</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="E46" s="22">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G46" s="26">
         <f t="shared" si="15"/>
-        <v>202</v>
+        <v>6437</v>
       </c>
       <c r="H46" s="22">
         <f>ROUND(D46/E46,0)</f>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I46" s="24"/>
+      <c r="J46" s="30">
+        <v>46057</v>
+      </c>
       <c r="K46">
         <f t="shared" ca="1" si="7"/>
-        <v>43.3</v>
+        <v>2.86</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>2.5949999999999989</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="9"/>
-        <v>23.5</v>
+        <v>2.1049999999999898</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>2.4749999999999943</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>2.6299999999999955</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
+        <v>4.5100000000000051</v>
+      </c>
+      <c r="R46" s="29">
+        <v>19</v>
+      </c>
+      <c r="S46" s="29">
+        <v>122</v>
+      </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="1">
-        <v>140</v>
+        <v>77</v>
+      </c>
+      <c r="C47" s="22">
+        <v>100</v>
       </c>
       <c r="D47" s="25">
-        <f t="shared" ref="D47:D50" si="17">C47/10</f>
-        <v>14</v>
-      </c>
-      <c r="E47" s="1">
+        <f>C47/10</f>
+        <v>10</v>
+      </c>
+      <c r="E47" s="22">
         <v>0.5</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="22">
         <v>0.5</v>
       </c>
       <c r="G47" s="26">
-        <f t="shared" ref="G47:G50" si="18">ROUND($C$4/(D47/E47*F47),0)</f>
-        <v>144</v>
+        <f t="shared" si="15"/>
+        <v>168</v>
       </c>
       <c r="H47" s="22">
-        <f t="shared" ref="H47:H50" si="19">ROUND(D47/E47,0)</f>
-        <v>28</v>
-      </c>
-      <c r="I47" s="23"/>
+        <f>ROUND(D47/E47,0)</f>
+        <v>20</v>
+      </c>
+      <c r="I47" s="24"/>
       <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>85.3</v>
+        <v>42.7</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="8"/>
-        <v>85.5</v>
+        <v>43</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>23.5</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="R47" s="1">
+        <v>32</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1">
+        <v>140</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" ref="D48:D51" si="17">C48/10</f>
+        <v>14</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="26">
+        <f t="shared" ref="G48:G51" si="18">ROUND($C$4/(D48/E48*F48),0)</f>
+        <v>120</v>
+      </c>
+      <c r="H48" s="22">
+        <f t="shared" ref="H48:H51" si="19">ROUND(D48/E48,0)</f>
+        <v>28</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="K48">
+        <f t="shared" ca="1" si="7"/>
+        <v>83.8</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="8"/>
+        <v>70.5</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="9"/>
+        <v>133</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ca="1" si="4"/>
+        <v>85.5</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="R48" s="1">
         <v>-97</v>
       </c>
-      <c r="S47" s="25">
+      <c r="S48" s="25">
         <v>-176</v>
       </c>
-      <c r="T47" s="29">
+      <c r="T48" s="29">
         <v>11</v>
       </c>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C49" s="22">
         <v>60</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D49" s="25">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>0.05</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F49" s="1">
         <v>0.5</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G49" s="26">
         <f t="shared" si="18"/>
-        <v>34</v>
-      </c>
-      <c r="H48" s="22">
+        <v>28</v>
+      </c>
+      <c r="H49" s="22">
         <f t="shared" si="19"/>
         <v>120</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="25">
+      <c r="I49" s="23"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="25">
         <v>-489</v>
       </c>
-      <c r="T48" s="29">
+      <c r="T49" s="29">
         <v>255</v>
       </c>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="27" t="s">
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C50" s="22">
         <v>0.1</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D50" s="25">
         <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E50" s="22">
         <v>1E-3</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F50" s="22">
         <v>1</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G50" s="26">
         <f t="shared" si="18"/>
-        <v>202</v>
-      </c>
-      <c r="H49" s="22">
+        <v>168</v>
+      </c>
+      <c r="H50" s="22">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="I49" s="24"/>
-      <c r="R49" s="29">
+      <c r="I50" s="24"/>
+      <c r="R50" s="29">
         <v>445</v>
       </c>
-      <c r="S49" s="25">
+      <c r="S50" s="25">
         <v>-21</v>
       </c>
-      <c r="T49" s="29">
+      <c r="T50" s="29">
         <v>125</v>
       </c>
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B50" s="27" t="s">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C51" s="22">
         <v>550</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D51" s="25">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E51" s="22">
         <v>1</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F51" s="22">
         <v>1</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G51" s="26">
         <f t="shared" si="18"/>
-        <v>37</v>
-      </c>
-      <c r="H50" s="22">
+        <v>31</v>
+      </c>
+      <c r="H51" s="22">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="I50" s="24"/>
-      <c r="M50">
-        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B50&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B50&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>629</v>
-      </c>
-      <c r="R50" s="29">
+      <c r="I51" s="24"/>
+      <c r="M51">
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>966</v>
+      </c>
+      <c r="R51" s="29">
         <v>459</v>
       </c>
-      <c r="S50" s="29">
+      <c r="S51" s="29">
         <v>596</v>
       </c>
-      <c r="T50" s="25">
+      <c r="T51" s="25">
         <v>-455</v>
       </c>
-      <c r="U50" s="1"/>
+      <c r="U51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa.shenshin\Documents\calc_pos_moex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moex\calc_pos_moex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -788,19 +788,19 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>15</v>
@@ -1049,17 +1049,17 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>-9954.7800000000061</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>38.640000000000036</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>3.3543999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1606,7 +1606,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1615,7 +1615,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1624,7 +1624,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1633,7 +1633,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1642,7 +1642,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1651,7 +1651,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1660,7 +1660,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1669,7 +1669,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1678,7 +1678,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1687,7 +1687,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1696,7 +1696,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1705,7 +1705,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1714,7 +1714,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1723,7 +1723,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1732,7 +1732,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1741,7 +1741,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1761,62 +1761,62 @@
   <dimension ref="A3:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="12" max="16" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="12" max="16" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="31">
         <f>C3*1.2/100</f>
-        <v>1680</v>
+        <v>1560</v>
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="L6" s="5" t="str">
         <f ca="1">TEXT(L7,"ддд")</f>
-        <v>Пт</v>
+        <v>Пн</v>
       </c>
       <c r="M6" s="5" t="str">
         <f ca="1">TEXT(M7,"ддд")</f>
-        <v>Чт</v>
+        <v>Пт</v>
       </c>
       <c r="N6" s="5" t="str">
         <f t="shared" ref="N6:P6" ca="1" si="0">TEXT(N7,"ддд")</f>
-        <v>Ср</v>
+        <v>Чт</v>
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Вт</v>
+        <v>Ср</v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Пн</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+        <v>Вт</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1846,24 +1846,24 @@
         <v>79</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-3, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-06</v>
+        <f ca="1">TEXT(TODAY()-1, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-09</v>
       </c>
       <c r="M7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-4, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-05</v>
+        <v>2026-02-06</v>
       </c>
       <c r="N7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-5, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-04</v>
+        <v>2026-02-05</v>
       </c>
       <c r="O7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-6, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-03</v>
+        <v>2026-02-04</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-7, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-02</v>
+        <f ca="1">TEXT(TODAY()-0, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-10</v>
       </c>
       <c r="R7" s="28">
         <v>45566</v>
@@ -1878,7 +1878,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="G8" s="26">
         <f t="shared" ref="G8:G26" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H17" si="3">ROUND(D8/E8,0)</f>
@@ -1907,27 +1907,27 @@
       <c r="J8" s="30"/>
       <c r="K8">
         <f ca="1">ROUND(AVERAGE(L8:P8),2)</f>
-        <v>-18493.16</v>
+        <v>-9270.84</v>
       </c>
       <c r="L8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>-46355.578000000001</v>
+        <v>0.22100000000000009</v>
       </c>
       <c r="M8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.41499999999999915</v>
+        <v>-46355.578000000001</v>
       </c>
       <c r="N8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.41400000000000148</v>
+        <v>0.41499999999999915</v>
       </c>
       <c r="O8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.24000000000000021</v>
+        <v>0.41400000000000148</v>
       </c>
       <c r="P8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>-46111.281000000003</v>
+        <v>0.34899999999999842</v>
       </c>
       <c r="R8" s="29">
         <v>54</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="G9" s="26">
         <f t="shared" si="2"/>
-        <v>1355</v>
+        <v>1258</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
@@ -1971,27 +1971,27 @@
       </c>
       <c r="K9">
         <f ca="1">ROUND(AVERAGE(L9:P9),2)</f>
-        <v>1.24</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.0799999999999983</v>
+        <v>0.86000000000000654</v>
       </c>
       <c r="M9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.72999999999999687</v>
+        <v>1.0799999999999983</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N48" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.9699999999999989</v>
+        <v>0.72999999999999687</v>
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O48" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.4200000000000017</v>
+        <v>1.9699999999999989</v>
       </c>
       <c r="P9">
         <f t="shared" ref="P9:P48" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.009999999999998</v>
+        <v>1.1000000000000014</v>
       </c>
       <c r="R9" s="25">
         <v>-30</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G10" s="26">
         <f>ROUND($C$4/(D10/E10*F10),0)</f>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
@@ -2032,27 +2032,27 @@
       <c r="I10" s="24"/>
       <c r="K10">
         <f ca="1">ROUND(AVERAGE(L10:P10),2)</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.81000000000000227</v>
+        <v>0.57000000000000028</v>
       </c>
       <c r="M10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.82000000000000028</v>
+        <v>0.81000000000000227</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96999999999999886</v>
+        <v>0.82000000000000028</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44000000000000483</v>
+        <v>0.96999999999999886</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71000000000000085</v>
+        <v>0.85000000000000142</v>
       </c>
       <c r="R10" s="29">
         <v>39</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="G11" s="26">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
@@ -2093,27 +2093,27 @@
       <c r="I11" s="23"/>
       <c r="K11">
         <f t="shared" ref="K11:K48" ca="1" si="7">ROUND(AVERAGE(L11:P11),2)</f>
-        <v>18.64</v>
+        <v>16.72</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L48" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>13</v>
+        <v>17.200000000000045</v>
       </c>
       <c r="M11">
         <f t="shared" ref="M11:M48" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>20.200000000000045</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="4"/>
-        <v>17.200000000000045</v>
+        <v>20.200000000000045</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>17.200000000000045</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="6"/>
-        <v>20.799999999999955</v>
+        <v>16</v>
       </c>
       <c r="R11" s="29">
         <v>80</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>68</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="G12" s="26">
         <f t="shared" ref="G12:G18" si="11">ROUND($C$4/(D12/E12*F12),0)</f>
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
@@ -2154,27 +2154,27 @@
       <c r="I12" s="24"/>
       <c r="K12">
         <f t="shared" ca="1" si="7"/>
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="8"/>
-        <v>2.75</v>
+        <v>1.4399999999999977</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2099999999999937</v>
+        <v>2.75</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8599999999999994</v>
+        <v>1.2099999999999937</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71000000000000796</v>
+        <v>1.8599999999999994</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7800000000000011</v>
+        <v>1.8099999999999881</v>
       </c>
       <c r="R12" s="29">
         <v>27</v>
@@ -2185,7 +2185,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
         <v>50</v>
       </c>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="G13" s="26">
         <f t="shared" si="11"/>
-        <v>3111</v>
+        <v>2889</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="3"/>
@@ -2213,34 +2213,34 @@
       <c r="I13" s="23"/>
       <c r="K13">
         <f t="shared" ca="1" si="7"/>
-        <v>2.69</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1500000000000057</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>3.1500000000000057</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3499999999999943</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2999999999999829</v>
+        <v>2.3499999999999943</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6500000000000057</v>
+        <v>5.8499999999999943</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G14" s="26">
         <f t="shared" si="11"/>
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
@@ -2271,27 +2271,27 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="8"/>
-        <v>1.25</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5300000000000011</v>
+        <v>1.25</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1999999999999886</v>
+        <v>2.5300000000000011</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5799999999999983</v>
+        <v>2.1999999999999886</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8800000000000097</v>
+        <v>1.8700000000000045</v>
       </c>
       <c r="R14" s="25">
         <v>-2</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
         <v>83</v>
       </c>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="G15" s="26">
         <f t="shared" si="11"/>
-        <v>903</v>
+        <v>839</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="3"/>
@@ -2335,43 +2335,43 @@
       </c>
       <c r="K15">
         <f ca="1">ROUND(AVERAGE(L15:P15),5)</f>
-        <v>1.8600000000000001E-3</v>
+        <v>2.5400000000000002E-3</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6599999999999948E-3</v>
+        <v>4.0199999999999958E-3</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9600000000000034E-3</v>
+        <v>1.6599999999999948E-3</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8599999999999876E-3</v>
+        <v>1.9600000000000034E-3</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5399999999999997E-3</v>
+        <v>2.8599999999999876E-3</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2999999999999956E-3</v>
+        <v>2.1800000000000014E-3</v>
       </c>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="29"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="22">
-        <v>6.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="10"/>
-        <v>0.65999999999999992</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="E16" s="22">
         <v>0.02</v>
@@ -2381,11 +2381,11 @@
       </c>
       <c r="G16" s="26">
         <f t="shared" si="11"/>
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="30">
@@ -2393,27 +2393,27 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="7"/>
-        <v>5.14</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="8"/>
-        <v>5.039999999999992</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="9"/>
-        <v>4.2800000000000011</v>
+        <v>5.039999999999992</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2400000000000091</v>
+        <v>4.2800000000000011</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8000000000000114</v>
+        <v>7.2400000000000091</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3600000000000136</v>
+        <v>2.1599999999999966</v>
       </c>
       <c r="R16" s="25">
         <v>-211</v>
@@ -2424,7 +2424,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="22" t="s">
         <v>51</v>
       </c>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="G17" s="26">
         <f t="shared" si="11"/>
-        <v>2140</v>
+        <v>1987</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="3"/>
@@ -2452,27 +2452,27 @@
       <c r="I17" s="24"/>
       <c r="K17">
         <f t="shared" ca="1" si="7"/>
-        <v>110534.35</v>
+        <v>210975.55</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="8"/>
-        <v>-787828</v>
+        <v>507687</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="9"/>
-        <v>1104916.6140000001</v>
+        <v>-787828</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11499999999999977</v>
+        <v>1104916.6140000001</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="5"/>
-        <v>-1131886</v>
+        <v>0.11499999999999977</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="6"/>
-        <v>1367469</v>
+        <v>230102</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="25">
@@ -2481,7 +2481,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="22" t="s">
         <v>55</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G18" s="26">
         <f t="shared" si="11"/>
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H42" si="12">ROUND(D18/E18,0)</f>
@@ -2510,27 +2510,27 @@
       <c r="J18" s="30"/>
       <c r="K18">
         <f t="shared" ca="1" si="7"/>
-        <v>78.400000000000006</v>
+        <v>102.1</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="9"/>
-        <v>105.5</v>
+        <v>54</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="4"/>
-        <v>93.5</v>
+        <v>105.5</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>93.5</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>122.5</v>
       </c>
       <c r="R18" s="25">
         <v>-741</v>
@@ -2543,16 +2543,16 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="1">
-        <v>1.4</v>
+        <v>0.99</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="1"/>
-        <v>0.13999999999999999</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E19" s="1">
         <v>5.0000000000000001E-3</v>
@@ -2562,36 +2562,39 @@
       </c>
       <c r="G19" s="26">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1576</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I19" s="23"/>
+      <c r="J19" s="30">
+        <v>46063</v>
+      </c>
       <c r="K19">
         <f t="shared" ca="1" si="7"/>
-        <v>1.24</v>
+        <v>0.99</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1799999999999997</v>
+        <v>1.1550000000000011</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="9"/>
-        <v>0.82500000000000284</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1449999999999996</v>
+        <v>0.82500000000000284</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4400000000000013</v>
+        <v>1.1449999999999996</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.615000000000002</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="R19" s="25">
         <v>-107</v>
@@ -2604,7 +2607,7 @@
       </c>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2623,7 +2626,7 @@
       </c>
       <c r="G20" s="26">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" si="12"/>
@@ -2633,27 +2636,27 @@
       <c r="J20" s="30"/>
       <c r="K20">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>94.3</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="8"/>
-        <v>135.5</v>
+        <v>82.5</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="9"/>
-        <v>106.5</v>
+        <v>135.5</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>106.5</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="R20" s="29">
         <v>45</v>
@@ -2666,7 +2669,7 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
         <v>53</v>
       </c>
@@ -2685,7 +2688,7 @@
       </c>
       <c r="G21" s="26">
         <f>ROUND($C$4/(D21/E21*F21),0)</f>
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="12"/>
@@ -2695,27 +2698,27 @@
       <c r="J21" s="30"/>
       <c r="K21">
         <f t="shared" ca="1" si="7"/>
-        <v>5.48</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3300000000000125</v>
+        <v>2.7399999999999807</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5</v>
+        <v>3.3300000000000125</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0700000000000216</v>
+        <v>5.5</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1500000000000057</v>
+        <v>7.0700000000000216</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3300000000000125</v>
+        <v>2.0999999999999943</v>
       </c>
       <c r="R21" s="25">
         <v>-146</v>
@@ -2728,7 +2731,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
         <v>45</v>
       </c>
@@ -2747,7 +2750,7 @@
       </c>
       <c r="G22" s="26">
         <f t="shared" si="2"/>
-        <v>2585</v>
+        <v>2400</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="12"/>
@@ -2757,27 +2760,27 @@
       <c r="J22" s="30"/>
       <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6300000000000097</v>
+        <v>1.5299999999999869</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="9"/>
-        <v>1.480000000000004</v>
+        <v>2.6300000000000097</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8200000000000074</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2700000000000102</v>
+        <v>1.8200000000000074</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6300000000000097</v>
+        <v>1.0699999999999932</v>
       </c>
       <c r="R22" s="25">
         <v>-6</v>
@@ -2790,16 +2793,16 @@
       </c>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.41900000000000004</v>
       </c>
       <c r="E23" s="1">
         <v>0.05</v>
@@ -2809,36 +2812,39 @@
       </c>
       <c r="G23" s="26">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I23" s="23"/>
+      <c r="J23" s="30">
+        <v>46063</v>
+      </c>
       <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>4.01</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3499999999999943</v>
+        <v>4.3000000000000114</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="9"/>
-        <v>5.25</v>
+        <v>3.3499999999999943</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5499999999999829</v>
+        <v>5.25</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5999999999999943</v>
+        <v>3.5499999999999829</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2999999999999829</v>
+        <v>4.5</v>
       </c>
       <c r="R23" s="25">
         <v>-149</v>
@@ -2851,7 +2857,7 @@
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2870,7 +2876,7 @@
       </c>
       <c r="G24" s="26">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="12"/>
@@ -2880,27 +2886,27 @@
       <c r="J24" s="30"/>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>3.25</v>
+        <v>2.54</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9000000000000057</v>
+        <v>1.7399999999999949</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="9"/>
-        <v>3.019999999999996</v>
+        <v>1.9000000000000057</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="4"/>
-        <v>3.980000000000004</v>
+        <v>3.019999999999996</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4399999999999977</v>
+        <v>3.980000000000004</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9200000000000017</v>
+        <v>2.0600000000000023</v>
       </c>
       <c r="R24" s="29">
         <v>23</v>
@@ -2913,16 +2919,16 @@
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="22">
-        <v>20</v>
+        <v>22.54</v>
       </c>
       <c r="D25" s="25">
         <f>C25/10</f>
-        <v>2</v>
+        <v>2.254</v>
       </c>
       <c r="E25" s="22">
         <v>0.1</v>
@@ -2932,11 +2938,11 @@
       </c>
       <c r="G25" s="26">
         <f>ROUND($C$4/(D25/E25*F25),0)</f>
-        <v>840</v>
+        <v>692</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="30">
@@ -2944,27 +2950,27 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>20.46</v>
+        <v>22.54</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="8"/>
-        <v>15.5</v>
+        <v>22.599999999999909</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="9"/>
-        <v>32.599999999999909</v>
+        <v>15.5</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="4"/>
-        <v>25.5</v>
+        <v>32.599999999999909</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="5"/>
-        <v>15.900000000000091</v>
+        <v>25.5</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="6"/>
-        <v>12.799999999999955</v>
+        <v>16.5</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="29">
@@ -2973,7 +2979,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
@@ -2992,7 +2998,7 @@
       </c>
       <c r="G26" s="26">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="12"/>
@@ -3004,27 +3010,27 @@
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>128.1</v>
+        <v>112.3</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="8"/>
-        <v>126.5</v>
+        <v>85</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="9"/>
-        <v>163</v>
+        <v>126.5</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="4"/>
-        <v>88.5</v>
+        <v>163</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="5"/>
-        <v>110.5</v>
+        <v>88.5</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="6"/>
-        <v>152</v>
+        <v>98.5</v>
       </c>
       <c r="R26" s="25">
         <v>-6</v>
@@ -3037,7 +3043,7 @@
       </c>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="22" t="s">
         <v>72</v>
       </c>
@@ -3056,7 +3062,7 @@
       </c>
       <c r="G27" s="26">
         <f>ROUND($C$4/(D27/E27*F27),0)</f>
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="12"/>
@@ -3065,27 +3071,27 @@
       <c r="I27" s="24"/>
       <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>41.92</v>
+        <v>42.48</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>48.399999999999864</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="9"/>
-        <v>53.200000000000045</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="4"/>
-        <v>55.799999999999955</v>
+        <v>53.200000000000045</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="5"/>
-        <v>23.599999999999909</v>
+        <v>55.799999999999955</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="25">
@@ -3094,7 +3100,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="22" t="s">
         <v>54</v>
       </c>
@@ -3113,7 +3119,7 @@
       </c>
       <c r="G28" s="26">
         <f t="shared" ref="G28:G41" si="14">ROUND($C$4/(D28/E28*F28),0)</f>
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="12"/>
@@ -3122,27 +3128,27 @@
       <c r="I28" s="24"/>
       <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>84.6</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="R28" s="25">
         <v>-31</v>
@@ -3153,7 +3159,7 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="22" t="s">
         <v>70</v>
       </c>
@@ -3172,7 +3178,7 @@
       </c>
       <c r="G29" s="26">
         <f>ROUND($C$4/(D29/E29*F29),0)</f>
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="12"/>
@@ -3181,27 +3187,27 @@
       <c r="I29" s="24"/>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>15.3</v>
+        <v>15.88</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="8"/>
-        <v>15.600000000000023</v>
+        <v>8.8999999999999773</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="9"/>
-        <v>14.600000000000023</v>
+        <v>15.600000000000023</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="4"/>
-        <v>32.100000000000023</v>
+        <v>14.600000000000023</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8999999999999773</v>
+        <v>32.100000000000023</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3000000000000114</v>
+        <v>8.1999999999999886</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="29">
@@ -3212,16 +3218,16 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="22">
-        <v>76.239999999999995</v>
+        <v>57.2</v>
       </c>
       <c r="D30" s="25">
         <f t="shared" si="13"/>
-        <v>7.6239999999999997</v>
+        <v>5.7200000000000006</v>
       </c>
       <c r="E30" s="22">
         <v>0.2</v>
@@ -3231,39 +3237,39 @@
       </c>
       <c r="G30" s="26">
         <f t="shared" si="14"/>
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="30">
-        <v>46058</v>
+        <v>46063</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>76.239999999999995</v>
+        <v>57.2</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="8"/>
-        <v>44.199999999999818</v>
+        <v>50.800000000000182</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="9"/>
-        <v>75.800000000000182</v>
+        <v>44.199999999999818</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>75.800000000000182</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="6"/>
-        <v>132.20000000000027</v>
+        <v>34.199999999999818</v>
       </c>
       <c r="R30" s="25">
         <v>-68</v>
@@ -3274,7 +3280,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="22" t="s">
         <v>63</v>
       </c>
@@ -3293,7 +3299,7 @@
       </c>
       <c r="G31" s="26">
         <f t="shared" si="14"/>
-        <v>1680</v>
+        <v>1560</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="12"/>
@@ -3302,27 +3308,27 @@
       <c r="I31" s="24"/>
       <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6000000000000085</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="9"/>
-        <v>4.25</v>
+        <v>2.6000000000000085</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3000000000000114</v>
+        <v>4.25</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1999999999999886</v>
+        <v>3.3000000000000114</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1000000000000085</v>
+        <v>2.9499999999999886</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3331,7 +3337,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="22" t="s">
         <v>49</v>
       </c>
@@ -3350,7 +3356,7 @@
       </c>
       <c r="G32" s="26">
         <f t="shared" si="14"/>
-        <v>2650</v>
+        <v>2461</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="12"/>
@@ -3362,27 +3368,27 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>6.34</v>
+        <v>6.21</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6499999999999773</v>
+        <v>5.6000000000000227</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3500000000000227</v>
+        <v>4.6499999999999773</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9499999999999886</v>
+        <v>7.3500000000000227</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="5"/>
-        <v>4.75</v>
+        <v>5.9499999999999886</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="R32" s="29">
         <v>342</v>
@@ -3395,7 +3401,7 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B33" s="22" t="s">
         <v>67</v>
       </c>
@@ -3414,7 +3420,7 @@
       </c>
       <c r="G33" s="26">
         <f>ROUND($C$4/(D33/E33*F33),0)</f>
-        <v>1487</v>
+        <v>1381</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="12"/>
@@ -3426,27 +3432,27 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78499999999999659</v>
+        <v>1.2199999999999989</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="9"/>
-        <v>0.76500000000000057</v>
+        <v>0.78499999999999659</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>0.76500000000000057</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0900000000000034</v>
+        <v>1.75</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2650000000000006</v>
+        <v>0.88499999999999801</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="25">
@@ -3455,7 +3461,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B34" s="22" t="s">
         <v>48</v>
       </c>
@@ -3474,7 +3480,7 @@
       </c>
       <c r="G34" s="26">
         <f t="shared" si="14"/>
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="12"/>
@@ -3484,27 +3490,27 @@
       <c r="J34" s="30"/>
       <c r="K34">
         <f t="shared" ca="1" si="7"/>
-        <v>3.01</v>
+        <v>2.68</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9800000000000182</v>
+        <v>2.0499999999999545</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="9"/>
-        <v>3.7799999999999727</v>
+        <v>1.9800000000000182</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6299999999999955</v>
+        <v>3.7799999999999727</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1700000000000159</v>
+        <v>2.6299999999999955</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4900000000000091</v>
+        <v>2.9800000000000182</v>
       </c>
       <c r="R34" s="29">
         <v>32</v>
@@ -3517,7 +3523,7 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B35" s="22" t="s">
         <v>61</v>
       </c>
@@ -3536,7 +3542,7 @@
       </c>
       <c r="G35" s="26">
         <f t="shared" si="14"/>
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="12"/>
@@ -3548,27 +3554,27 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>71.44</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="8"/>
-        <v>132</v>
+        <v>34.799999999999955</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="9"/>
-        <v>113.79999999999995</v>
+        <v>132</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>113.79999999999995</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="6"/>
-        <v>55.200000000000045</v>
+        <v>35.600000000000023</v>
       </c>
       <c r="R35" s="25">
         <v>-89</v>
@@ -3579,7 +3585,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B36" s="22" t="s">
         <v>65</v>
       </c>
@@ -3598,7 +3604,7 @@
       </c>
       <c r="G36" s="26">
         <f>ROUND($C$4/(D36/E36*F36),0)</f>
-        <v>1200</v>
+        <v>1114</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="12"/>
@@ -3607,27 +3613,27 @@
       <c r="I36" s="24"/>
       <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>45290.22</v>
+        <v>82179.97</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="8"/>
-        <v>272106.75400000002</v>
+        <v>3.2999999999999918E-2</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="9"/>
-        <v>138793</v>
+        <v>272106.75400000002</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1999999999999824E-2</v>
+        <v>138793</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="5"/>
-        <v>-184448.73800000001</v>
+        <v>5.1999999999999824E-2</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="6"/>
-        <v>3.499999999999992E-2</v>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="R36" s="29">
         <v>71</v>
@@ -3636,7 +3642,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B37" s="22" t="s">
         <v>71</v>
       </c>
@@ -3655,7 +3661,7 @@
       </c>
       <c r="G37" s="26">
         <f>ROUND($C$4/(D37/E37*F37),0)</f>
-        <v>903</v>
+        <v>839</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="12"/>
@@ -3664,27 +3670,27 @@
       <c r="I37" s="24"/>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>7.94</v>
+        <v>8.31</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9499999999999886</v>
+        <v>10.349999999999966</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5500000000000114</v>
+        <v>6.9499999999999886</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9.5500000000000114</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8000000000000114</v>
+        <v>8</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4000000000000341</v>
+        <v>6.6999999999999886</v>
       </c>
       <c r="R37" s="25">
         <v>-9</v>
@@ -3695,7 +3701,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B38" s="22" t="s">
         <v>69</v>
       </c>
@@ -3714,7 +3720,7 @@
       </c>
       <c r="G38" s="26">
         <f>ROUND($C$4/(D38/E38*F38),0)</f>
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="H38" s="22">
         <f t="shared" si="12"/>
@@ -3726,27 +3732,27 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>52.66</v>
+        <v>62.72</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>41.199999999999932</v>
+        <v>56.799999999999955</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>69.600000000000023</v>
+        <v>41.199999999999932</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="4"/>
-        <v>115</v>
+        <v>69.600000000000023</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="6"/>
-        <v>15.5</v>
+        <v>31</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -3755,7 +3761,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
@@ -3787,26 +3793,26 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30000000000000071</v>
+        <v>0.375</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51000000000000156</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="4"/>
-        <v>-46264.525000000001</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26500000000000057</v>
+        <v>-46264.525000000001</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54499999999999815</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.45000000000000284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B40" s="22" t="s">
         <v>60</v>
       </c>
@@ -3825,7 +3831,7 @@
       </c>
       <c r="G40" s="26">
         <f t="shared" si="14"/>
-        <v>1018</v>
+        <v>945</v>
       </c>
       <c r="H40" s="22">
         <f t="shared" si="12"/>
@@ -3834,27 +3840,27 @@
       <c r="I40" s="24"/>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0649999999999977</v>
+        <v>1.0499999999999972</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>0.94000000000000483</v>
+        <v>1.0649999999999977</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0300000000000011</v>
+        <v>0.94000000000000483</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42999999999999972</v>
+        <v>1.0300000000000011</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86999999999999744</v>
+        <v>0.89000000000000057</v>
       </c>
       <c r="R40" s="25">
         <v>-18</v>
@@ -3867,7 +3873,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B41" s="22" t="s">
         <v>62</v>
       </c>
@@ -3886,7 +3892,7 @@
       </c>
       <c r="G41" s="26">
         <f t="shared" si="14"/>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H41" s="22">
         <f t="shared" si="12"/>
@@ -3895,27 +3901,27 @@
       <c r="I41" s="24"/>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>11.86</v>
+        <v>11.68</v>
       </c>
       <c r="L41">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>8.3999999999999773</v>
+        <v>9.8999999999999773</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="9"/>
-        <v>13.5</v>
+        <v>8.3999999999999773</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="4"/>
-        <v>14.899999999999977</v>
+        <v>13.5</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000682</v>
+        <v>14.899999999999977</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="6"/>
-        <v>13.700000000000045</v>
+        <v>11.700000000000045</v>
       </c>
       <c r="R41" s="25">
         <v>-114</v>
@@ -3926,7 +3932,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B42" s="22" t="s">
         <v>52</v>
       </c>
@@ -3945,7 +3951,7 @@
       </c>
       <c r="G42" s="26">
         <f t="shared" ref="G42:G47" si="15">ROUND($C$4/(D42/E42*F42),0)</f>
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="H42" s="22">
         <f t="shared" si="12"/>
@@ -3954,27 +3960,27 @@
       <c r="I42" s="24"/>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>2.21</v>
+        <v>1.94</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4000000000000057</v>
+        <v>0.88000000000000966</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4399999999999977</v>
+        <v>1.4000000000000057</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3599999999999994</v>
+        <v>2.4399999999999977</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1999999999999886</v>
+        <v>3.3599999999999994</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6599999999999966</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="R42" s="29">
         <v>7</v>
@@ -3985,7 +3991,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B43" s="22" t="s">
         <v>74</v>
       </c>
@@ -4004,7 +4010,7 @@
       </c>
       <c r="G43" s="26">
         <f t="shared" si="15"/>
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" ref="H43:H45" si="16">ROUND(D43/E43,0)</f>
@@ -4013,27 +4019,27 @@
       <c r="I43" s="24"/>
       <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>17.68</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="8"/>
-        <v>22.399999999999864</v>
+        <v>18.200000000000045</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>22.399999999999864</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="4"/>
-        <v>18.399999999999864</v>
+        <v>15</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8000000000001819</v>
+        <v>18.399999999999864</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="6"/>
-        <v>22.799999999999955</v>
+        <v>23.200000000000045</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="25">
@@ -4044,7 +4050,7 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B44" s="22" t="s">
         <v>81</v>
       </c>
@@ -4063,7 +4069,7 @@
       </c>
       <c r="G44" s="26">
         <f t="shared" si="15"/>
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="H44" s="22">
         <f t="shared" si="16"/>
@@ -4075,43 +4081,43 @@
       </c>
       <c r="K44">
         <f ca="1">ROUND(AVERAGE(L44:P44),4)</f>
-        <v>5.8900000000000001E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0999999999999925E-2</v>
+        <v>3.1499999999999972E-2</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0599999999999969E-2</v>
+        <v>4.0999999999999925E-2</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2900000000000085E-2</v>
+        <v>4.0599999999999969E-2</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6999999999999957E-2</v>
+        <v>8.2900000000000085E-2</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2799999999999958E-2</v>
+        <v>2.0199999999999996E-2</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="1">
-        <v>9.7100000000000009</v>
+        <v>8.9</v>
       </c>
       <c r="D45" s="25">
         <f>C45/10</f>
-        <v>0.97100000000000009</v>
+        <v>0.89</v>
       </c>
       <c r="E45" s="1">
         <v>0.05</v>
@@ -4121,39 +4127,39 @@
       </c>
       <c r="G45" s="26">
         <f t="shared" si="15"/>
-        <v>1730</v>
+        <v>1753</v>
       </c>
       <c r="H45" s="22">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="30">
-        <v>46058</v>
+        <v>46063</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="7"/>
-        <v>8.61</v>
+        <v>8.9</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3499999999999659</v>
+        <v>4.8499999999999659</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="9"/>
-        <v>7.0500000000000114</v>
+        <v>5.3499999999999659</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="4"/>
-        <v>10.449999999999989</v>
+        <v>7.0500000000000114</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="5"/>
-        <v>12.600000000000023</v>
+        <v>10.449999999999989</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5999999999999659</v>
+        <v>16.800000000000011</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="29">
@@ -4162,7 +4168,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -4184,7 +4190,7 @@
       </c>
       <c r="G46" s="26">
         <f t="shared" si="15"/>
-        <v>6437</v>
+        <v>5977</v>
       </c>
       <c r="H46" s="22">
         <f>ROUND(D46/E46,0)</f>
@@ -4196,27 +4202,27 @@
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="7"/>
-        <v>2.86</v>
+        <v>2.41</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5949999999999989</v>
+        <v>3.1499999999999915</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1049999999999898</v>
+        <v>2.5949999999999989</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4749999999999943</v>
+        <v>2.1049999999999898</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6299999999999955</v>
+        <v>2.4749999999999943</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5100000000000051</v>
+        <v>1.7299999999999898</v>
       </c>
       <c r="R46" s="29">
         <v>19</v>
@@ -4227,16 +4233,16 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="22">
-        <v>100</v>
+        <v>46.6</v>
       </c>
       <c r="D47" s="25">
         <f>C47/10</f>
-        <v>10</v>
+        <v>4.66</v>
       </c>
       <c r="E47" s="22">
         <v>0.5</v>
@@ -4246,52 +4252,55 @@
       </c>
       <c r="G47" s="26">
         <f t="shared" si="15"/>
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="H47" s="22">
         <f>ROUND(D47/E47,0)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I47" s="24"/>
+      <c r="J47" s="30">
+        <v>46063</v>
+      </c>
       <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>42.7</v>
+        <v>46.6</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="5"/>
-        <v>23.5</v>
+        <v>70</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>140</v>
+        <v>92.8</v>
       </c>
       <c r="D48" s="25">
         <f t="shared" ref="D48:D51" si="17">C48/10</f>
-        <v>14</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="E48" s="1">
         <v>0.5</v>
@@ -4301,36 +4310,39 @@
       </c>
       <c r="G48" s="26">
         <f t="shared" ref="G48:G51" si="18">ROUND($C$4/(D48/E48*F48),0)</f>
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="H48" s="22">
         <f t="shared" ref="H48:H51" si="19">ROUND(D48/E48,0)</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I48" s="23"/>
+      <c r="J48" s="30">
+        <v>46063</v>
+      </c>
       <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>83.8</v>
+        <v>92.8</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="8"/>
-        <v>70.5</v>
+        <v>99</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="9"/>
-        <v>133</v>
+        <v>70.5</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="4"/>
-        <v>85.5</v>
+        <v>133</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>85.5</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="R48" s="1">
         <v>-97</v>
@@ -4343,7 +4355,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B49" s="27" t="s">
         <v>73</v>
       </c>
@@ -4362,7 +4374,7 @@
       </c>
       <c r="G49" s="26">
         <f t="shared" si="18"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H49" s="22">
         <f t="shared" si="19"/>
@@ -4378,7 +4390,7 @@
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="27" t="s">
         <v>11</v>
       </c>
@@ -4397,7 +4409,7 @@
       </c>
       <c r="G50" s="26">
         <f t="shared" si="18"/>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H50" s="22">
         <f t="shared" si="19"/>
@@ -4415,7 +4427,7 @@
       </c>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B51" s="27" t="s">
         <v>82</v>
       </c>
@@ -4434,7 +4446,7 @@
       </c>
       <c r="G51" s="26">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="19"/>
@@ -4443,7 +4455,7 @@
       <c r="I51" s="24"/>
       <c r="M51">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>966</v>
+        <v>1213</v>
       </c>
       <c r="R51" s="29">
         <v>459</v>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moex\calc_pos_moex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa.shenshin\Documents\calc_pos_moex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -788,19 +788,19 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>15</v>
@@ -1049,17 +1049,17 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>-9954.7800000000061</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>38.640000000000036</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>3.3543999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1606,7 +1606,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1615,7 +1615,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1624,7 +1624,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1633,7 +1633,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1642,7 +1642,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1651,7 +1651,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1660,7 +1660,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1669,7 +1669,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1678,7 +1678,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1687,7 +1687,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1696,7 +1696,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1705,7 +1705,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1714,7 +1714,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1723,7 +1723,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1732,7 +1732,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1741,7 +1741,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1761,22 +1761,22 @@
   <dimension ref="A3:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="12" max="16" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="12" max="16" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
@@ -1794,29 +1794,29 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L6" s="5" t="str">
         <f ca="1">TEXT(L7,"ддд")</f>
-        <v>Пн</v>
+        <v>Чт</v>
       </c>
       <c r="M6" s="5" t="str">
         <f ca="1">TEXT(M7,"ддд")</f>
-        <v>Пт</v>
+        <v>Ср</v>
       </c>
       <c r="N6" s="5" t="str">
         <f t="shared" ref="N6:P6" ca="1" si="0">TEXT(N7,"ддд")</f>
-        <v>Чт</v>
+        <v>Вт</v>
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Ср</v>
+        <v>Пн</v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Вт</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+        <v>Пт</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1847,23 +1847,23 @@
       </c>
       <c r="L7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-1, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-12</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-2, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-11</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-3, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-10</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-4, "ГГГГ-ММ-ДД")</f>
         <v>2026-02-09</v>
       </c>
-      <c r="M7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-4, "ГГГГ-ММ-ДД")</f>
+      <c r="P7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-7, "ГГГГ-ММ-ДД")</f>
         <v>2026-02-06</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-5, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-05</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-6, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-04</v>
-      </c>
-      <c r="P7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-0, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-10</v>
       </c>
       <c r="R7" s="28">
         <v>45566</v>
@@ -1878,7 +1878,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
@@ -1907,27 +1907,27 @@
       <c r="J8" s="30"/>
       <c r="K8">
         <f ca="1">ROUND(AVERAGE(L8:P8),2)</f>
-        <v>-9270.84</v>
+        <v>-9270.9</v>
       </c>
       <c r="L8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.22100000000000009</v>
+        <v>0.18299999999999983</v>
       </c>
       <c r="M8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>-46355.578000000001</v>
+        <v>0.34799999999999898</v>
       </c>
       <c r="N8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.41499999999999915</v>
+        <v>0.34899999999999842</v>
       </c>
       <c r="O8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.41400000000000148</v>
+        <v>0.22100000000000009</v>
       </c>
       <c r="P8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.34899999999999842</v>
+        <v>-46355.578000000001</v>
       </c>
       <c r="R8" s="29">
         <v>54</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1971,27 +1971,27 @@
       </c>
       <c r="K9">
         <f ca="1">ROUND(AVERAGE(L9:P9),2)</f>
-        <v>1.1499999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="L9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.86000000000000654</v>
+        <v>0.72999999999999687</v>
       </c>
       <c r="M9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.0799999999999983</v>
+        <v>1.2600000000000051</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N48" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.72999999999999687</v>
+        <v>1.1000000000000014</v>
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O48" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.9699999999999989</v>
+        <v>0.86000000000000654</v>
       </c>
       <c r="P9">
         <f t="shared" ref="P9:P48" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.1000000000000014</v>
+        <v>1.0799999999999983</v>
       </c>
       <c r="R9" s="25">
         <v>-30</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
@@ -2032,27 +2032,27 @@
       <c r="I10" s="24"/>
       <c r="K10">
         <f ca="1">ROUND(AVERAGE(L10:P10),2)</f>
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="L10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.57000000000000028</v>
+        <v>0.83999999999999631</v>
       </c>
       <c r="M10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.81000000000000227</v>
+        <v>0.99000000000000199</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82000000000000028</v>
+        <v>0.85999999999999943</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96999999999999886</v>
+        <v>0.57000000000000028</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85000000000000142</v>
+        <v>0.81000000000000227</v>
       </c>
       <c r="R10" s="29">
         <v>39</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,19 +2093,19 @@
       <c r="I11" s="23"/>
       <c r="K11">
         <f t="shared" ref="K11:K48" ca="1" si="7">ROUND(AVERAGE(L11:P11),2)</f>
-        <v>16.72</v>
+        <v>19.36</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L48" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>17.200000000000045</v>
+        <v>21.799999999999955</v>
       </c>
       <c r="M11">
         <f t="shared" ref="M11:M48" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>13</v>
+        <v>28.799999999999955</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="4"/>
-        <v>20.200000000000045</v>
+        <v>16</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="5"/>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R11" s="29">
         <v>80</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>68</v>
       </c>
@@ -2154,27 +2154,27 @@
       <c r="I12" s="24"/>
       <c r="K12">
         <f t="shared" ca="1" si="7"/>
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4399999999999977</v>
+        <v>1.2099999999999937</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="9"/>
-        <v>2.75</v>
+        <v>2.5799999999999983</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2099999999999937</v>
+        <v>1.8099999999999881</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8599999999999994</v>
+        <v>1.4399999999999977</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8099999999999881</v>
+        <v>2.75</v>
       </c>
       <c r="R12" s="29">
         <v>27</v>
@@ -2185,7 +2185,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>50</v>
       </c>
@@ -2213,34 +2213,34 @@
       <c r="I13" s="23"/>
       <c r="K13">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6500000000000057</v>
+        <v>2.4000000000000057</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1500000000000057</v>
+        <v>2.8000000000000114</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5.8499999999999943</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3499999999999943</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8499999999999943</v>
+        <v>3.1500000000000057</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
@@ -2271,27 +2271,27 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="8"/>
-        <v>1.480000000000004</v>
+        <v>1.5699999999999932</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="9"/>
-        <v>1.25</v>
+        <v>2.9000000000000057</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5300000000000011</v>
+        <v>1.8700000000000045</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1999999999999886</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8700000000000045</v>
+        <v>1.25</v>
       </c>
       <c r="R14" s="25">
         <v>-2</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>83</v>
       </c>
@@ -2335,34 +2335,34 @@
       </c>
       <c r="K15">
         <f ca="1">ROUND(AVERAGE(L15:P15),5)</f>
-        <v>2.5400000000000002E-3</v>
+        <v>2.2300000000000002E-3</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0199999999999958E-3</v>
+        <v>1.8200000000000022E-3</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6599999999999948E-3</v>
+        <v>1.4799999999999952E-3</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9600000000000034E-3</v>
+        <v>2.1800000000000014E-3</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8599999999999876E-3</v>
+        <v>4.0199999999999958E-3</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1800000000000014E-3</v>
+        <v>1.6599999999999948E-3</v>
       </c>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="29"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>56</v>
       </c>
@@ -2393,27 +2393,27 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4000000000000004</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2800000000000011</v>
+        <v>3.4799999999999898</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="9"/>
-        <v>5.039999999999992</v>
+        <v>6.3199999999999932</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2800000000000011</v>
+        <v>2.1599999999999966</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2400000000000091</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1599999999999966</v>
+        <v>5.039999999999992</v>
       </c>
       <c r="R16" s="25">
         <v>-211</v>
@@ -2424,7 +2424,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>51</v>
       </c>
@@ -2452,27 +2452,27 @@
       <c r="I17" s="24"/>
       <c r="K17">
         <f t="shared" ca="1" si="7"/>
-        <v>210975.55</v>
+        <v>164954.94</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="8"/>
-        <v>507687</v>
+        <v>4.0999999999999925E-2</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="9"/>
-        <v>-787828</v>
+        <v>874813.64300000004</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="4"/>
-        <v>1104916.6140000001</v>
+        <v>230102</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11499999999999977</v>
+        <v>507687</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="6"/>
-        <v>230102</v>
+        <v>-787828</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="25">
@@ -2481,16 +2481,16 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="22">
-        <v>80</v>
+        <v>98.6</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9.86</v>
       </c>
       <c r="E18" s="22">
         <v>0.5</v>
@@ -2500,37 +2500,39 @@
       </c>
       <c r="G18" s="26">
         <f t="shared" si="11"/>
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H42" si="12">ROUND(D18/E18,0)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I18" s="24"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="30">
+        <v>46066</v>
+      </c>
       <c r="K18">
         <f t="shared" ca="1" si="7"/>
-        <v>102.1</v>
+        <v>98.6</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="8"/>
-        <v>135</v>
+        <v>75.5</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="4"/>
-        <v>105.5</v>
+        <v>130.5</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="5"/>
-        <v>93.5</v>
+        <v>135</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="6"/>
-        <v>122.5</v>
+        <v>54</v>
       </c>
       <c r="R18" s="25">
         <v>-741</v>
@@ -2543,7 +2545,7 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2578,23 +2580,23 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1550000000000011</v>
+        <v>0.61499999999999844</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1799999999999997</v>
+        <v>1.3400000000000034</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82500000000000284</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1449999999999996</v>
+        <v>1.1550000000000011</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64999999999999858</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="R19" s="25">
         <v>-107</v>
@@ -2607,7 +2609,7 @@
       </c>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2636,27 +2638,27 @@
       <c r="J20" s="30"/>
       <c r="K20">
         <f t="shared" ca="1" si="7"/>
-        <v>94.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="8"/>
-        <v>82.5</v>
+        <v>64.5</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="9"/>
-        <v>135.5</v>
+        <v>56.5</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="4"/>
-        <v>106.5</v>
+        <v>58</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>82.5</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>135.5</v>
       </c>
       <c r="R20" s="29">
         <v>45</v>
@@ -2669,7 +2671,7 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>53</v>
       </c>
@@ -2698,27 +2700,27 @@
       <c r="J21" s="30"/>
       <c r="K21">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1500000000000004</v>
+        <v>2.73</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7399999999999807</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3300000000000125</v>
+        <v>2.8100000000000023</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5</v>
+        <v>2.0999999999999943</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0700000000000216</v>
+        <v>2.7399999999999807</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0999999999999943</v>
+        <v>3.3300000000000125</v>
       </c>
       <c r="R21" s="25">
         <v>-146</v>
@@ -2731,7 +2733,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>45</v>
       </c>
@@ -2760,27 +2762,27 @@
       <c r="J22" s="30"/>
       <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5299999999999869</v>
+        <v>1.0899999999999892</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6300000000000097</v>
+        <v>1.6000000000000085</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.480000000000004</v>
+        <v>1.0699999999999932</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8200000000000074</v>
+        <v>1.5299999999999869</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0699999999999932</v>
+        <v>2.6300000000000097</v>
       </c>
       <c r="R22" s="25">
         <v>-6</v>
@@ -2793,7 +2795,7 @@
       </c>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
@@ -2824,27 +2826,27 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1900000000000004</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3000000000000114</v>
+        <v>5.1999999999999886</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3499999999999943</v>
+        <v>2.9500000000000171</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="4"/>
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5499999999999829</v>
+        <v>4.3000000000000114</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5</v>
+        <v>3.3499999999999943</v>
       </c>
       <c r="R23" s="25">
         <v>-149</v>
@@ -2857,7 +2859,7 @@
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2890,23 +2892,23 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7399999999999949</v>
+        <v>3.6400000000000006</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9000000000000057</v>
+        <v>3.3599999999999994</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="4"/>
-        <v>3.019999999999996</v>
+        <v>2.0600000000000023</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="5"/>
-        <v>3.980000000000004</v>
+        <v>1.7399999999999949</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0600000000000023</v>
+        <v>1.9000000000000057</v>
       </c>
       <c r="R24" s="29">
         <v>23</v>
@@ -2919,7 +2921,7 @@
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>66</v>
       </c>
@@ -2950,27 +2952,27 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>22.54</v>
+        <v>24.44</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="8"/>
-        <v>22.599999999999909</v>
+        <v>19.799999999999955</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="9"/>
-        <v>15.5</v>
+        <v>47.799999999999955</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="4"/>
-        <v>32.599999999999909</v>
+        <v>16.5</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="5"/>
-        <v>25.5</v>
+        <v>22.599999999999909</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="6"/>
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="29">
@@ -2979,7 +2981,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,7 +3012,7 @@
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>112.3</v>
+        <v>124.7</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="8"/>
@@ -3018,19 +3020,19 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="9"/>
-        <v>126.5</v>
+        <v>228.5</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="4"/>
-        <v>163</v>
+        <v>98.5</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="5"/>
-        <v>88.5</v>
+        <v>85</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="6"/>
-        <v>98.5</v>
+        <v>126.5</v>
       </c>
       <c r="R26" s="25">
         <v>-6</v>
@@ -3043,7 +3045,7 @@
       </c>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>72</v>
       </c>
@@ -3071,27 +3073,27 @@
       <c r="I27" s="24"/>
       <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>42.48</v>
+        <v>30.68</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="8"/>
-        <v>48.399999999999864</v>
+        <v>33</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="4"/>
-        <v>53.200000000000045</v>
+        <v>31</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="5"/>
-        <v>55.799999999999955</v>
+        <v>48.399999999999864</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="25">
@@ -3100,7 +3102,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>54</v>
       </c>
@@ -3128,27 +3130,27 @@
       <c r="I28" s="24"/>
       <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>79.400000000000006</v>
+        <v>77.8</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R28" s="25">
         <v>-31</v>
@@ -3159,16 +3161,16 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="22">
-        <v>33.4</v>
+        <v>11.98</v>
       </c>
       <c r="D29" s="25">
         <f>C29/10</f>
-        <v>3.34</v>
+        <v>1.198</v>
       </c>
       <c r="E29" s="22">
         <v>0.1</v>
@@ -3178,36 +3180,39 @@
       </c>
       <c r="G29" s="26">
         <f>ROUND($C$4/(D29/E29*F29),0)</f>
-        <v>467</v>
+        <v>1302</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I29" s="24"/>
+      <c r="J29" s="30">
+        <v>46066</v>
+      </c>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>15.88</v>
+        <v>11.98</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="8"/>
-        <v>8.8999999999999773</v>
+        <v>9.6999999999999886</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="9"/>
-        <v>15.600000000000023</v>
+        <v>17.5</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="4"/>
-        <v>14.600000000000023</v>
+        <v>8.1999999999999886</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="5"/>
-        <v>32.100000000000023</v>
+        <v>8.8999999999999773</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1999999999999886</v>
+        <v>15.600000000000023</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="29">
@@ -3218,7 +3223,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>58</v>
       </c>
@@ -3249,27 +3254,27 @@
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>57.2</v>
+        <v>55.84</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="8"/>
-        <v>50.800000000000182</v>
+        <v>108.19999999999982</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="9"/>
-        <v>44.199999999999818</v>
+        <v>41.800000000000182</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="4"/>
-        <v>75.800000000000182</v>
+        <v>34.199999999999818</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>50.800000000000182</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="6"/>
-        <v>34.199999999999818</v>
+        <v>44.199999999999818</v>
       </c>
       <c r="R30" s="25">
         <v>-68</v>
@@ -3280,7 +3285,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>63</v>
       </c>
@@ -3308,27 +3313,27 @@
       <c r="I31" s="24"/>
       <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7999999999999972</v>
+        <v>3.1500000000000057</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6000000000000085</v>
+        <v>4.6499999999999915</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="4"/>
-        <v>4.25</v>
+        <v>2.9499999999999886</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3000000000000114</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9499999999999886</v>
+        <v>2.6000000000000085</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3337,7 +3342,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>49</v>
       </c>
@@ -3368,27 +3373,27 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>6.21</v>
+        <v>6.53</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6000000000000227</v>
+        <v>4.4499999999999886</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6499999999999773</v>
+        <v>10.450000000000045</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3500000000000227</v>
+        <v>7.5</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9499999999999886</v>
+        <v>5.6000000000000227</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5</v>
+        <v>4.6499999999999773</v>
       </c>
       <c r="R32" s="29">
         <v>342</v>
@@ -3401,7 +3406,7 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>67</v>
       </c>
@@ -3432,27 +3437,27 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="7"/>
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2199999999999989</v>
+        <v>0.91000000000000369</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="9"/>
-        <v>0.78499999999999659</v>
+        <v>1.0200000000000031</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76500000000000057</v>
+        <v>0.88499999999999801</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="5"/>
-        <v>1.75</v>
+        <v>1.2199999999999989</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88499999999999801</v>
+        <v>0.78499999999999659</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="25">
@@ -3461,7 +3466,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>48</v>
       </c>
@@ -3490,27 +3495,27 @@
       <c r="J34" s="30"/>
       <c r="K34">
         <f t="shared" ca="1" si="7"/>
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0499999999999545</v>
+        <v>2.5</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9800000000000182</v>
+        <v>3.3799999999999955</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7799999999999727</v>
+        <v>2.9800000000000182</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6299999999999955</v>
+        <v>2.0499999999999545</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9800000000000182</v>
+        <v>1.9800000000000182</v>
       </c>
       <c r="R34" s="29">
         <v>32</v>
@@ -3523,7 +3528,7 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>61</v>
       </c>
@@ -3554,27 +3559,27 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>71.44</v>
+        <v>49</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="8"/>
-        <v>34.799999999999955</v>
+        <v>17.799999999999955</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="9"/>
-        <v>132</v>
+        <v>24.799999999999955</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="4"/>
-        <v>113.79999999999995</v>
+        <v>35.600000000000023</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>34.799999999999955</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="6"/>
-        <v>35.600000000000023</v>
+        <v>132</v>
       </c>
       <c r="R35" s="25">
         <v>-89</v>
@@ -3585,7 +3590,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>65</v>
       </c>
@@ -3613,27 +3618,27 @@
       <c r="I36" s="24"/>
       <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>82179.97</v>
+        <v>69761.77</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2999999999999918E-2</v>
+        <v>76702</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="9"/>
-        <v>272106.75400000002</v>
+        <v>2.100000000000013E-2</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="4"/>
-        <v>138793</v>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1999999999999824E-2</v>
+        <v>3.2999999999999918E-2</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8000000000000016E-2</v>
+        <v>272106.75400000002</v>
       </c>
       <c r="R36" s="29">
         <v>71</v>
@@ -3642,7 +3647,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>71</v>
       </c>
@@ -3670,27 +3675,27 @@
       <c r="I37" s="24"/>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>8.31</v>
+        <v>7.69</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="8"/>
-        <v>10.349999999999966</v>
+        <v>5.8999999999999773</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9499999999999886</v>
+        <v>8.5500000000000114</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5500000000000114</v>
+        <v>6.6999999999999886</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>10.349999999999966</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6999999999999886</v>
+        <v>6.9499999999999886</v>
       </c>
       <c r="R37" s="25">
         <v>-9</v>
@@ -3701,7 +3706,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="s">
         <v>69</v>
       </c>
@@ -3732,27 +3737,27 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>62.72</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>56.799999999999955</v>
+        <v>15.799999999999955</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>41.199999999999932</v>
+        <v>24.399999999999977</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="4"/>
-        <v>69.600000000000023</v>
+        <v>31</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>56.799999999999955</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>41.199999999999932</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -3761,7 +3766,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
@@ -3789,30 +3794,30 @@
       <c r="I39" s="24"/>
       <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>-9252.58</v>
+        <v>0.39</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.375</v>
+        <v>0.30999999999999872</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30000000000000071</v>
+        <v>0.49499999999999744</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51000000000000156</v>
+        <v>0.45000000000000284</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="5"/>
-        <v>-46264.525000000001</v>
+        <v>0.375</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45000000000000284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="s">
         <v>60</v>
       </c>
@@ -3840,27 +3845,27 @@
       <c r="I40" s="24"/>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0499999999999972</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0649999999999977</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94000000000000483</v>
+        <v>0.89000000000000057</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0300000000000011</v>
+        <v>1.0499999999999972</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89000000000000057</v>
+        <v>1.0649999999999977</v>
       </c>
       <c r="R40" s="25">
         <v>-18</v>
@@ -3873,7 +3878,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
         <v>62</v>
       </c>
@@ -3901,27 +3906,27 @@
       <c r="I41" s="24"/>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>11.68</v>
+        <v>10.52</v>
       </c>
       <c r="L41">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>9.8999999999999773</v>
+        <v>12.399999999999977</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3999999999999773</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="4"/>
-        <v>13.5</v>
+        <v>11.700000000000045</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="5"/>
-        <v>14.899999999999977</v>
+        <v>9.8999999999999773</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="6"/>
-        <v>11.700000000000045</v>
+        <v>8.3999999999999773</v>
       </c>
       <c r="R41" s="25">
         <v>-114</v>
@@ -3932,7 +3937,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
         <v>52</v>
       </c>
@@ -3960,27 +3965,27 @@
       <c r="I42" s="24"/>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>1.94</v>
+        <v>1.29</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="8"/>
-        <v>0.88000000000000966</v>
+        <v>1.1600000000000108</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4000000000000057</v>
+        <v>1.3999999999999915</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4399999999999977</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3599999999999994</v>
+        <v>0.88000000000000966</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5999999999999943</v>
+        <v>1.4000000000000057</v>
       </c>
       <c r="R42" s="29">
         <v>7</v>
@@ -3991,7 +3996,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
         <v>74</v>
       </c>
@@ -4019,27 +4024,27 @@
       <c r="I43" s="24"/>
       <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>19.440000000000001</v>
+        <v>19.68</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="8"/>
-        <v>18.200000000000045</v>
+        <v>11.200000000000045</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="9"/>
-        <v>22.399999999999864</v>
+        <v>23.400000000000091</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>23.200000000000045</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="5"/>
-        <v>18.399999999999864</v>
+        <v>18.200000000000045</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="6"/>
-        <v>23.200000000000045</v>
+        <v>22.399999999999864</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="25">
@@ -4050,7 +4055,7 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
         <v>81</v>
       </c>
@@ -4081,34 +4086,34 @@
       </c>
       <c r="K44">
         <f ca="1">ROUND(AVERAGE(L44:P44),4)</f>
-        <v>4.3200000000000002E-2</v>
+        <v>2.92E-2</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1499999999999972E-2</v>
+        <v>2.2399999999999975E-2</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0999999999999925E-2</v>
+        <v>3.1000000000000028E-2</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0599999999999969E-2</v>
+        <v>2.0199999999999996E-2</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="5"/>
-        <v>8.2900000000000085E-2</v>
+        <v>3.1499999999999972E-2</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0199999999999996E-2</v>
+        <v>4.0999999999999925E-2</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
@@ -4139,27 +4144,27 @@
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="7"/>
-        <v>8.9</v>
+        <v>7.69</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="8"/>
-        <v>4.8499999999999659</v>
+        <v>3.6500000000000341</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3499999999999659</v>
+        <v>7.8000000000000114</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0500000000000114</v>
+        <v>16.800000000000011</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="5"/>
-        <v>10.449999999999989</v>
+        <v>4.8499999999999659</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="6"/>
-        <v>16.800000000000011</v>
+        <v>5.3499999999999659</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="29">
@@ -4168,7 +4173,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -4206,23 +4211,23 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1499999999999915</v>
+        <v>0.98999999999999488</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5949999999999989</v>
+        <v>3.5649999999999977</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1049999999999898</v>
+        <v>1.7299999999999898</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4749999999999943</v>
+        <v>3.1499999999999915</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7299999999999898</v>
+        <v>2.5949999999999989</v>
       </c>
       <c r="R46" s="29">
         <v>19</v>
@@ -4233,7 +4238,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>77</v>
       </c>
@@ -4264,34 +4269,34 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>46.6</v>
+        <v>38.6</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>37</v>
       </c>
@@ -4322,27 +4327,27 @@
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>92.8</v>
+        <v>106.3</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="9"/>
-        <v>70.5</v>
+        <v>190</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="4"/>
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="5"/>
-        <v>85.5</v>
+        <v>99</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>70.5</v>
       </c>
       <c r="R48" s="1">
         <v>-97</v>
@@ -4355,7 +4360,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="27" t="s">
         <v>73</v>
       </c>
@@ -4390,7 +4395,7 @@
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27" t="s">
         <v>11</v>
       </c>
@@ -4427,7 +4432,7 @@
       </c>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
         <v>82</v>
       </c>
@@ -4455,7 +4460,7 @@
       <c r="I51" s="24"/>
       <c r="M51">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1213</v>
+        <v>794</v>
       </c>
       <c r="R51" s="29">
         <v>459</v>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -1761,8 +1761,8 @@
   <dimension ref="A3:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,23 +1797,23 @@
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L6" s="5" t="str">
         <f ca="1">TEXT(L7,"ддд")</f>
-        <v>Чт</v>
+        <v>Вт</v>
       </c>
       <c r="M6" s="5" t="str">
         <f ca="1">TEXT(M7,"ддд")</f>
-        <v>Ср</v>
+        <v>Пн</v>
       </c>
       <c r="N6" s="5" t="str">
         <f t="shared" ref="N6:P6" ca="1" si="0">TEXT(N7,"ддд")</f>
-        <v>Вт</v>
+        <v>Пт</v>
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Пн</v>
+        <v>Чт</v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Пт</v>
+        <v>Ср</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1846,24 +1846,24 @@
         <v>79</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-1, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-12</v>
+        <f ca="1">TEXT(TODAY()-6, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-10</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-2, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-11</v>
+        <f ca="1">TEXT(TODAY()-7, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-09</v>
       </c>
       <c r="N7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-3, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-10</v>
+        <v>2026-02-13</v>
       </c>
       <c r="O7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-4, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-09</v>
+        <v>2026-02-12</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-7, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-06</v>
+        <f ca="1">TEXT(TODAY()-5, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-11</v>
       </c>
       <c r="R7" s="28">
         <v>45566</v>
@@ -1883,11 +1883,11 @@
         <v>46</v>
       </c>
       <c r="C8" s="22">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" ref="D8:D26" si="1">C8/10</f>
-        <v>0.06</v>
+        <v>3.4999999999999996E-2</v>
       </c>
       <c r="E8" s="22">
         <v>1E-3</v>
@@ -1897,37 +1897,39 @@
       </c>
       <c r="G8" s="26">
         <f t="shared" ref="G8:G26" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
-        <v>260</v>
+        <v>446</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H17" si="3">ROUND(D8/E8,0)</f>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I8" s="23"/>
-      <c r="J8" s="30"/>
+      <c r="J8" s="30">
+        <v>46069</v>
+      </c>
       <c r="K8">
         <f ca="1">ROUND(AVERAGE(L8:P8),2)</f>
-        <v>-9270.9</v>
+        <v>42.62</v>
       </c>
       <c r="L8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.18299999999999983</v>
+        <v>0.34899999999999842</v>
       </c>
       <c r="M8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.34799999999999898</v>
+        <v>0.22100000000000009</v>
       </c>
       <c r="N8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.34899999999999842</v>
+        <v>212</v>
       </c>
       <c r="O8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.22100000000000009</v>
+        <v>0.18299999999999983</v>
       </c>
       <c r="P8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>-46355.578000000001</v>
+        <v>0.34799999999999898</v>
       </c>
       <c r="R8" s="29">
         <v>54</v>
@@ -1971,27 +1973,27 @@
       </c>
       <c r="K9">
         <f ca="1">ROUND(AVERAGE(L9:P9),2)</f>
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="L9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.72999999999999687</v>
+        <v>1.1000000000000014</v>
       </c>
       <c r="M9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.2600000000000051</v>
+        <v>0.86000000000000654</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N48" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.1000000000000014</v>
+        <v>0.99000000000000199</v>
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O48" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.86000000000000654</v>
+        <v>0.72999999999999687</v>
       </c>
       <c r="P9">
         <f t="shared" ref="P9:P48" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.0799999999999983</v>
+        <v>1.2600000000000051</v>
       </c>
       <c r="R9" s="25">
         <v>-30</v>
@@ -2032,27 +2034,27 @@
       <c r="I10" s="24"/>
       <c r="K10">
         <f ca="1">ROUND(AVERAGE(L10:P10),2)</f>
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="L10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.83999999999999631</v>
+        <v>0.85999999999999943</v>
       </c>
       <c r="M10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.99000000000000199</v>
+        <v>0.57000000000000028</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85999999999999943</v>
+        <v>0.92999999999999972</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57000000000000028</v>
+        <v>0.83999999999999631</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81000000000000227</v>
+        <v>0.99000000000000199</v>
       </c>
       <c r="R10" s="29">
         <v>39</v>
@@ -2093,27 +2095,27 @@
       <c r="I11" s="23"/>
       <c r="K11">
         <f t="shared" ref="K11:K48" ca="1" si="7">ROUND(AVERAGE(L11:P11),2)</f>
-        <v>19.36</v>
+        <v>22.84</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L48" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>21.799999999999955</v>
+        <v>16</v>
       </c>
       <c r="M11">
         <f t="shared" ref="M11:M48" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>28.799999999999955</v>
+        <v>17.200000000000045</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>30.399999999999977</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="5"/>
-        <v>17.200000000000045</v>
+        <v>21.799999999999955</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>28.799999999999955</v>
       </c>
       <c r="R11" s="29">
         <v>80</v>
@@ -2154,27 +2156,27 @@
       <c r="I12" s="24"/>
       <c r="K12">
         <f t="shared" ca="1" si="7"/>
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2099999999999937</v>
+        <v>1.8099999999999881</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5799999999999983</v>
+        <v>1.4399999999999977</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8099999999999881</v>
+        <v>1.5100000000000051</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4399999999999977</v>
+        <v>1.2099999999999937</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="6"/>
-        <v>2.75</v>
+        <v>2.5799999999999983</v>
       </c>
       <c r="R12" s="29">
         <v>27</v>
@@ -2213,27 +2215,27 @@
       <c r="I13" s="23"/>
       <c r="K13">
         <f t="shared" ca="1" si="7"/>
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4000000000000057</v>
+        <v>5.8499999999999943</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="9"/>
-        <v>2.8000000000000114</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8499999999999943</v>
+        <v>3.5</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6500000000000057</v>
+        <v>2.4000000000000057</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1500000000000057</v>
+        <v>2.8000000000000114</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2271,27 +2273,27 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5699999999999932</v>
+        <v>1.8700000000000045</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9000000000000057</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8700000000000045</v>
+        <v>2.9699999999999989</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.480000000000004</v>
+        <v>1.5699999999999932</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.25</v>
+        <v>2.9000000000000057</v>
       </c>
       <c r="R14" s="25">
         <v>-2</v>
@@ -2335,27 +2337,27 @@
       </c>
       <c r="K15">
         <f ca="1">ROUND(AVERAGE(L15:P15),5)</f>
-        <v>2.2300000000000002E-3</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8200000000000022E-3</v>
+        <v>2.1800000000000014E-3</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4799999999999952E-3</v>
+        <v>4.0199999999999958E-3</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1800000000000014E-3</v>
+        <v>2.2599999999999981E-3</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0199999999999958E-3</v>
+        <v>1.8200000000000022E-3</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6599999999999948E-3</v>
+        <v>1.4799999999999952E-3</v>
       </c>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
@@ -2393,27 +2395,27 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0599999999999996</v>
+        <v>4.42</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="8"/>
-        <v>3.4799999999999898</v>
+        <v>2.1599999999999966</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3199999999999932</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1599999999999966</v>
+        <v>6.8600000000000136</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2800000000000011</v>
+        <v>3.4799999999999898</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="6"/>
-        <v>5.039999999999992</v>
+        <v>6.3199999999999932</v>
       </c>
       <c r="R16" s="25">
         <v>-211</v>
@@ -2452,27 +2454,27 @@
       <c r="I17" s="24"/>
       <c r="K17">
         <f t="shared" ca="1" si="7"/>
-        <v>164954.94</v>
+        <v>326111.46000000002</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0999999999999925E-2</v>
+        <v>230102</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="9"/>
-        <v>874813.64300000004</v>
+        <v>507687</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="4"/>
-        <v>230102</v>
+        <v>17954.636999999999</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="5"/>
-        <v>507687</v>
+        <v>4.0999999999999925E-2</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="6"/>
-        <v>-787828</v>
+        <v>874813.64300000004</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="25">
@@ -2512,27 +2514,27 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="7"/>
-        <v>98.6</v>
+        <v>101.6</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="8"/>
-        <v>75.5</v>
+        <v>130.5</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="4"/>
-        <v>130.5</v>
+        <v>69</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="5"/>
-        <v>135</v>
+        <v>75.5</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="R18" s="25">
         <v>-741</v>
@@ -2549,12 +2551,12 @@
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.99</v>
+      <c r="C19">
+        <v>1.05</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="1"/>
-        <v>9.9000000000000005E-2</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="E19" s="1">
         <v>5.0000000000000001E-3</v>
@@ -2564,11 +2566,11 @@
       </c>
       <c r="G19" s="26">
         <f t="shared" si="2"/>
-        <v>1576</v>
+        <v>1486</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="30">
@@ -2576,27 +2578,27 @@
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.61499999999999844</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3400000000000034</v>
+        <v>1.1550000000000011</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64999999999999858</v>
+        <v>1.4949999999999974</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1550000000000011</v>
+        <v>0.61499999999999844</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1799999999999997</v>
+        <v>1.3400000000000034</v>
       </c>
       <c r="R19" s="25">
         <v>-107</v>
@@ -2638,27 +2640,27 @@
       <c r="J20" s="30"/>
       <c r="K20">
         <f t="shared" ca="1" si="7"/>
-        <v>79.400000000000006</v>
+        <v>67.7</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="8"/>
-        <v>64.5</v>
+        <v>58</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="9"/>
-        <v>56.5</v>
+        <v>82.5</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="5"/>
-        <v>82.5</v>
+        <v>64.5</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="6"/>
-        <v>135.5</v>
+        <v>56.5</v>
       </c>
       <c r="R20" s="29">
         <v>45</v>
@@ -2700,27 +2702,27 @@
       <c r="J21" s="30"/>
       <c r="K21">
         <f t="shared" ca="1" si="7"/>
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6500000000000057</v>
+        <v>2.0999999999999943</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="9"/>
-        <v>2.8100000000000023</v>
+        <v>2.7399999999999807</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0999999999999943</v>
+        <v>3.789999999999992</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7399999999999807</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3300000000000125</v>
+        <v>2.8100000000000023</v>
       </c>
       <c r="R21" s="25">
         <v>-146</v>
@@ -2762,27 +2764,27 @@
       <c r="J22" s="30"/>
       <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0899999999999892</v>
+        <v>1.0699999999999932</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6000000000000085</v>
+        <v>1.5299999999999869</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0699999999999932</v>
+        <v>2.8399999999999892</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5299999999999869</v>
+        <v>1.0899999999999892</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6300000000000097</v>
+        <v>1.6000000000000085</v>
       </c>
       <c r="R22" s="25">
         <v>-6</v>
@@ -2826,27 +2828,27 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0599999999999996</v>
+        <v>5.01</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1999999999999886</v>
+        <v>4.5</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9500000000000171</v>
+        <v>4.3000000000000114</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5</v>
+        <v>8.0999999999999943</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3000000000000114</v>
+        <v>5.1999999999999886</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3499999999999943</v>
+        <v>2.9500000000000171</v>
       </c>
       <c r="R23" s="25">
         <v>-149</v>
@@ -2888,27 +2890,27 @@
       <c r="J24" s="30"/>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>2.54</v>
+        <v>2.95</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6400000000000006</v>
+        <v>2.0600000000000023</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3599999999999994</v>
+        <v>1.7399999999999949</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0600000000000023</v>
+        <v>3.9599999999999937</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7399999999999949</v>
+        <v>3.6400000000000006</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9000000000000057</v>
+        <v>3.3599999999999994</v>
       </c>
       <c r="R24" s="29">
         <v>23</v>
@@ -2952,27 +2954,27 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>24.44</v>
+        <v>26.2</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="8"/>
-        <v>19.799999999999955</v>
+        <v>16.5</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="9"/>
-        <v>47.799999999999955</v>
+        <v>22.599999999999909</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="4"/>
-        <v>16.5</v>
+        <v>24.299999999999955</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="5"/>
-        <v>22.599999999999909</v>
+        <v>19.799999999999955</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="6"/>
-        <v>15.5</v>
+        <v>47.799999999999955</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="29">
@@ -3012,19 +3014,19 @@
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>124.7</v>
+        <v>125.3</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>98.5</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="9"/>
-        <v>228.5</v>
+        <v>85</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="4"/>
-        <v>98.5</v>
+        <v>129.5</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="5"/>
@@ -3032,7 +3034,7 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="6"/>
-        <v>126.5</v>
+        <v>228.5</v>
       </c>
       <c r="R26" s="25">
         <v>-6</v>
@@ -3073,27 +3075,27 @@
       <c r="I27" s="24"/>
       <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>30.68</v>
+        <v>30.64</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>48.399999999999864</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>23.799999999999955</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="5"/>
-        <v>48.399999999999864</v>
+        <v>33</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="25">
@@ -3130,27 +3132,27 @@
       <c r="I28" s="24"/>
       <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>77.8</v>
+        <v>81</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R28" s="25">
         <v>-31</v>
@@ -3166,11 +3168,11 @@
         <v>70</v>
       </c>
       <c r="C29" s="22">
-        <v>11.98</v>
+        <v>13.12</v>
       </c>
       <c r="D29" s="25">
         <f>C29/10</f>
-        <v>1.198</v>
+        <v>1.3119999999999998</v>
       </c>
       <c r="E29" s="22">
         <v>0.1</v>
@@ -3180,11 +3182,11 @@
       </c>
       <c r="G29" s="26">
         <f>ROUND($C$4/(D29/E29*F29),0)</f>
-        <v>1302</v>
+        <v>1189</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="30">
@@ -3192,27 +3194,27 @@
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>11.98</v>
+        <v>13.12</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="8"/>
-        <v>9.6999999999999886</v>
+        <v>8.1999999999999886</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="9"/>
-        <v>17.5</v>
+        <v>8.8999999999999773</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1999999999999886</v>
+        <v>21.299999999999955</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8999999999999773</v>
+        <v>9.6999999999999886</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="6"/>
-        <v>15.600000000000023</v>
+        <v>17.5</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="29">
@@ -3254,27 +3256,27 @@
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>55.84</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="8"/>
-        <v>108.19999999999982</v>
+        <v>34.199999999999818</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="9"/>
-        <v>41.800000000000182</v>
+        <v>50.800000000000182</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="4"/>
-        <v>34.199999999999818</v>
+        <v>92</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="5"/>
-        <v>50.800000000000182</v>
+        <v>108.19999999999982</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="6"/>
-        <v>44.199999999999818</v>
+        <v>41.800000000000182</v>
       </c>
       <c r="R30" s="25">
         <v>-68</v>
@@ -3313,27 +3315,27 @@
       <c r="I31" s="24"/>
       <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>3.23</v>
+        <v>3.47</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1500000000000057</v>
+        <v>2.9499999999999886</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6499999999999915</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9499999999999886</v>
+        <v>3.8000000000000114</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7999999999999972</v>
+        <v>3.1500000000000057</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6000000000000085</v>
+        <v>4.6499999999999915</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3373,27 +3375,27 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>6.53</v>
+        <v>6.96</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="8"/>
-        <v>4.4499999999999886</v>
+        <v>7.5</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="9"/>
-        <v>10.450000000000045</v>
+        <v>5.6000000000000227</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5</v>
+        <v>6.8000000000000114</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6000000000000227</v>
+        <v>4.4499999999999886</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6499999999999773</v>
+        <v>10.450000000000045</v>
       </c>
       <c r="R32" s="29">
         <v>342</v>
@@ -3437,27 +3439,27 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="7"/>
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.91000000000000369</v>
+        <v>0.88499999999999801</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0200000000000031</v>
+        <v>1.2199999999999989</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88499999999999801</v>
+        <v>0.875</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2199999999999989</v>
+        <v>0.91000000000000369</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78499999999999659</v>
+        <v>1.0200000000000031</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="25">
@@ -3495,27 +3497,27 @@
       <c r="J34" s="30"/>
       <c r="K34">
         <f t="shared" ca="1" si="7"/>
-        <v>2.58</v>
+        <v>3.09</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5</v>
+        <v>2.9800000000000182</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3799999999999955</v>
+        <v>2.0499999999999545</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9800000000000182</v>
+        <v>4.5399999999999636</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0499999999999545</v>
+        <v>2.5</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9800000000000182</v>
+        <v>3.3799999999999955</v>
       </c>
       <c r="R34" s="29">
         <v>32</v>
@@ -3559,27 +3561,27 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>27.88</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="8"/>
-        <v>17.799999999999955</v>
+        <v>35.600000000000023</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="9"/>
-        <v>24.799999999999955</v>
+        <v>34.799999999999955</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="4"/>
-        <v>35.600000000000023</v>
+        <v>26.399999999999977</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="5"/>
-        <v>34.799999999999955</v>
+        <v>17.799999999999955</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="6"/>
-        <v>132</v>
+        <v>24.799999999999955</v>
       </c>
       <c r="R35" s="25">
         <v>-89</v>
@@ -3618,27 +3620,27 @@
       <c r="I36" s="24"/>
       <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>69761.77</v>
+        <v>95328.77</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="8"/>
-        <v>76702</v>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="9"/>
-        <v>2.100000000000013E-2</v>
+        <v>3.2999999999999918E-2</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8000000000000016E-2</v>
+        <v>399941.766</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2999999999999918E-2</v>
+        <v>76702</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="6"/>
-        <v>272106.75400000002</v>
+        <v>2.100000000000013E-2</v>
       </c>
       <c r="R36" s="29">
         <v>71</v>
@@ -3675,27 +3677,27 @@
       <c r="I37" s="24"/>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>7.69</v>
+        <v>7.49</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="8"/>
-        <v>5.8999999999999773</v>
+        <v>6.6999999999999886</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5500000000000114</v>
+        <v>10.349999999999966</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6999999999999886</v>
+        <v>5.9499999999999886</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="5"/>
-        <v>10.349999999999966</v>
+        <v>5.8999999999999773</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9499999999999886</v>
+        <v>8.5500000000000114</v>
       </c>
       <c r="R37" s="25">
         <v>-9</v>
@@ -3737,27 +3739,27 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>33.840000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>15.799999999999955</v>
+        <v>31</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>24.399999999999977</v>
+        <v>56.799999999999955</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="5"/>
-        <v>56.799999999999955</v>
+        <v>15.799999999999955</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="6"/>
-        <v>41.199999999999932</v>
+        <v>24.399999999999977</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -3794,27 +3796,27 @@
       <c r="I39" s="24"/>
       <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30999999999999872</v>
+        <v>0.45000000000000284</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.49499999999999744</v>
+        <v>0.375</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45000000000000284</v>
+        <v>0.2900000000000027</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.375</v>
+        <v>0.30999999999999872</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30000000000000071</v>
+        <v>0.49499999999999744</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3845,27 +3847,27 @@
       <c r="I40" s="24"/>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="8"/>
-        <v>0.64999999999999858</v>
+        <v>0.89000000000000057</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>0.79999999999999716</v>
+        <v>1.0499999999999972</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89000000000000057</v>
+        <v>0.82999999999999829</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0499999999999972</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0649999999999977</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="R40" s="25">
         <v>-18</v>
@@ -3906,27 +3908,27 @@
       <c r="I41" s="24"/>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>10.52</v>
+        <v>10.7</v>
       </c>
       <c r="L41">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>12.399999999999977</v>
+        <v>11.700000000000045</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="9"/>
-        <v>10.200000000000045</v>
+        <v>9.8999999999999773</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="4"/>
-        <v>11.700000000000045</v>
+        <v>9.2999999999999545</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8999999999999773</v>
+        <v>12.399999999999977</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3999999999999773</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="R41" s="25">
         <v>-114</v>
@@ -3965,27 +3967,27 @@
       <c r="I42" s="24"/>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1600000000000108</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3999999999999915</v>
+        <v>0.88000000000000966</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5999999999999943</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88000000000000966</v>
+        <v>1.1600000000000108</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4000000000000057</v>
+        <v>1.3999999999999915</v>
       </c>
       <c r="R42" s="29">
         <v>7</v>
@@ -4024,27 +4026,27 @@
       <c r="I43" s="24"/>
       <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>19.68</v>
+        <v>21.32</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="8"/>
-        <v>11.200000000000045</v>
+        <v>23.200000000000045</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="9"/>
-        <v>23.400000000000091</v>
+        <v>18.200000000000045</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="4"/>
-        <v>23.200000000000045</v>
+        <v>30.599999999999909</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="5"/>
-        <v>18.200000000000045</v>
+        <v>11.200000000000045</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="6"/>
-        <v>22.399999999999864</v>
+        <v>23.400000000000091</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="25">
@@ -4086,27 +4088,27 @@
       </c>
       <c r="K44">
         <f ca="1">ROUND(AVERAGE(L44:P44),4)</f>
-        <v>2.92E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2399999999999975E-2</v>
+        <v>2.0199999999999996E-2</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1000000000000028E-2</v>
+        <v>3.1499999999999972E-2</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0199999999999996E-2</v>
+        <v>1.8400000000000083E-2</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1499999999999972E-2</v>
+        <v>2.2399999999999975E-2</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0999999999999925E-2</v>
+        <v>3.1000000000000028E-2</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="22"/>
@@ -4144,27 +4146,27 @@
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="7"/>
-        <v>7.69</v>
+        <v>7.89</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6500000000000341</v>
+        <v>16.800000000000011</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8000000000000114</v>
+        <v>4.8499999999999659</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="4"/>
-        <v>16.800000000000011</v>
+        <v>6.3499999999999659</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8499999999999659</v>
+        <v>3.6500000000000341</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3499999999999659</v>
+        <v>7.8000000000000114</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="29">
@@ -4181,11 +4183,11 @@
         <v>59</v>
       </c>
       <c r="C46" s="22">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
       <c r="D46" s="25">
         <f>C46/10</f>
-        <v>0.26100000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E46" s="22">
         <v>5.0000000000000001E-3</v>
@@ -4195,39 +4197,39 @@
       </c>
       <c r="G46" s="26">
         <f t="shared" si="15"/>
-        <v>5977</v>
+        <v>5756</v>
       </c>
       <c r="H46" s="22">
         <f>ROUND(D46/E46,0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="30">
-        <v>46057</v>
+        <v>46069</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="7"/>
-        <v>2.41</v>
+        <v>2.71</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98999999999999488</v>
+        <v>1.7299999999999898</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="9"/>
-        <v>3.5649999999999977</v>
+        <v>3.1499999999999915</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7299999999999898</v>
+        <v>4.125</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1499999999999915</v>
+        <v>0.98999999999999488</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5949999999999989</v>
+        <v>3.5649999999999977</v>
       </c>
       <c r="R46" s="29">
         <v>19</v>
@@ -4269,27 +4271,27 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>38.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>33.5</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -4301,11 +4303,11 @@
         <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>92.8</v>
+        <v>120.3</v>
       </c>
       <c r="D48" s="25">
         <f t="shared" ref="D48:D51" si="17">C48/10</f>
-        <v>9.2799999999999994</v>
+        <v>12.03</v>
       </c>
       <c r="E48" s="1">
         <v>0.5</v>
@@ -4315,39 +4317,39 @@
       </c>
       <c r="G48" s="26">
         <f t="shared" ref="G48:G51" si="18">ROUND($C$4/(D48/E48*F48),0)</f>
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="H48" s="22">
         <f t="shared" ref="H48:H51" si="19">ROUND(D48/E48,0)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="30">
-        <v>46063</v>
+        <v>46069</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>106.3</v>
+        <v>120.3</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="9"/>
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>140.5</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="6"/>
-        <v>70.5</v>
+        <v>190</v>
       </c>
       <c r="R48" s="1">
         <v>-97</v>
@@ -4460,7 +4462,7 @@
       <c r="I51" s="24"/>
       <c r="M51">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>794</v>
+        <v>932</v>
       </c>
       <c r="R51" s="29">
         <v>459</v>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>Депозит</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>FEES</t>
+  </si>
+  <si>
+    <t>BSPB</t>
   </si>
 </sst>
 </file>
@@ -1758,11 +1761,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U51"/>
+  <dimension ref="A3:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,23 +1800,23 @@
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L6" s="5" t="str">
         <f ca="1">TEXT(L7,"ддд")</f>
-        <v>Вт</v>
+        <v>Пн</v>
       </c>
       <c r="M6" s="5" t="str">
         <f ca="1">TEXT(M7,"ддд")</f>
-        <v>Пн</v>
+        <v>Пт</v>
       </c>
       <c r="N6" s="5" t="str">
         <f t="shared" ref="N6:P6" ca="1" si="0">TEXT(N7,"ддд")</f>
-        <v>Пт</v>
+        <v>Чт</v>
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Чт</v>
+        <v>Ср</v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Ср</v>
+        <v>Вт</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1846,24 +1849,24 @@
         <v>79</v>
       </c>
       <c r="L7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-1, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-16</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-4, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-13</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-5, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-12</v>
+      </c>
+      <c r="O7" s="1" t="str">
         <f ca="1">TEXT(TODAY()-6, "ГГГГ-ММ-ДД")</f>
+        <v>2026-02-11</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f ca="1">TEXT(TODAY()-7, "ГГГГ-ММ-ДД")</f>
         <v>2026-02-10</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-7, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-09</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-3, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-13</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-4, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-12</v>
-      </c>
-      <c r="P7" s="1" t="str">
-        <f ca="1">TEXT(TODAY()-5, "ГГГГ-ММ-ДД")</f>
-        <v>2026-02-11</v>
       </c>
       <c r="R7" s="28">
         <v>45566</v>
@@ -1886,7 +1889,7 @@
         <v>0.35</v>
       </c>
       <c r="D8" s="25">
-        <f t="shared" ref="D8:D26" si="1">C8/10</f>
+        <f t="shared" ref="D8:D27" si="1">C8/10</f>
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="E8" s="22">
@@ -1896,11 +1899,11 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="26">
-        <f t="shared" ref="G8:G26" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
+        <f t="shared" ref="G8:G27" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
         <v>446</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" ref="H8:H17" si="3">ROUND(D8/E8,0)</f>
+        <f t="shared" ref="H8:H18" si="3">ROUND(D8/E8,0)</f>
         <v>35</v>
       </c>
       <c r="I8" s="23"/>
@@ -1909,27 +1912,27 @@
       </c>
       <c r="K8">
         <f ca="1">ROUND(AVERAGE(L8:P8),2)</f>
-        <v>42.62</v>
+        <v>42.63</v>
       </c>
       <c r="L8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.34899999999999842</v>
+        <v>0.2580000000000009</v>
       </c>
       <c r="M8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.22100000000000009</v>
+        <v>212</v>
       </c>
       <c r="N8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>212</v>
+        <v>0.18299999999999983</v>
       </c>
       <c r="O8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.18299999999999983</v>
+        <v>0.34799999999999898</v>
       </c>
       <c r="P8">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B8&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.34799999999999898</v>
+        <v>0.34899999999999842</v>
       </c>
       <c r="R8" s="29">
         <v>54</v>
@@ -1973,27 +1976,27 @@
       </c>
       <c r="K9">
         <f ca="1">ROUND(AVERAGE(L9:P9),2)</f>
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="L9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.1000000000000014</v>
+        <v>1.2899999999999991</v>
       </c>
       <c r="M9">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.86000000000000654</v>
+        <v>0.99000000000000199</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N48" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.99000000000000199</v>
+        <f t="shared" ref="N9:N49" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>0.72999999999999687</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:O48" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.72999999999999687</v>
+        <f t="shared" ref="O9:O49" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>1.2600000000000051</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P48" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>1.2600000000000051</v>
+        <f t="shared" ref="P9:P49" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>1.1000000000000014</v>
       </c>
       <c r="R9" s="25">
         <v>-30</v>
@@ -2034,27 +2037,27 @@
       <c r="I10" s="24"/>
       <c r="K10">
         <f ca="1">ROUND(AVERAGE(L10:P10),2)</f>
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.85999999999999943</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="M10">
         <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B10&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>0.57000000000000028</v>
+        <v>0.92999999999999972</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92999999999999972</v>
+        <v>0.83999999999999631</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83999999999999631</v>
+        <v>0.99000000000000199</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.99000000000000199</v>
+        <v>0.85999999999999943</v>
       </c>
       <c r="R10" s="29">
         <v>39</v>
@@ -2068,2412 +2071,2470 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="22">
+        <v>8.77</v>
+      </c>
+      <c r="D11" s="25">
+        <f>C11/10</f>
+        <v>0.877</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="26">
+        <f>ROUND($C$4/(D11/E11*F11),0)</f>
+        <v>178</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="30">
+        <v>46070</v>
+      </c>
+      <c r="K11">
+        <f ca="1">ROUND(AVERAGE(L11:P11),2)</f>
+        <v>8.77</v>
+      </c>
+      <c r="L11">
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>19.970000000000027</v>
+      </c>
+      <c r="M11">
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>6.4199999999999591</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9700000000000273</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.4800000000000182</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>50</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D12" s="25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>0.2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>0.2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G12" s="26">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="K11">
-        <f t="shared" ref="K11:K48" ca="1" si="7">ROUND(AVERAGE(L11:P11),2)</f>
-        <v>22.84</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ref="L11:L48" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+      <c r="I12" s="23"/>
+      <c r="K12">
+        <f t="shared" ref="K12:K49" ca="1" si="7">ROUND(AVERAGE(L12:P12),2)</f>
+        <v>24.2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L49" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M49" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>30.399999999999977</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.799999999999955</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="5"/>
+        <v>28.799999999999955</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="6"/>
         <v>16</v>
       </c>
-      <c r="M11">
-        <f t="shared" ref="M11:M48" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B11&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>17.200000000000045</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="4"/>
-        <v>30.399999999999977</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="5"/>
-        <v>21.799999999999955</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ca="1" si="6"/>
-        <v>28.799999999999955</v>
-      </c>
-      <c r="R11" s="29">
+      <c r="R12" s="29">
         <v>80</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S12" s="25">
         <v>-6</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T12" s="29">
         <v>12</v>
       </c>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C13" s="22">
         <v>3.22</v>
       </c>
-      <c r="D12" s="25">
-        <f t="shared" ref="D12:D18" si="10">C12/10</f>
+      <c r="D13" s="25">
+        <f t="shared" ref="D13:D19" si="10">C13/10</f>
         <v>0.32200000000000001</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E13" s="22">
         <v>0.01</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F13" s="22">
         <v>0.1</v>
       </c>
-      <c r="G12" s="26">
-        <f t="shared" ref="G12:G18" si="11">ROUND($C$4/(D12/E12*F12),0)</f>
+      <c r="G13" s="26">
+        <f t="shared" ref="G13:G19" si="11">ROUND($C$4/(D13/E13*F13),0)</f>
         <v>484</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H13" s="22">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="K12">
+      <c r="I13" s="24"/>
+      <c r="K13">
         <f t="shared" ca="1" si="7"/>
-        <v>1.71</v>
-      </c>
-      <c r="L12">
+        <v>1.83</v>
+      </c>
+      <c r="L13">
         <f t="shared" ca="1" si="8"/>
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.5100000000000051</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2099999999999937</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.5799999999999983</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="6"/>
         <v>1.8099999999999881</v>
       </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4399999999999977</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5100000000000051</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.2099999999999937</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.5799999999999983</v>
-      </c>
-      <c r="R12" s="29">
+      <c r="R13" s="29">
         <v>27</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S13" s="25">
         <v>-172</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C14" s="22">
         <v>5.4</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D14" s="25">
         <f t="shared" si="10"/>
         <v>0.54</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E14" s="22">
         <v>0.05</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="22">
         <v>0.05</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G14" s="26">
         <f t="shared" si="11"/>
         <v>2889</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="K13">
+      <c r="I14" s="23"/>
+      <c r="K14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.44</v>
-      </c>
-      <c r="L13">
+        <v>3.62</v>
+      </c>
+      <c r="L14">
         <f t="shared" ca="1" si="8"/>
+        <v>3.5500000000000114</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="6"/>
         <v>5.8499999999999943</v>
       </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.6500000000000057</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.4000000000000057</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8000000000000114</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C15" s="22">
         <v>1.8</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D15" s="25">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E15" s="22">
         <v>0.01</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F15" s="22">
         <v>0.1</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G15" s="26">
         <f t="shared" si="11"/>
         <v>867</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H15" s="22">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="30">
+      <c r="I15" s="24"/>
+      <c r="J15" s="30">
         <v>46058</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <f t="shared" ca="1" si="7"/>
         <v>2.16</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <f t="shared" ca="1" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.9699999999999989</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5699999999999932</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="6"/>
         <v>1.8700000000000045</v>
       </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.480000000000004</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.9699999999999989</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.5699999999999932</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.9000000000000057</v>
-      </c>
-      <c r="R14" s="25">
+      <c r="R15" s="25">
         <v>-2</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S15" s="25">
         <v>-117</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T15" s="29">
         <v>88</v>
       </c>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C16" s="22">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D16" s="25">
         <f t="shared" si="10"/>
         <v>1.8600000000000002E-4</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E16" s="22">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="22">
         <v>0.2</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G16" s="26">
         <f t="shared" si="11"/>
         <v>839</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H16" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="30">
+      <c r="I16" s="24"/>
+      <c r="J16" s="30">
         <v>46062</v>
       </c>
-      <c r="K15">
-        <f ca="1">ROUND(AVERAGE(L15:P15),5)</f>
-        <v>2.3500000000000001E-3</v>
-      </c>
-      <c r="L15">
+      <c r="K16">
+        <f ca="1">ROUND(AVERAGE(L16:P16),5)</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="L16">
         <f t="shared" ca="1" si="8"/>
+        <v>1.7400000000000054E-3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.2599999999999981E-3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8200000000000022E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4799999999999952E-3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="6"/>
         <v>2.1800000000000014E-3</v>
       </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.0199999999999958E-3</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.2599999999999981E-3</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.8200000000000022E-3</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.4799999999999952E-3</v>
-      </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C17" s="22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D17" s="25">
         <f t="shared" si="10"/>
         <v>0.44000000000000006</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E17" s="22">
         <v>0.02</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="22">
         <v>0.2</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G17" s="26">
         <f t="shared" si="11"/>
         <v>355</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H17" s="22">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="30">
+      <c r="I17" s="24"/>
+      <c r="J17" s="30">
         <v>46058</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <f t="shared" ca="1" si="7"/>
-        <v>4.42</v>
-      </c>
-      <c r="L16">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="L17">
         <f t="shared" ca="1" si="8"/>
+        <v>4.4200000000000159</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.8600000000000136</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4799999999999898</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.3199999999999932</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="6"/>
         <v>2.1599999999999966</v>
       </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.2800000000000011</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8600000000000136</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.4799999999999898</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.3199999999999932</v>
-      </c>
-      <c r="R16" s="25">
+      <c r="R17" s="25">
         <v>-211</v>
       </c>
-      <c r="S16" s="25">
+      <c r="S17" s="25">
         <v>-701</v>
       </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C18" s="22">
         <v>7.85E-2</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D18" s="25">
         <f t="shared" si="10"/>
         <v>7.8499999999999993E-3</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E18" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="22">
         <v>0.05</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G18" s="26">
         <f t="shared" si="11"/>
         <v>1987</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H18" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="K17">
+      <c r="I18" s="24"/>
+      <c r="K18">
         <f t="shared" ca="1" si="7"/>
-        <v>326111.46000000002</v>
-      </c>
-      <c r="L17">
+        <v>303466.46000000002</v>
+      </c>
+      <c r="L18">
         <f t="shared" ca="1" si="8"/>
+        <v>394462</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="9"/>
+        <v>17954.636999999999</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0999999999999925E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="5"/>
+        <v>874813.64300000004</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="6"/>
         <v>230102</v>
       </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="9"/>
-        <v>507687</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="4"/>
-        <v>17954.636999999999</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999925E-2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="6"/>
-        <v>874813.64300000004</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="25">
+      <c r="R18" s="1"/>
+      <c r="S18" s="25">
         <v>-488</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C19" s="22">
         <v>98.6</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D19" s="25">
         <f t="shared" si="10"/>
         <v>9.86</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E19" s="22">
         <v>0.5</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F19" s="22">
         <v>0.5</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G19" s="26">
         <f t="shared" si="11"/>
         <v>158</v>
       </c>
-      <c r="H18" s="22">
-        <f t="shared" ref="H18:H42" si="12">ROUND(D18/E18,0)</f>
+      <c r="H19" s="22">
+        <f t="shared" ref="H19:H43" si="12">ROUND(D19/E19,0)</f>
         <v>20</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="30">
+      <c r="I19" s="24"/>
+      <c r="J19" s="30">
         <v>46066</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <f t="shared" ca="1" si="7"/>
-        <v>101.6</v>
-      </c>
-      <c r="L18">
+        <v>86.3</v>
+      </c>
+      <c r="L19">
         <f t="shared" ca="1" si="8"/>
+        <v>58.5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="4"/>
+        <v>75.5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="6"/>
         <v>130.5</v>
       </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="9"/>
-        <v>135</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="5"/>
-        <v>75.5</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="R18" s="25">
+      <c r="R19" s="25">
         <v>-741</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S19" s="25">
         <v>-475</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T19" s="29">
         <v>34</v>
       </c>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>1.05</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D20" s="25">
         <f t="shared" si="1"/>
         <v>0.10500000000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>0.05</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G20" s="26">
         <f t="shared" si="2"/>
         <v>1486</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H20" s="22">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="30">
+      <c r="I20" s="23"/>
+      <c r="J20" s="30">
         <v>46063</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <f t="shared" ca="1" si="7"/>
-        <v>1.05</v>
-      </c>
-      <c r="L19">
+        <v>0.99</v>
+      </c>
+      <c r="L20">
         <f t="shared" ca="1" si="8"/>
+        <v>0.85999999999999943</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.4949999999999974</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.61499999999999844</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3400000000000034</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="6"/>
         <v>0.64999999999999858</v>
       </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.1550000000000011</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.4949999999999974</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.61499999999999844</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.3400000000000034</v>
-      </c>
-      <c r="R19" s="25">
+      <c r="R20" s="25">
         <v>-107</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S20" s="25">
         <v>-169</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T20" s="29">
         <v>24</v>
       </c>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>150</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D21" s="25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>0.5</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>0.5</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G21" s="26">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H21" s="22">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="30"/>
-      <c r="K20">
-        <f t="shared" ca="1" si="7"/>
-        <v>67.7</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="9"/>
-        <v>82.5</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="5"/>
-        <v>64.5</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="6"/>
-        <v>56.5</v>
-      </c>
-      <c r="R20" s="29">
-        <v>45</v>
-      </c>
-      <c r="S20" s="29">
-        <v>10</v>
-      </c>
-      <c r="T20" s="29">
-        <v>44</v>
-      </c>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="22">
-        <v>5.7</v>
-      </c>
-      <c r="D21" s="25">
-        <f>C21/10</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="26">
-        <f>ROUND($C$4/(D21/E21*F21),0)</f>
-        <v>274</v>
-      </c>
-      <c r="H21" s="22">
-        <f t="shared" si="12"/>
-        <v>57</v>
-      </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="30"/>
       <c r="K21">
         <f t="shared" ca="1" si="7"/>
-        <v>2.82</v>
+        <v>76.3</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0999999999999943</v>
+        <v>125.5</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7399999999999807</v>
+        <v>77</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="4"/>
-        <v>3.789999999999992</v>
+        <v>64.5</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6500000000000057</v>
+        <v>56.5</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8100000000000023</v>
-      </c>
-      <c r="R21" s="25">
-        <v>-146</v>
-      </c>
-      <c r="S21" s="25">
-        <v>-28</v>
+        <v>58</v>
+      </c>
+      <c r="R21" s="29">
+        <v>45</v>
+      </c>
+      <c r="S21" s="29">
+        <v>10</v>
       </c>
       <c r="T21" s="29">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C22" s="22">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="D22" s="25">
-        <f t="shared" si="1"/>
-        <v>0.65</v>
+        <f>C22/10</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="E22" s="22">
         <v>0.01</v>
       </c>
       <c r="F22" s="22">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" si="2"/>
-        <v>2400</v>
+        <f>ROUND($C$4/(D22/E22*F22),0)</f>
+        <v>274</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="12"/>
-        <v>65</v>
-      </c>
-      <c r="I22" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="I22" s="24"/>
       <c r="J22" s="30"/>
       <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>1.63</v>
+        <v>3.17</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0699999999999932</v>
+        <v>4.4799999999999898</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5299999999999869</v>
+        <v>3.789999999999992</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8399999999999892</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0899999999999892</v>
+        <v>2.8100000000000023</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6000000000000085</v>
+        <v>2.0999999999999943</v>
       </c>
       <c r="R22" s="25">
-        <v>-6</v>
-      </c>
-      <c r="S22" s="29">
-        <v>142</v>
+        <v>-146</v>
+      </c>
+      <c r="S22" s="25">
+        <v>-28</v>
       </c>
       <c r="T22" s="29">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4.1900000000000004</v>
+      <c r="B23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="22">
+        <v>6.5</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="1"/>
-        <v>0.41900000000000004</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.5</v>
+        <v>0.65</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0.01</v>
       </c>
       <c r="G23" s="26">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>2400</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I23" s="23"/>
-      <c r="J23" s="30">
-        <v>46063</v>
-      </c>
+      <c r="J23" s="30"/>
       <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>5.01</v>
+        <v>1.74</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5</v>
+        <v>2.0900000000000034</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3000000000000114</v>
+        <v>2.8399999999999892</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0999999999999943</v>
+        <v>1.0899999999999892</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1999999999999886</v>
+        <v>1.6000000000000085</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9500000000000171</v>
+        <v>1.0699999999999932</v>
       </c>
       <c r="R23" s="25">
-        <v>-149</v>
+        <v>-6</v>
       </c>
       <c r="S23" s="29">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="T23" s="29">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.41900000000000004</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F24" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="26">
         <f t="shared" si="2"/>
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I24" s="23"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="30">
+        <v>46063</v>
+      </c>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>2.95</v>
+        <v>5.26</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0600000000000023</v>
+        <v>5.5500000000000114</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7399999999999949</v>
+        <v>8.0999999999999943</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9599999999999937</v>
+        <v>5.1999999999999886</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6400000000000006</v>
+        <v>2.9500000000000171</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3599999999999994</v>
-      </c>
-      <c r="R24" s="29">
-        <v>23</v>
+        <v>4.5</v>
+      </c>
+      <c r="R24" s="25">
+        <v>-149</v>
       </c>
       <c r="S24" s="29">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="T24" s="29">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="22">
-        <v>22.54</v>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
       </c>
       <c r="D25" s="25">
-        <f>C25/10</f>
-        <v>2.254</v>
-      </c>
-      <c r="E25" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.2</v>
       </c>
       <c r="G25" s="26">
-        <f>ROUND($C$4/(D25/E25*F25),0)</f>
-        <v>692</v>
+        <f t="shared" si="2"/>
+        <v>390</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="30">
-        <v>46062</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="30"/>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>26.2</v>
+        <v>3.06</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="8"/>
-        <v>16.5</v>
+        <v>2.2800000000000011</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="9"/>
-        <v>22.599999999999909</v>
+        <v>3.9599999999999937</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="4"/>
-        <v>24.299999999999955</v>
+        <v>3.6400000000000006</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="5"/>
-        <v>19.799999999999955</v>
+        <v>3.3599999999999994</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="6"/>
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="R25" s="29">
+        <v>23</v>
+      </c>
+      <c r="S25" s="29">
+        <v>241</v>
+      </c>
+      <c r="T25" s="29">
+        <v>13</v>
+      </c>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="22">
+        <v>22.54</v>
+      </c>
+      <c r="D26" s="25">
+        <f>C26/10</f>
+        <v>2.254</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="26">
+        <f>ROUND($C$4/(D26/E26*F26),0)</f>
+        <v>692</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="30">
+        <v>46062</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="7"/>
+        <v>26.6</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.599999999999909</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.299999999999955</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.799999999999955</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="5"/>
         <v>47.799999999999955</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="29">
+      <c r="P26">
+        <f t="shared" ca="1" si="6"/>
+        <v>16.5</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="29">
         <v>55</v>
       </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>125.5</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D27" s="25">
         <f t="shared" si="1"/>
         <v>12.55</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>0.5</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>0.5</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G27" s="26">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H27" s="22">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="30">
+      <c r="I27" s="23"/>
+      <c r="J27" s="30">
         <v>46058</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>125.3</v>
-      </c>
-      <c r="L26">
+        <v>120.7</v>
+      </c>
+      <c r="L27">
         <f t="shared" ca="1" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="9"/>
+        <v>129.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="5"/>
+        <v>228.5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ca="1" si="6"/>
         <v>98.5</v>
       </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="9"/>
-        <v>85</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="4"/>
-        <v>129.5</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ca="1" si="6"/>
-        <v>228.5</v>
-      </c>
-      <c r="R26" s="25">
+      <c r="R27" s="25">
         <v>-6</v>
       </c>
-      <c r="S26" s="25">
+      <c r="S27" s="25">
         <v>-340</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T27" s="29">
         <v>22</v>
       </c>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C28" s="22">
         <v>140</v>
       </c>
-      <c r="D27" s="25">
-        <f>C27/10</f>
+      <c r="D28" s="25">
+        <f>C28/10</f>
         <v>14</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E28" s="22">
         <v>0.2</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F28" s="22">
         <v>0.2</v>
       </c>
-      <c r="G27" s="26">
-        <f>ROUND($C$4/(D27/E27*F27),0)</f>
+      <c r="G28" s="26">
+        <f>ROUND($C$4/(D28/E28*F28),0)</f>
         <v>111</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H28" s="22">
         <f t="shared" si="12"/>
         <v>70</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="K27">
-        <f t="shared" ca="1" si="7"/>
-        <v>30.64</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="9"/>
-        <v>48.399999999999864</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.799999999999955</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="P27">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="25">
-        <v>-426</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="22">
-        <v>112</v>
-      </c>
-      <c r="D28" s="25">
-        <f t="shared" ref="D28:D41" si="13">C28/10</f>
-        <v>11.2</v>
-      </c>
-      <c r="E28" s="22">
-        <v>1</v>
-      </c>
-      <c r="F28" s="22">
-        <v>1</v>
-      </c>
-      <c r="G28" s="26">
-        <f t="shared" ref="G28:G41" si="14">ROUND($C$4/(D28/E28*F28),0)</f>
-        <v>139</v>
-      </c>
-      <c r="H28" s="22">
-        <f t="shared" si="12"/>
-        <v>11</v>
       </c>
       <c r="I28" s="24"/>
       <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>26.56</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>23.799999999999955</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="R28" s="25">
-        <v>-31</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="29">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="25">
+        <v>-426</v>
+      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C29" s="22">
-        <v>13.12</v>
+        <v>112</v>
       </c>
       <c r="D29" s="25">
-        <f>C29/10</f>
-        <v>1.3119999999999998</v>
+        <f t="shared" ref="D29:D42" si="13">C29/10</f>
+        <v>11.2</v>
       </c>
       <c r="E29" s="22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F29" s="22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G29" s="26">
-        <f>ROUND($C$4/(D29/E29*F29),0)</f>
-        <v>1189</v>
+        <f t="shared" ref="G29:G42" si="14">ROUND($C$4/(D29/E29*F29),0)</f>
+        <v>139</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" s="24"/>
-      <c r="J29" s="30">
-        <v>46066</v>
-      </c>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>13.12</v>
+        <v>87.2</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1999999999999886</v>
+        <v>95</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8999999999999773</v>
+        <v>95</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="4"/>
-        <v>21.299999999999955</v>
+        <v>81</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6999999999999886</v>
+        <v>80</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="6"/>
-        <v>17.5</v>
-      </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="29">
-        <v>61</v>
-      </c>
-      <c r="T29" s="25">
-        <v>-11</v>
+        <v>85</v>
+      </c>
+      <c r="R29" s="25">
+        <v>-31</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="29">
+        <v>35</v>
       </c>
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="22">
+        <v>13.12</v>
+      </c>
+      <c r="D30" s="25">
+        <f>C30/10</f>
+        <v>1.3119999999999998</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="26">
+        <f>ROUND($C$4/(D30/E30*F30),0)</f>
+        <v>1189</v>
+      </c>
+      <c r="H30" s="22">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="30">
+        <v>46066</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="7"/>
+        <v>13.04</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="9"/>
+        <v>21.299999999999955</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1999999999999886</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="29">
+        <v>61</v>
+      </c>
+      <c r="T30" s="25">
+        <v>-11</v>
+      </c>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C31" s="22">
         <v>57.2</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D31" s="25">
         <f t="shared" si="13"/>
         <v>5.7200000000000006</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E31" s="22">
         <v>0.2</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F31" s="22">
         <v>0.2</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G31" s="26">
         <f t="shared" si="14"/>
         <v>273</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H31" s="22">
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="30">
+      <c r="I31" s="24"/>
+      <c r="J31" s="30">
         <v>46063</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>65.400000000000006</v>
-      </c>
-      <c r="L30">
+        <v>70.44</v>
+      </c>
+      <c r="L31">
         <f t="shared" ca="1" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.19999999999982</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="5"/>
+        <v>41.800000000000182</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="6"/>
         <v>34.199999999999818</v>
       </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="9"/>
-        <v>50.800000000000182</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="4"/>
-        <v>92</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="5"/>
-        <v>108.19999999999982</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ca="1" si="6"/>
-        <v>41.800000000000182</v>
-      </c>
-      <c r="R30" s="25">
+      <c r="R31" s="25">
         <v>-68</v>
       </c>
-      <c r="S30" s="25">
+      <c r="S31" s="25">
         <v>-291</v>
       </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C32" s="22">
         <v>10</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D32" s="25">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E32" s="22">
         <v>0.05</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="22">
         <v>0.05</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G32" s="26">
         <f t="shared" si="14"/>
         <v>1560</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H32" s="22">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="K31">
+      <c r="I32" s="24"/>
+      <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>3.47</v>
-      </c>
-      <c r="L31">
+        <v>3.35</v>
+      </c>
+      <c r="L32">
         <f t="shared" ca="1" si="8"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.6499999999999915</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ca="1" si="6"/>
         <v>2.9499999999999886</v>
       </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.7999999999999972</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8000000000000114</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1500000000000057</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.6499999999999915</v>
-      </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="29">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="29">
         <v>33</v>
       </c>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C33" s="22">
         <v>6.34</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D33" s="25">
         <f t="shared" si="13"/>
         <v>0.63400000000000001</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E33" s="22">
         <v>0.05</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="22">
         <v>0.05</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G33" s="26">
         <f t="shared" si="14"/>
         <v>2461</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H33" s="22">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="30">
+      <c r="I33" s="23"/>
+      <c r="J33" s="30">
         <v>46062</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <f t="shared" ca="1" si="7"/>
-        <v>6.96</v>
-      </c>
-      <c r="L32">
+        <v>6.62</v>
+      </c>
+      <c r="L33">
         <f t="shared" ca="1" si="8"/>
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.8000000000000114</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4499999999999886</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="5"/>
+        <v>10.450000000000045</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ca="1" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.6000000000000227</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8000000000000114</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.4499999999999886</v>
-      </c>
-      <c r="P32">
-        <f t="shared" ca="1" si="6"/>
-        <v>10.450000000000045</v>
-      </c>
-      <c r="R32" s="29">
+      <c r="R33" s="29">
         <v>342</v>
       </c>
-      <c r="S32" s="25">
+      <c r="S33" s="25">
         <v>-106</v>
       </c>
-      <c r="T32" s="25">
+      <c r="T33" s="25">
         <v>-93</v>
       </c>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C34" s="22">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D33" s="25">
-        <f>C33/10</f>
+      <c r="D34" s="25">
+        <f>C34/10</f>
         <v>0.11299999999999999</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="22">
         <v>0.05</v>
       </c>
-      <c r="G33" s="26">
-        <f>ROUND($C$4/(D33/E33*F33),0)</f>
+      <c r="G34" s="26">
+        <f>ROUND($C$4/(D34/E34*F34),0)</f>
         <v>1381</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H34" s="22">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="30">
+      <c r="I34" s="24"/>
+      <c r="J34" s="30">
         <v>46062</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98</v>
-      </c>
-      <c r="L33">
+        <v>0.89</v>
+      </c>
+      <c r="L34">
         <f t="shared" ca="1" si="8"/>
+        <v>0.75500000000000256</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.91000000000000369</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0200000000000031</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ca="1" si="6"/>
         <v>0.88499999999999801</v>
       </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2199999999999989</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.875</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.91000000000000369</v>
-      </c>
-      <c r="P33">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.0200000000000031</v>
-      </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="25">
+      <c r="R34" s="1"/>
+      <c r="S34" s="25">
         <v>-143</v>
       </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C35" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D35" s="25">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E35" s="22">
         <v>0.01</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <v>0.1</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G35" s="26">
         <f t="shared" si="14"/>
         <v>260</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H35" s="22">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="30"/>
-      <c r="K34">
+      <c r="I35" s="23"/>
+      <c r="J35" s="30"/>
+      <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>3.09</v>
-      </c>
-      <c r="L34">
+        <v>3.39</v>
+      </c>
+      <c r="L35">
         <f t="shared" ca="1" si="8"/>
+        <v>3.5600000000000023</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.5399999999999636</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.3799999999999955</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ca="1" si="6"/>
         <v>2.9800000000000182</v>
       </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.0499999999999545</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5399999999999636</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="P34">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.3799999999999955</v>
-      </c>
-      <c r="R34" s="29">
+      <c r="R35" s="29">
         <v>32</v>
       </c>
-      <c r="S34" s="25">
+      <c r="S35" s="25">
         <v>-139</v>
       </c>
-      <c r="T34" s="29">
+      <c r="T35" s="29">
         <v>40</v>
       </c>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C36" s="22">
         <v>44.16</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D36" s="25">
         <f t="shared" si="13"/>
         <v>4.4159999999999995</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="22">
         <v>0.2</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="22">
         <v>0.2</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G36" s="26">
         <f t="shared" si="14"/>
         <v>353</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H36" s="22">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="30">
+      <c r="I36" s="24"/>
+      <c r="J36" s="30">
         <v>46058</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>27.88</v>
-      </c>
-      <c r="L35">
+        <v>22.6</v>
+      </c>
+      <c r="L36">
         <f t="shared" ca="1" si="8"/>
+        <v>8.3999999999999773</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.399999999999977</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.799999999999955</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.799999999999955</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ca="1" si="6"/>
         <v>35.600000000000023</v>
       </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="9"/>
-        <v>34.799999999999955</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.399999999999977</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ca="1" si="5"/>
-        <v>17.799999999999955</v>
-      </c>
-      <c r="P35">
-        <f t="shared" ca="1" si="6"/>
-        <v>24.799999999999955</v>
-      </c>
-      <c r="R35" s="25">
+      <c r="R36" s="25">
         <v>-89</v>
       </c>
-      <c r="S35" s="25">
+      <c r="S36" s="25">
         <v>-300</v>
       </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C37" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D36" s="25">
-        <f>C36/10</f>
+      <c r="D37" s="25">
+        <f>C37/10</f>
         <v>1.4000000000000002E-2</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E37" s="22">
         <v>1E-3</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F37" s="22">
         <v>0.1</v>
       </c>
-      <c r="G36" s="26">
-        <f>ROUND($C$4/(D36/E36*F36),0)</f>
+      <c r="G37" s="26">
+        <f>ROUND($C$4/(D37/E37*F37),0)</f>
         <v>1114</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H37" s="22">
         <f t="shared" si="12"/>
         <v>14</v>
-      </c>
-      <c r="I36" s="24"/>
-      <c r="K36">
-        <f t="shared" ca="1" si="7"/>
-        <v>95328.77</v>
-      </c>
-      <c r="L36">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.8000000000000016E-2</v>
-      </c>
-      <c r="M36">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.2999999999999918E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" ca="1" si="4"/>
-        <v>399941.766</v>
-      </c>
-      <c r="O36">
-        <f t="shared" ca="1" si="5"/>
-        <v>76702</v>
-      </c>
-      <c r="P36">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.100000000000013E-2</v>
-      </c>
-      <c r="R36" s="29">
-        <v>71</v>
-      </c>
-      <c r="S36" s="22"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="22">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D37" s="25">
-        <f>C37/10</f>
-        <v>1.86</v>
-      </c>
-      <c r="E37" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="G37" s="26">
-        <f>ROUND($C$4/(D37/E37*F37),0)</f>
-        <v>839</v>
-      </c>
-      <c r="H37" s="22">
-        <f t="shared" si="12"/>
-        <v>37</v>
       </c>
       <c r="I37" s="24"/>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>7.49</v>
+        <v>28489.22</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6999999999999886</v>
+        <v>-334197.69400000002</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="9"/>
-        <v>10.349999999999966</v>
+        <v>399941.766</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9499999999999886</v>
+        <v>76702</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8999999999999773</v>
+        <v>2.100000000000013E-2</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5500000000000114</v>
-      </c>
-      <c r="R37" s="25">
-        <v>-9</v>
-      </c>
-      <c r="S37" s="29">
-        <v>42</v>
-      </c>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="R37" s="29">
+        <v>71</v>
+      </c>
+      <c r="S37" s="22"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" s="22">
-        <v>45</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D38" s="25">
         <f>C38/10</f>
-        <v>4.5</v>
+        <v>1.86</v>
       </c>
       <c r="E38" s="22">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F38" s="22">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G38" s="26">
         <f>ROUND($C$4/(D38/E38*F38),0)</f>
-        <v>347</v>
+        <v>839</v>
       </c>
       <c r="H38" s="22">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I38" s="24"/>
-      <c r="J38" s="30">
-        <v>46058</v>
-      </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>34.6</v>
+        <v>8.02</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>56.799999999999955</v>
+        <v>5.9499999999999886</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>5.8999999999999773</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="5"/>
-        <v>15.799999999999955</v>
+        <v>8.5500000000000114</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="6"/>
-        <v>24.399999999999977</v>
-      </c>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="29">
-        <v>22</v>
-      </c>
+        <v>6.6999999999999886</v>
+      </c>
+      <c r="R38" s="25">
+        <v>-9</v>
+      </c>
+      <c r="S38" s="29">
+        <v>42</v>
+      </c>
+      <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>76</v>
+      <c r="B39" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C39" s="22">
-        <v>690</v>
+        <v>45</v>
       </c>
       <c r="D39" s="25">
         <f>C39/10</f>
-        <v>69</v>
+        <v>4.5</v>
       </c>
       <c r="E39" s="22">
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F39" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G39" s="26">
         <f>ROUND($C$4/(D39/E39*F39),0)</f>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="H39" s="22">
         <f t="shared" si="12"/>
-        <v>13800</v>
+        <v>23</v>
       </c>
       <c r="I39" s="24"/>
+      <c r="J39" s="30">
+        <v>46058</v>
+      </c>
       <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38</v>
+        <v>25.44</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45000000000000284</v>
+        <v>11</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.375</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2900000000000027</v>
+        <v>15.799999999999955</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30999999999999872</v>
+        <v>24.399999999999977</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49499999999999744</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="29">
+        <v>22</v>
+      </c>
+      <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
-        <v>60</v>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C40" s="22">
-        <v>1.65</v>
+        <v>690</v>
       </c>
       <c r="D40" s="25">
-        <f t="shared" si="13"/>
-        <v>0.16499999999999998</v>
+        <f>C40/10</f>
+        <v>69</v>
       </c>
       <c r="E40" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="26">
-        <f t="shared" si="14"/>
-        <v>945</v>
+        <f>ROUND($C$4/(D40/E40*F40),0)</f>
+        <v>0</v>
       </c>
       <c r="H40" s="22">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>13800</v>
       </c>
       <c r="I40" s="24"/>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="8"/>
-        <v>0.89000000000000057</v>
+        <v>0.26999999999999957</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0499999999999972</v>
+        <v>0.2900000000000027</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82999999999999829</v>
+        <v>0.30999999999999872</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64999999999999858</v>
+        <v>0.49499999999999744</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="R40" s="25">
-        <v>-18</v>
-      </c>
-      <c r="S40" s="25">
-        <v>-76</v>
-      </c>
-      <c r="T40" s="25">
-        <v>-116</v>
-      </c>
-      <c r="U40" s="1"/>
+        <v>0.45000000000000284</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" s="22">
-        <v>12</v>
+        <v>1.65</v>
       </c>
       <c r="D41" s="25">
         <f t="shared" si="13"/>
-        <v>1.2</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="E41" s="22">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G41" s="26">
         <f t="shared" si="14"/>
-        <v>1300</v>
+        <v>945</v>
       </c>
       <c r="H41" s="22">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I41" s="24"/>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>10.7</v>
+        <v>0.76</v>
       </c>
       <c r="L41">
-        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B41&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>11.700000000000045</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.64999999999999858</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8999999999999773</v>
+        <v>0.82999999999999829</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2999999999999545</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="5"/>
-        <v>12.399999999999977</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="6"/>
-        <v>10.200000000000045</v>
+        <v>0.89000000000000057</v>
       </c>
       <c r="R41" s="25">
-        <v>-114</v>
-      </c>
-      <c r="S41" s="29">
-        <v>6</v>
-      </c>
-      <c r="T41" s="1"/>
+        <v>-18</v>
+      </c>
+      <c r="S41" s="25">
+        <v>-76</v>
+      </c>
+      <c r="T41" s="25">
+        <v>-116</v>
+      </c>
       <c r="U41" s="1"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C42" s="22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D42" s="25">
-        <f>C42/10</f>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>1.2</v>
       </c>
       <c r="E42" s="22">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F42" s="22">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G42" s="26">
-        <f t="shared" ref="G42:G47" si="15">ROUND($C$4/(D42/E42*F42),0)</f>
-        <v>260</v>
+        <f t="shared" si="14"/>
+        <v>1300</v>
       </c>
       <c r="H42" s="22">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="24"/>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>1.55</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="L42">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.5999999999999943</v>
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B42&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B42&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>7</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="9"/>
-        <v>0.88000000000000966</v>
+        <v>9.2999999999999545</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7000000000000028</v>
+        <v>12.399999999999977</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1600000000000108</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3999999999999915</v>
-      </c>
-      <c r="R42" s="29">
-        <v>7</v>
-      </c>
-      <c r="S42" s="25">
-        <v>-262</v>
+        <v>11.700000000000045</v>
+      </c>
+      <c r="R42" s="25">
+        <v>-114</v>
+      </c>
+      <c r="S42" s="29">
+        <v>6</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C43" s="22">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D43" s="25">
         <f>C43/10</f>
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="E43" s="22">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F43" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G43" s="26">
-        <f t="shared" si="15"/>
-        <v>223</v>
+        <f t="shared" ref="G43:G48" si="15">ROUND($C$4/(D43/E43*F43),0)</f>
+        <v>260</v>
       </c>
       <c r="H43" s="22">
-        <f t="shared" ref="H43:H45" si="16">ROUND(D43/E43,0)</f>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="I43" s="24"/>
       <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>21.32</v>
+        <v>1.91</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="8"/>
-        <v>23.200000000000045</v>
+        <v>2.6800000000000068</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="9"/>
-        <v>18.200000000000045</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="4"/>
-        <v>30.599999999999909</v>
+        <v>1.1600000000000108</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="5"/>
-        <v>11.200000000000045</v>
+        <v>1.3999999999999915</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="6"/>
-        <v>23.400000000000091</v>
-      </c>
-      <c r="R43" s="1"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="R43" s="29">
+        <v>7</v>
+      </c>
       <c r="S43" s="25">
-        <v>-8</v>
-      </c>
-      <c r="T43" s="29">
-        <v>5</v>
-      </c>
+        <v>-262</v>
+      </c>
+      <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C44" s="22">
-        <v>5.1400000000000001E-2</v>
+        <v>70</v>
       </c>
       <c r="D44" s="25">
-        <f>ROUND(C44/10,4)</f>
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.1</v>
+        <f>C44/10</f>
+        <v>7</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0.5</v>
       </c>
       <c r="G44" s="26">
         <f t="shared" si="15"/>
+        <v>223</v>
+      </c>
+      <c r="H44" s="22">
+        <f t="shared" ref="H44:H46" si="16">ROUND(D44/E44,0)</f>
+        <v>14</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="K44">
+        <f t="shared" ca="1" si="7"/>
+        <v>22.16</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.399999999999864</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.599999999999909</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.200000000000045</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.400000000000091</v>
+      </c>
+      <c r="P44">
+        <f t="shared" ca="1" si="6"/>
+        <v>23.200000000000045</v>
+      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="25">
+        <v>-8</v>
+      </c>
+      <c r="T44" s="29">
+        <v>5</v>
+      </c>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="22">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D45" s="25">
+        <f>ROUND(C45/10,4)</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="26">
+        <f t="shared" si="15"/>
         <v>306</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H45" s="22">
         <f t="shared" si="16"/>
         <v>51</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="30">
+      <c r="I45" s="24"/>
+      <c r="J45" s="30">
         <v>46057</v>
       </c>
-      <c r="K44">
-        <f ca="1">ROUND(AVERAGE(L44:P44),4)</f>
-        <v>2.47E-2</v>
-      </c>
-      <c r="L44">
+      <c r="K45">
+        <f ca="1">ROUND(AVERAGE(L45:P45),4)</f>
+        <v>2.46E-2</v>
+      </c>
+      <c r="L45">
         <f t="shared" ca="1" si="8"/>
+        <v>3.0799999999999939E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.8400000000000083E-2</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2399999999999975E-2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1000000000000028E-2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ca="1" si="6"/>
         <v>2.0199999999999996E-2</v>
       </c>
-      <c r="M44">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.1499999999999972E-2</v>
-      </c>
-      <c r="N44">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8400000000000083E-2</v>
-      </c>
-      <c r="O44">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2399999999999975E-2</v>
-      </c>
-      <c r="P44">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1000000000000028E-2</v>
-      </c>
-      <c r="R44" s="1"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="R45" s="1"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>8.9</v>
       </c>
-      <c r="D45" s="25">
-        <f>C45/10</f>
+      <c r="D46" s="25">
+        <f>C46/10</f>
         <v>0.89</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E46" s="1">
         <v>0.05</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F46" s="1">
         <v>0.05</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G46" s="26">
         <f t="shared" si="15"/>
         <v>1753</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H46" s="22">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="30">
+      <c r="I46" s="23"/>
+      <c r="J46" s="30">
         <v>46063</v>
       </c>
-      <c r="K45">
+      <c r="K46">
         <f t="shared" ca="1" si="7"/>
-        <v>7.89</v>
-      </c>
-      <c r="L45">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="L46">
         <f t="shared" ca="1" si="8"/>
+        <v>6.8500000000000227</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.3499999999999659</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.6500000000000341</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8000000000000114</v>
+      </c>
+      <c r="P46">
+        <f t="shared" ca="1" si="6"/>
         <v>16.800000000000011</v>
       </c>
-      <c r="M45">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.8499999999999659</v>
-      </c>
-      <c r="N45">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.3499999999999659</v>
-      </c>
-      <c r="O45">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.6500000000000341</v>
-      </c>
-      <c r="P45">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8000000000000114</v>
-      </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="29">
+      <c r="R46" s="1"/>
+      <c r="S46" s="29">
         <v>24</v>
       </c>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B47" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C47" s="22">
         <v>2.71</v>
       </c>
-      <c r="D46" s="25">
-        <f>C46/10</f>
+      <c r="D47" s="25">
+        <f>C47/10</f>
         <v>0.27100000000000002</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E47" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F47" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G47" s="26">
         <f t="shared" si="15"/>
         <v>5756</v>
       </c>
-      <c r="H46" s="22">
-        <f>ROUND(D46/E46,0)</f>
+      <c r="H47" s="22">
+        <f>ROUND(D47/E47,0)</f>
         <v>54</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="30">
+      <c r="I47" s="24"/>
+      <c r="J47" s="30">
         <v>46069</v>
       </c>
-      <c r="K46">
+      <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>2.71</v>
-      </c>
-      <c r="L46">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L47">
         <f t="shared" ca="1" si="8"/>
+        <v>2.355000000000004</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.125</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.98999999999999488</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.5649999999999977</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ca="1" si="6"/>
         <v>1.7299999999999898</v>
       </c>
-      <c r="M46">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.1499999999999915</v>
-      </c>
-      <c r="N46">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.125</v>
-      </c>
-      <c r="O46">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.98999999999999488</v>
-      </c>
-      <c r="P46">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.5649999999999977</v>
-      </c>
-      <c r="R46" s="29">
+      <c r="R47" s="29">
         <v>19</v>
       </c>
-      <c r="S46" s="29">
+      <c r="S47" s="29">
         <v>122</v>
       </c>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C48" s="22">
         <v>46.6</v>
       </c>
-      <c r="D47" s="25">
-        <f>C47/10</f>
+      <c r="D48" s="25">
+        <f>C48/10</f>
         <v>4.66</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="22">
         <v>0.5</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F48" s="22">
         <v>0.5</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G48" s="26">
         <f t="shared" si="15"/>
         <v>335</v>
       </c>
-      <c r="H47" s="22">
-        <f>ROUND(D47/E47,0)</f>
+      <c r="H48" s="22">
+        <f>ROUND(D48/E48,0)</f>
         <v>9</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="30">
+      <c r="I48" s="24"/>
+      <c r="J48" s="30">
         <v>46063</v>
-      </c>
-      <c r="K47">
-        <f t="shared" ca="1" si="7"/>
-        <v>36.700000000000003</v>
-      </c>
-      <c r="L47">
-        <f t="shared" ca="1" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="M47">
-        <f t="shared" ca="1" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="N47">
-        <f t="shared" ca="1" si="4"/>
-        <v>33.5</v>
-      </c>
-      <c r="O47">
-        <f t="shared" ca="1" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="P47">
-        <f t="shared" ca="1" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="1">
-        <v>120.3</v>
-      </c>
-      <c r="D48" s="25">
-        <f t="shared" ref="D48:D51" si="17">C48/10</f>
-        <v>12.03</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="26">
-        <f t="shared" ref="G48:G51" si="18">ROUND($C$4/(D48/E48*F48),0)</f>
-        <v>130</v>
-      </c>
-      <c r="H48" s="22">
-        <f t="shared" ref="H48:H51" si="19">ROUND(D48/E48,0)</f>
-        <v>24</v>
-      </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="30">
-        <v>46069</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>120.3</v>
+        <v>41.5</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>33.5</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="4"/>
-        <v>140.5</v>
+        <v>48</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1">
+        <v>120.3</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" ref="D49:D52" si="17">C49/10</f>
+        <v>12.03</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="26">
+        <f t="shared" ref="G49:G52" si="18">ROUND($C$4/(D49/E49*F49),0)</f>
+        <v>130</v>
+      </c>
+      <c r="H49" s="22">
+        <f t="shared" ref="H49:H52" si="19">ROUND(D49/E49,0)</f>
+        <v>24</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="30">
+        <v>46069</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="7"/>
+        <v>116.3</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="9"/>
+        <v>140.5</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ca="1" si="5"/>
         <v>190</v>
       </c>
-      <c r="R48" s="1">
+      <c r="P49">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="R49" s="1">
         <v>-97</v>
       </c>
-      <c r="S48" s="25">
+      <c r="S49" s="25">
         <v>-176</v>
       </c>
-      <c r="T48" s="29">
+      <c r="T49" s="29">
         <v>11</v>
       </c>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C50" s="22">
         <v>60</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D50" s="25">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>0.05</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>0.5</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G50" s="26">
         <f t="shared" si="18"/>
         <v>26</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H50" s="22">
         <f t="shared" si="19"/>
         <v>120</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="25">
+      <c r="I50" s="23"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="25">
         <v>-489</v>
       </c>
-      <c r="T49" s="29">
+      <c r="T50" s="29">
         <v>255</v>
       </c>
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C51" s="22">
         <v>0.1</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D51" s="25">
         <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E51" s="22">
         <v>1E-3</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F51" s="22">
         <v>1</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G51" s="26">
         <f t="shared" si="18"/>
         <v>156</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H51" s="22">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="I50" s="24"/>
-      <c r="R50" s="29">
+      <c r="I51" s="24"/>
+      <c r="R51" s="29">
         <v>445</v>
       </c>
-      <c r="S50" s="25">
+      <c r="S51" s="25">
         <v>-21</v>
       </c>
-      <c r="T50" s="29">
+      <c r="T51" s="29">
         <v>125</v>
       </c>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C52" s="22">
         <v>550</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D52" s="25">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E52" s="22">
         <v>1</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F52" s="22">
         <v>1</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G52" s="26">
         <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H52" s="22">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="I51" s="24"/>
-      <c r="M51">
-        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B51&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>932</v>
-      </c>
-      <c r="R51" s="29">
+      <c r="I52" s="24"/>
+      <c r="M52">
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B52&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B52&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>852</v>
+      </c>
+      <c r="R52" s="29">
         <v>459</v>
       </c>
-      <c r="S51" s="29">
+      <c r="S52" s="29">
         <v>596</v>
       </c>
-      <c r="T51" s="25">
+      <c r="T52" s="25">
         <v>-455</v>
       </c>
-      <c r="U51" s="1"/>
+      <c r="U52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa.shenshin\Documents\calc_pos_moex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moex\calc_pos_moex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>Депозит</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>BSPB</t>
+  </si>
+  <si>
+    <t>BSPBP</t>
   </si>
 </sst>
 </file>
@@ -791,19 +794,19 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -811,7 +814,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>15</v>
@@ -1052,17 +1055,17 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>-9954.7800000000061</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>38.640000000000036</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1122,7 +1125,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -1228,7 +1231,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>3.3543999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
@@ -1323,7 +1326,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
@@ -1359,7 +1362,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1398,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
@@ -1431,7 +1434,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
@@ -1531,7 +1534,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1554,7 +1557,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
@@ -1577,7 +1580,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
@@ -1600,7 +1603,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1609,7 +1612,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1618,7 +1621,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1627,7 +1630,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1636,7 +1639,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1645,7 +1648,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1654,7 +1657,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1663,7 +1666,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1672,7 +1675,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1681,7 +1684,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1690,7 +1693,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1699,7 +1702,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1708,7 +1711,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1717,7 +1720,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1726,7 +1729,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1735,7 +1738,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1744,7 +1747,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1761,25 +1764,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U52"/>
+  <dimension ref="A3:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="12" max="16" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="12" max="16" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
@@ -1797,7 +1800,7 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="L6" s="5" t="str">
         <f ca="1">TEXT(L7,"ддд")</f>
         <v>Пн</v>
@@ -1819,7 +1822,7 @@
         <v>Вт</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>0.35</v>
       </c>
       <c r="D8" s="25">
-        <f t="shared" ref="D8:D27" si="1">C8/10</f>
+        <f t="shared" ref="D8:D28" si="1">C8/10</f>
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="E8" s="22">
@@ -1899,11 +1902,11 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="26">
-        <f t="shared" ref="G8:G27" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
+        <f t="shared" ref="G8:G28" si="2">ROUND($C$4/(D8/E8*F8),0)</f>
         <v>446</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" ref="H8:H18" si="3">ROUND(D8/E8,0)</f>
+        <f t="shared" ref="H8:H19" si="3">ROUND(D8/E8,0)</f>
         <v>35</v>
       </c>
       <c r="I8" s="23"/>
@@ -1945,7 +1948,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1987,15 +1990,15 @@
         <v>0.99000000000000199</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N49" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <f t="shared" ref="N9:N50" ca="1" si="4">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$N$7&amp;"&amp;till="&amp;$N$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>0.72999999999999687</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:O49" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <f t="shared" ref="O9:O50" ca="1" si="5">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$O$7&amp;"&amp;till="&amp;$O$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>1.2600000000000051</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P49" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <f t="shared" ref="P9:P50" ca="1" si="6">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B9&amp;"/candles.xml?from="&amp;$P$7&amp;"&amp;till="&amp;$P$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>1.1000000000000014</v>
       </c>
       <c r="R9" s="25">
@@ -2009,7 +2012,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
         <v>84</v>
       </c>
@@ -2128,2413 +2131,2471 @@
       <c r="T11" s="25"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2.83</v>
+      </c>
+      <c r="D12" s="25">
+        <f>C12/10</f>
+        <v>0.28300000000000003</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="22">
+        <v>5</v>
+      </c>
+      <c r="G12" s="26">
+        <f>ROUND($C$4/(D12/E12*F12),0)</f>
+        <v>55</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="30">
+        <v>46071</v>
+      </c>
+      <c r="K12" s="24">
+        <f ca="1">ROUND(AVERAGE(L12:P12),2)</f>
+        <v>2.83</v>
+      </c>
+      <c r="L12" s="24">
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>11.149999999999999</v>
+      </c>
+      <c r="M12" s="24">
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>0.55000000000000426</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0499999999999972</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="24">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>50</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D13" s="25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>0.2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>0.2</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G13" s="26">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H13" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="K12">
-        <f t="shared" ref="K12:K49" ca="1" si="7">ROUND(AVERAGE(L12:P12),2)</f>
+      <c r="I13" s="23"/>
+      <c r="K13">
+        <f t="shared" ref="K13:K50" ca="1" si="7">ROUND(AVERAGE(L13:P13),2)</f>
         <v>24.2</v>
       </c>
-      <c r="L12">
-        <f t="shared" ref="L12:L49" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+      <c r="L13">
+        <f t="shared" ref="L13:L50" ca="1" si="8">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B13&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B13&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>24</v>
       </c>
-      <c r="M12">
-        <f t="shared" ref="M12:M49" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B12&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+      <c r="M13">
+        <f t="shared" ref="M13:M50" ca="1" si="9">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B13&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B13&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>30.399999999999977</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <f t="shared" ca="1" si="4"/>
         <v>21.799999999999955</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <f t="shared" ca="1" si="5"/>
         <v>28.799999999999955</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <f t="shared" ca="1" si="6"/>
         <v>16</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R13" s="29">
         <v>80</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S13" s="25">
         <v>-6</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T13" s="29">
         <v>12</v>
       </c>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C14" s="22">
         <v>3.22</v>
       </c>
-      <c r="D13" s="25">
-        <f t="shared" ref="D13:D19" si="10">C13/10</f>
+      <c r="D14" s="25">
+        <f t="shared" ref="D14:D20" si="10">C14/10</f>
         <v>0.32200000000000001</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E14" s="22">
         <v>0.01</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="22">
         <v>0.1</v>
       </c>
-      <c r="G13" s="26">
-        <f t="shared" ref="G13:G19" si="11">ROUND($C$4/(D13/E13*F13),0)</f>
+      <c r="G14" s="26">
+        <f t="shared" ref="G14:G20" si="11">ROUND($C$4/(D14/E14*F14),0)</f>
         <v>484</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="K13">
+      <c r="I14" s="24"/>
+      <c r="K14">
         <f t="shared" ca="1" si="7"/>
         <v>1.83</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f t="shared" ca="1" si="8"/>
         <v>2.0600000000000023</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <f t="shared" ca="1" si="9"/>
         <v>1.5100000000000051</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <f t="shared" ca="1" si="4"/>
         <v>1.2099999999999937</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <f t="shared" ca="1" si="5"/>
         <v>2.5799999999999983</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <f t="shared" ca="1" si="6"/>
         <v>1.8099999999999881</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R14" s="29">
         <v>27</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S14" s="25">
         <v>-172</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C15" s="22">
         <v>5.4</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D15" s="25">
         <f t="shared" si="10"/>
         <v>0.54</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E15" s="22">
         <v>0.05</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F15" s="22">
         <v>0.05</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G15" s="26">
         <f t="shared" si="11"/>
         <v>2889</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H15" s="22">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="K14">
+      <c r="I15" s="23"/>
+      <c r="K15">
         <f t="shared" ca="1" si="7"/>
         <v>3.62</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <f t="shared" ca="1" si="8"/>
         <v>3.5500000000000114</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <f t="shared" ca="1" si="9"/>
         <v>3.5</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <f t="shared" ca="1" si="4"/>
         <v>2.4000000000000057</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <f t="shared" ca="1" si="5"/>
         <v>2.8000000000000114</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <f t="shared" ca="1" si="6"/>
         <v>5.8499999999999943</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C16" s="22">
         <v>1.8</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D16" s="25">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E16" s="22">
         <v>0.01</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="22">
         <v>0.1</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G16" s="26">
         <f t="shared" si="11"/>
         <v>867</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H16" s="22">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="30">
+      <c r="I16" s="24"/>
+      <c r="J16" s="30">
         <v>46058</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <f t="shared" ca="1" si="7"/>
         <v>2.16</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <f t="shared" ca="1" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <f t="shared" ca="1" si="9"/>
         <v>2.9699999999999989</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <f t="shared" ca="1" si="4"/>
         <v>1.5699999999999932</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <f t="shared" ca="1" si="5"/>
         <v>2.9000000000000057</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <f t="shared" ca="1" si="6"/>
         <v>1.8700000000000045</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R16" s="25">
         <v>-2</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S16" s="25">
         <v>-117</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T16" s="29">
         <v>88</v>
       </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B17" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C17" s="22">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D17" s="25">
         <f t="shared" si="10"/>
         <v>1.8600000000000002E-4</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E17" s="22">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="22">
         <v>0.2</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G17" s="26">
         <f t="shared" si="11"/>
         <v>839</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H17" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="30">
+      <c r="I17" s="24"/>
+      <c r="J17" s="30">
         <v>46062</v>
       </c>
-      <c r="K16">
-        <f ca="1">ROUND(AVERAGE(L16:P16),5)</f>
+      <c r="K17">
+        <f ca="1">ROUND(AVERAGE(L17:P17),5)</f>
         <v>1.9E-3</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <f t="shared" ca="1" si="8"/>
         <v>1.7400000000000054E-3</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <f t="shared" ca="1" si="9"/>
         <v>2.2599999999999981E-3</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <f t="shared" ca="1" si="4"/>
         <v>1.8200000000000022E-3</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <f t="shared" ca="1" si="5"/>
         <v>1.4799999999999952E-3</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <f t="shared" ca="1" si="6"/>
         <v>2.1800000000000014E-3</v>
       </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B18" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C18" s="22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D18" s="25">
         <f t="shared" si="10"/>
         <v>0.44000000000000006</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E18" s="22">
         <v>0.02</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="22">
         <v>0.2</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G18" s="26">
         <f t="shared" si="11"/>
         <v>355</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H18" s="22">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="30">
+      <c r="I18" s="24"/>
+      <c r="J18" s="30">
         <v>46058</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <f t="shared" ca="1" si="7"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <f t="shared" ca="1" si="8"/>
         <v>4.4200000000000159</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <f t="shared" ca="1" si="9"/>
         <v>6.8600000000000136</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <f t="shared" ca="1" si="4"/>
         <v>3.4799999999999898</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <f t="shared" ca="1" si="5"/>
         <v>6.3199999999999932</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <f t="shared" ca="1" si="6"/>
         <v>2.1599999999999966</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R18" s="25">
         <v>-211</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S18" s="25">
         <v>-701</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C19" s="22">
         <v>7.85E-2</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D19" s="25">
         <f t="shared" si="10"/>
         <v>7.8499999999999993E-3</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E19" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F19" s="22">
         <v>0.05</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G19" s="26">
         <f t="shared" si="11"/>
         <v>1987</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H19" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="K18">
+      <c r="I19" s="24"/>
+      <c r="K19">
         <f t="shared" ca="1" si="7"/>
         <v>303466.46000000002</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <f t="shared" ca="1" si="8"/>
         <v>394462</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <f t="shared" ca="1" si="9"/>
         <v>17954.636999999999</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <f t="shared" ca="1" si="4"/>
         <v>4.0999999999999925E-2</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <f t="shared" ca="1" si="5"/>
         <v>874813.64300000004</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <f t="shared" ca="1" si="6"/>
         <v>230102</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="25">
+      <c r="R19" s="1"/>
+      <c r="S19" s="25">
         <v>-488</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="22">
-        <v>98.6</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="C20" s="22">
+        <v>86.3</v>
+      </c>
+      <c r="D20" s="25">
         <f t="shared" si="10"/>
-        <v>9.86</v>
-      </c>
-      <c r="E19" s="22">
+        <v>8.629999999999999</v>
+      </c>
+      <c r="E20" s="22">
         <v>0.5</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F20" s="22">
         <v>0.5</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G20" s="26">
         <f t="shared" si="11"/>
-        <v>158</v>
-      </c>
-      <c r="H19" s="22">
-        <f t="shared" ref="H19:H43" si="12">ROUND(D19/E19,0)</f>
-        <v>20</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="30">
+        <v>181</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" ref="H20:H44" si="12">ROUND(D20/E20,0)</f>
+        <v>17</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="30">
         <v>46066</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <f t="shared" ca="1" si="7"/>
         <v>86.3</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <f t="shared" ca="1" si="8"/>
         <v>58.5</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <f t="shared" ca="1" si="9"/>
         <v>69</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <f t="shared" ca="1" si="4"/>
         <v>75.5</v>
       </c>
-      <c r="O19">
+      <c r="O20">
         <f t="shared" ca="1" si="5"/>
         <v>98</v>
       </c>
-      <c r="P19">
+      <c r="P20">
         <f t="shared" ca="1" si="6"/>
         <v>130.5</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R20" s="25">
         <v>-741</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S20" s="25">
         <v>-475</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T20" s="29">
         <v>34</v>
       </c>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1.05</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D21" s="25">
         <f t="shared" si="1"/>
         <v>0.10500000000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>0.05</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G21" s="26">
         <f t="shared" si="2"/>
         <v>1486</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H21" s="22">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="30">
+      <c r="I21" s="23"/>
+      <c r="J21" s="30">
         <v>46063</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <f t="shared" ca="1" si="7"/>
         <v>0.99</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <f t="shared" ca="1" si="8"/>
         <v>0.85999999999999943</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <f t="shared" ca="1" si="9"/>
         <v>1.4949999999999974</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <f t="shared" ca="1" si="4"/>
         <v>0.61499999999999844</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <f t="shared" ca="1" si="5"/>
         <v>1.3400000000000034</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <f t="shared" ca="1" si="6"/>
         <v>0.64999999999999858</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R21" s="25">
         <v>-107</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S21" s="25">
         <v>-169</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T21" s="29">
         <v>24</v>
       </c>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>150</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D22" s="25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>0.5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>0.5</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G22" s="26">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H22" s="22">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="30"/>
-      <c r="K21">
-        <f t="shared" ca="1" si="7"/>
-        <v>76.3</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="8"/>
-        <v>125.5</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="4"/>
-        <v>64.5</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="5"/>
-        <v>56.5</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ca="1" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="R21" s="29">
-        <v>45</v>
-      </c>
-      <c r="S21" s="29">
-        <v>10</v>
-      </c>
-      <c r="T21" s="29">
-        <v>44</v>
-      </c>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="22">
-        <v>5.7</v>
-      </c>
-      <c r="D22" s="25">
-        <f>C22/10</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="26">
-        <f>ROUND($C$4/(D22/E22*F22),0)</f>
-        <v>274</v>
-      </c>
-      <c r="H22" s="22">
-        <f t="shared" si="12"/>
-        <v>57</v>
-      </c>
-      <c r="I22" s="24"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="30"/>
       <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>3.17</v>
+        <v>76.3</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="8"/>
-        <v>4.4799999999999898</v>
+        <v>125.5</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="9"/>
-        <v>3.789999999999992</v>
+        <v>77</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6500000000000057</v>
+        <v>64.5</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8100000000000023</v>
+        <v>56.5</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0999999999999943</v>
-      </c>
-      <c r="R22" s="25">
-        <v>-146</v>
-      </c>
-      <c r="S22" s="25">
-        <v>-28</v>
+        <v>58</v>
+      </c>
+      <c r="R22" s="29">
+        <v>45</v>
+      </c>
+      <c r="S22" s="29">
+        <v>10</v>
       </c>
       <c r="T22" s="29">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C23" s="22">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="D23" s="25">
-        <f t="shared" si="1"/>
-        <v>0.65</v>
+        <f>C23/10</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="E23" s="22">
         <v>0.01</v>
       </c>
       <c r="F23" s="22">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="26">
-        <f t="shared" si="2"/>
-        <v>2400</v>
+        <f>ROUND($C$4/(D23/E23*F23),0)</f>
+        <v>274</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="12"/>
-        <v>65</v>
-      </c>
-      <c r="I23" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="I23" s="24"/>
       <c r="J23" s="30"/>
       <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>1.74</v>
+        <v>3.17</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0900000000000034</v>
+        <v>4.4799999999999898</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="9"/>
-        <v>2.8399999999999892</v>
+        <v>3.789999999999992</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0899999999999892</v>
+        <v>2.6500000000000057</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6000000000000085</v>
+        <v>2.8100000000000023</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0699999999999932</v>
+        <v>2.0999999999999943</v>
       </c>
       <c r="R23" s="25">
-        <v>-6</v>
-      </c>
-      <c r="S23" s="29">
-        <v>142</v>
+        <v>-146</v>
+      </c>
+      <c r="S23" s="25">
+        <v>-28</v>
       </c>
       <c r="T23" s="29">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4.1900000000000004</v>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="22">
+        <v>6.5</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="1"/>
-        <v>0.41900000000000004</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.5</v>
+        <v>0.65</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0.01</v>
       </c>
       <c r="G24" s="26">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>2400</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I24" s="23"/>
-      <c r="J24" s="30">
-        <v>46063</v>
-      </c>
+      <c r="J24" s="30"/>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>5.26</v>
+        <v>1.74</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5500000000000114</v>
+        <v>2.0900000000000034</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0999999999999943</v>
+        <v>2.8399999999999892</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1999999999999886</v>
+        <v>1.0899999999999892</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9500000000000171</v>
+        <v>1.6000000000000085</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5</v>
+        <v>1.0699999999999932</v>
       </c>
       <c r="R24" s="25">
-        <v>-149</v>
+        <v>-6</v>
       </c>
       <c r="S24" s="29">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="T24" s="29">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.41900000000000004</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F25" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="26">
         <f t="shared" si="2"/>
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="30">
+        <v>46063</v>
+      </c>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>3.06</v>
+        <v>5.26</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2800000000000011</v>
+        <v>5.5500000000000114</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9599999999999937</v>
+        <v>8.0999999999999943</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6400000000000006</v>
+        <v>5.1999999999999886</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3599999999999994</v>
+        <v>2.9500000000000171</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0600000000000023</v>
-      </c>
-      <c r="R25" s="29">
-        <v>23</v>
+        <v>4.5</v>
+      </c>
+      <c r="R25" s="25">
+        <v>-149</v>
       </c>
       <c r="S25" s="29">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="T25" s="29">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="22">
-        <v>22.54</v>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
       </c>
       <c r="D26" s="25">
-        <f>C26/10</f>
-        <v>2.254</v>
-      </c>
-      <c r="E26" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.2</v>
       </c>
       <c r="G26" s="26">
-        <f>ROUND($C$4/(D26/E26*F26),0)</f>
-        <v>692</v>
+        <f t="shared" si="2"/>
+        <v>390</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="30">
-        <v>46062</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="30"/>
       <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>26.6</v>
+        <v>3.06</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="8"/>
-        <v>24.599999999999909</v>
+        <v>2.2800000000000011</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="9"/>
-        <v>24.299999999999955</v>
+        <v>3.9599999999999937</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="4"/>
-        <v>19.799999999999955</v>
+        <v>3.6400000000000006</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="5"/>
-        <v>47.799999999999955</v>
+        <v>3.3599999999999994</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="6"/>
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="R26" s="29">
+        <v>23</v>
+      </c>
+      <c r="S26" s="29">
+        <v>241</v>
+      </c>
+      <c r="T26" s="29">
+        <v>13</v>
+      </c>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="22">
+        <v>22.54</v>
+      </c>
+      <c r="D27" s="25">
+        <f>C27/10</f>
+        <v>2.254</v>
+      </c>
+      <c r="E27" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="26">
+        <f>ROUND($C$4/(D27/E27*F27),0)</f>
+        <v>692</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="30">
+        <v>46062</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="7"/>
+        <v>26.6</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.599999999999909</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.299999999999955</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.799999999999955</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="5"/>
+        <v>47.799999999999955</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ca="1" si="6"/>
         <v>16.5</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="29">
+      <c r="R27" s="1"/>
+      <c r="S27" s="29">
         <v>55</v>
       </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>125.5</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D28" s="25">
         <f t="shared" si="1"/>
         <v>12.55</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>0.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>0.5</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G28" s="26">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H28" s="22">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="30">
+      <c r="I28" s="23"/>
+      <c r="J28" s="30">
         <v>46058</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <f t="shared" ca="1" si="7"/>
         <v>120.7</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <f t="shared" ca="1" si="8"/>
         <v>62</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <f t="shared" ca="1" si="9"/>
         <v>129.5</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <f t="shared" ca="1" si="4"/>
         <v>85</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <f t="shared" ca="1" si="5"/>
         <v>228.5</v>
       </c>
-      <c r="P27">
+      <c r="P28">
         <f t="shared" ca="1" si="6"/>
         <v>98.5</v>
       </c>
-      <c r="R27" s="25">
+      <c r="R28" s="25">
         <v>-6</v>
       </c>
-      <c r="S27" s="25">
+      <c r="S28" s="25">
         <v>-340</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T28" s="29">
         <v>22</v>
       </c>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B29" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C29" s="22">
         <v>140</v>
       </c>
-      <c r="D28" s="25">
-        <f>C28/10</f>
+      <c r="D29" s="25">
+        <f>C29/10</f>
         <v>14</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E29" s="22">
         <v>0.2</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F29" s="22">
         <v>0.2</v>
       </c>
-      <c r="G28" s="26">
-        <f>ROUND($C$4/(D28/E28*F28),0)</f>
+      <c r="G29" s="26">
+        <f>ROUND($C$4/(D29/E29*F29),0)</f>
         <v>111</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H29" s="22">
         <f t="shared" si="12"/>
         <v>70</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="K28">
-        <f t="shared" ca="1" si="7"/>
-        <v>26.56</v>
-      </c>
-      <c r="L28">
-        <f t="shared" ca="1" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ca="1" si="9"/>
-        <v>23.799999999999955</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="P28">
-        <f t="shared" ca="1" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="25">
-        <v>-426</v>
-      </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="22">
-        <v>112</v>
-      </c>
-      <c r="D29" s="25">
-        <f t="shared" ref="D29:D42" si="13">C29/10</f>
-        <v>11.2</v>
-      </c>
-      <c r="E29" s="22">
-        <v>1</v>
-      </c>
-      <c r="F29" s="22">
-        <v>1</v>
-      </c>
-      <c r="G29" s="26">
-        <f t="shared" ref="G29:G42" si="14">ROUND($C$4/(D29/E29*F29),0)</f>
-        <v>139</v>
-      </c>
-      <c r="H29" s="22">
-        <f t="shared" si="12"/>
-        <v>11</v>
       </c>
       <c r="I29" s="24"/>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>87.2</v>
+        <v>26.56</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>23.799999999999955</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="R29" s="25">
-        <v>-31</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="29">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="25">
+        <v>-426</v>
+      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="22" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C30" s="22">
-        <v>13.12</v>
+        <v>112</v>
       </c>
       <c r="D30" s="25">
-        <f>C30/10</f>
-        <v>1.3119999999999998</v>
+        <f t="shared" ref="D30:D43" si="13">C30/10</f>
+        <v>11.2</v>
       </c>
       <c r="E30" s="22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F30" s="22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G30" s="26">
-        <f>ROUND($C$4/(D30/E30*F30),0)</f>
-        <v>1189</v>
+        <f t="shared" ref="G30:G43" si="14">ROUND($C$4/(D30/E30*F30),0)</f>
+        <v>139</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I30" s="24"/>
-      <c r="J30" s="30">
-        <v>46066</v>
-      </c>
       <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>13.04</v>
+        <v>87.2</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5</v>
+        <v>95</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="9"/>
-        <v>21.299999999999955</v>
+        <v>95</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6999999999999886</v>
+        <v>81</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="5"/>
-        <v>17.5</v>
+        <v>80</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="R30" s="25">
+        <v>-31</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="29">
+        <v>35</v>
+      </c>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="22">
+        <v>13.12</v>
+      </c>
+      <c r="D31" s="25">
+        <f>C31/10</f>
+        <v>1.3119999999999998</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="26">
+        <f>ROUND($C$4/(D31/E31*F31),0)</f>
+        <v>1189</v>
+      </c>
+      <c r="H31" s="22">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="30">
+        <v>46066</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="7"/>
+        <v>13.04</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="9"/>
+        <v>21.299999999999955</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="6"/>
         <v>8.1999999999999886</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="29">
+      <c r="R31" s="1"/>
+      <c r="S31" s="29">
         <v>61</v>
       </c>
-      <c r="T30" s="25">
+      <c r="T31" s="25">
         <v>-11</v>
       </c>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C32" s="22">
         <v>57.2</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D32" s="25">
         <f t="shared" si="13"/>
         <v>5.7200000000000006</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E32" s="22">
         <v>0.2</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="22">
         <v>0.2</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G32" s="26">
         <f t="shared" si="14"/>
         <v>273</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H32" s="22">
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="30">
+      <c r="I32" s="24"/>
+      <c r="J32" s="30">
         <v>46063</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <f t="shared" ca="1" si="7"/>
         <v>70.44</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <f t="shared" ca="1" si="8"/>
         <v>76</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <f t="shared" ca="1" si="9"/>
         <v>92</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <f t="shared" ca="1" si="4"/>
         <v>108.19999999999982</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <f t="shared" ca="1" si="5"/>
         <v>41.800000000000182</v>
       </c>
-      <c r="P31">
+      <c r="P32">
         <f t="shared" ca="1" si="6"/>
         <v>34.199999999999818</v>
       </c>
-      <c r="R31" s="25">
+      <c r="R32" s="25">
         <v>-68</v>
       </c>
-      <c r="S31" s="25">
+      <c r="S32" s="25">
         <v>-291</v>
       </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B33" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C33" s="22">
         <v>10</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D33" s="25">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E33" s="22">
         <v>0.05</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="22">
         <v>0.05</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G33" s="26">
         <f t="shared" si="14"/>
         <v>1560</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H33" s="22">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="K32">
+      <c r="I33" s="24"/>
+      <c r="K33">
         <f t="shared" ca="1" si="7"/>
         <v>3.35</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <f t="shared" ca="1" si="8"/>
         <v>2.2000000000000028</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <f t="shared" ca="1" si="9"/>
         <v>3.8000000000000114</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <f t="shared" ca="1" si="4"/>
         <v>3.1500000000000057</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <f t="shared" ca="1" si="5"/>
         <v>4.6499999999999915</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <f t="shared" ca="1" si="6"/>
         <v>2.9499999999999886</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="29">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="29">
         <v>33</v>
       </c>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C34" s="22">
         <v>6.34</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D34" s="25">
         <f t="shared" si="13"/>
         <v>0.63400000000000001</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="22">
         <v>0.05</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="22">
         <v>0.05</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G34" s="26">
         <f t="shared" si="14"/>
         <v>2461</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H34" s="22">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="30">
+      <c r="I34" s="23"/>
+      <c r="J34" s="30">
         <v>46062</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <f t="shared" ca="1" si="7"/>
         <v>6.62</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <f t="shared" ca="1" si="8"/>
         <v>3.8999999999999773</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <f t="shared" ca="1" si="9"/>
         <v>6.8000000000000114</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <f t="shared" ca="1" si="4"/>
         <v>4.4499999999999886</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <f t="shared" ca="1" si="5"/>
         <v>10.450000000000045</v>
       </c>
-      <c r="P33">
+      <c r="P34">
         <f t="shared" ca="1" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="R33" s="29">
+      <c r="R34" s="29">
         <v>342</v>
       </c>
-      <c r="S33" s="25">
+      <c r="S34" s="25">
         <v>-106</v>
       </c>
-      <c r="T33" s="25">
+      <c r="T34" s="25">
         <v>-93</v>
       </c>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B35" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C35" s="22">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D34" s="25">
-        <f>C34/10</f>
+      <c r="D35" s="25">
+        <f>C35/10</f>
         <v>0.11299999999999999</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E35" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <v>0.05</v>
       </c>
-      <c r="G34" s="26">
-        <f>ROUND($C$4/(D34/E34*F34),0)</f>
+      <c r="G35" s="26">
+        <f>ROUND($C$4/(D35/E35*F35),0)</f>
         <v>1381</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H35" s="22">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="30">
+      <c r="I35" s="24"/>
+      <c r="J35" s="30">
         <v>46062</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <f t="shared" ca="1" si="7"/>
         <v>0.89</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <f t="shared" ca="1" si="8"/>
         <v>0.75500000000000256</v>
       </c>
-      <c r="M34">
+      <c r="M35">
         <f t="shared" ca="1" si="9"/>
         <v>0.875</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <f t="shared" ca="1" si="4"/>
         <v>0.91000000000000369</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <f t="shared" ca="1" si="5"/>
         <v>1.0200000000000031</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <f t="shared" ca="1" si="6"/>
         <v>0.88499999999999801</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="25">
+      <c r="R35" s="1"/>
+      <c r="S35" s="25">
         <v>-143</v>
       </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B36" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C36" s="22">
         <v>6</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D36" s="25">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="22">
         <v>0.01</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="22">
         <v>0.1</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G36" s="26">
         <f t="shared" si="14"/>
         <v>260</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H36" s="22">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="30"/>
-      <c r="K35">
+      <c r="I36" s="23"/>
+      <c r="J36" s="30"/>
+      <c r="K36">
         <f t="shared" ca="1" si="7"/>
         <v>3.39</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <f t="shared" ca="1" si="8"/>
         <v>3.5600000000000023</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <f t="shared" ca="1" si="9"/>
         <v>4.5399999999999636</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <f t="shared" ca="1" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <f t="shared" ca="1" si="5"/>
         <v>3.3799999999999955</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <f t="shared" ca="1" si="6"/>
         <v>2.9800000000000182</v>
       </c>
-      <c r="R35" s="29">
+      <c r="R36" s="29">
         <v>32</v>
       </c>
-      <c r="S35" s="25">
+      <c r="S36" s="25">
         <v>-139</v>
       </c>
-      <c r="T35" s="29">
+      <c r="T36" s="29">
         <v>40</v>
       </c>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B37" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C37" s="22">
         <v>44.16</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D37" s="25">
         <f t="shared" si="13"/>
         <v>4.4159999999999995</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E37" s="22">
         <v>0.2</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F37" s="22">
         <v>0.2</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G37" s="26">
         <f t="shared" si="14"/>
         <v>353</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H37" s="22">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="30">
+      <c r="I37" s="24"/>
+      <c r="J37" s="30">
         <v>46058</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <f t="shared" ca="1" si="7"/>
         <v>22.6</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <f t="shared" ca="1" si="8"/>
         <v>8.3999999999999773</v>
       </c>
-      <c r="M36">
+      <c r="M37">
         <f t="shared" ca="1" si="9"/>
         <v>26.399999999999977</v>
       </c>
-      <c r="N36">
+      <c r="N37">
         <f t="shared" ca="1" si="4"/>
         <v>17.799999999999955</v>
       </c>
-      <c r="O36">
+      <c r="O37">
         <f t="shared" ca="1" si="5"/>
         <v>24.799999999999955</v>
       </c>
-      <c r="P36">
+      <c r="P37">
         <f t="shared" ca="1" si="6"/>
         <v>35.600000000000023</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R37" s="25">
         <v>-89</v>
       </c>
-      <c r="S36" s="25">
+      <c r="S37" s="25">
         <v>-300</v>
       </c>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B38" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C38" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D37" s="25">
-        <f>C37/10</f>
+      <c r="D38" s="25">
+        <f>C38/10</f>
         <v>1.4000000000000002E-2</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="22">
         <v>1E-3</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="22">
         <v>0.1</v>
       </c>
-      <c r="G37" s="26">
-        <f>ROUND($C$4/(D37/E37*F37),0)</f>
+      <c r="G38" s="26">
+        <f>ROUND($C$4/(D38/E38*F38),0)</f>
         <v>1114</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H38" s="22">
         <f t="shared" si="12"/>
         <v>14</v>
-      </c>
-      <c r="I37" s="24"/>
-      <c r="K37">
-        <f t="shared" ca="1" si="7"/>
-        <v>28489.22</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ca="1" si="8"/>
-        <v>-334197.69400000002</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ca="1" si="9"/>
-        <v>399941.766</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ca="1" si="4"/>
-        <v>76702</v>
-      </c>
-      <c r="O37">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.100000000000013E-2</v>
-      </c>
-      <c r="P37">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.8000000000000016E-2</v>
-      </c>
-      <c r="R37" s="29">
-        <v>71</v>
-      </c>
-      <c r="S37" s="22"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="22">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D38" s="25">
-        <f>C38/10</f>
-        <v>1.86</v>
-      </c>
-      <c r="E38" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F38" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="G38" s="26">
-        <f>ROUND($C$4/(D38/E38*F38),0)</f>
-        <v>839</v>
-      </c>
-      <c r="H38" s="22">
-        <f t="shared" si="12"/>
-        <v>37</v>
       </c>
       <c r="I38" s="24"/>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>8.02</v>
+        <v>28489.22</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>-334197.69400000002</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9499999999999886</v>
+        <v>399941.766</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8999999999999773</v>
+        <v>76702</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5500000000000114</v>
+        <v>2.100000000000013E-2</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6999999999999886</v>
-      </c>
-      <c r="R38" s="25">
-        <v>-9</v>
-      </c>
-      <c r="S38" s="29">
-        <v>42</v>
-      </c>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="R38" s="29">
+        <v>71</v>
+      </c>
+      <c r="S38" s="22"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B39" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="22">
-        <v>45</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D39" s="25">
         <f>C39/10</f>
-        <v>4.5</v>
+        <v>1.86</v>
       </c>
       <c r="E39" s="22">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F39" s="22">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G39" s="26">
         <f>ROUND($C$4/(D39/E39*F39),0)</f>
-        <v>347</v>
+        <v>839</v>
       </c>
       <c r="H39" s="22">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I39" s="24"/>
-      <c r="J39" s="30">
-        <v>46058</v>
-      </c>
       <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>25.44</v>
+        <v>8.02</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>5.9499999999999886</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="4"/>
-        <v>15.799999999999955</v>
+        <v>5.8999999999999773</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="5"/>
-        <v>24.399999999999977</v>
+        <v>8.5500000000000114</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="29">
-        <v>22</v>
-      </c>
+        <v>6.6999999999999886</v>
+      </c>
+      <c r="R39" s="25">
+        <v>-9</v>
+      </c>
+      <c r="S39" s="29">
+        <v>42</v>
+      </c>
+      <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>76</v>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B40" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C40" s="22">
-        <v>690</v>
+        <v>45</v>
       </c>
       <c r="D40" s="25">
         <f>C40/10</f>
-        <v>69</v>
+        <v>4.5</v>
       </c>
       <c r="E40" s="22">
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F40" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G40" s="26">
         <f>ROUND($C$4/(D40/E40*F40),0)</f>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="H40" s="22">
         <f t="shared" si="12"/>
-        <v>13800</v>
+        <v>23</v>
       </c>
       <c r="I40" s="24"/>
+      <c r="J40" s="30">
+        <v>46058</v>
+      </c>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36</v>
+        <v>25.44</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26999999999999957</v>
+        <v>11</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2900000000000027</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30999999999999872</v>
+        <v>15.799999999999955</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49499999999999744</v>
+        <v>24.399999999999977</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45000000000000284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="29">
+        <v>22</v>
+      </c>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C41" s="22">
-        <v>1.65</v>
+        <v>690</v>
       </c>
       <c r="D41" s="25">
-        <f t="shared" si="13"/>
-        <v>0.16499999999999998</v>
+        <f>C41/10</f>
+        <v>69</v>
       </c>
       <c r="E41" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="26">
-        <f t="shared" si="14"/>
-        <v>945</v>
+        <f>ROUND($C$4/(D41/E41*F41),0)</f>
+        <v>0</v>
       </c>
       <c r="H41" s="22">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>13800</v>
       </c>
       <c r="I41" s="24"/>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>0.76</v>
+        <v>0.36</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="8"/>
-        <v>0.64999999999999858</v>
+        <v>0.26999999999999957</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="9"/>
-        <v>0.82999999999999829</v>
+        <v>0.2900000000000027</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64999999999999858</v>
+        <v>0.30999999999999872</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79999999999999716</v>
+        <v>0.49499999999999744</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89000000000000057</v>
-      </c>
-      <c r="R41" s="25">
-        <v>-18</v>
-      </c>
-      <c r="S41" s="25">
-        <v>-76</v>
-      </c>
-      <c r="T41" s="25">
-        <v>-116</v>
-      </c>
-      <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.45000000000000284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B42" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="22">
-        <v>12</v>
+        <v>1.65</v>
       </c>
       <c r="D42" s="25">
         <f t="shared" si="13"/>
-        <v>1.2</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="E42" s="22">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G42" s="26">
         <f t="shared" si="14"/>
-        <v>1300</v>
+        <v>945</v>
       </c>
       <c r="H42" s="22">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I42" s="24"/>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>10.119999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="L42">
-        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B42&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B42&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.64999999999999858</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="9"/>
-        <v>9.2999999999999545</v>
+        <v>0.82999999999999829</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="4"/>
-        <v>12.399999999999977</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="5"/>
-        <v>10.200000000000045</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="6"/>
-        <v>11.700000000000045</v>
+        <v>0.89000000000000057</v>
       </c>
       <c r="R42" s="25">
-        <v>-114</v>
-      </c>
-      <c r="S42" s="29">
-        <v>6</v>
-      </c>
-      <c r="T42" s="1"/>
+        <v>-18</v>
+      </c>
+      <c r="S42" s="25">
+        <v>-76</v>
+      </c>
+      <c r="T42" s="25">
+        <v>-116</v>
+      </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B43" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C43" s="22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D43" s="25">
-        <f>C43/10</f>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>1.2</v>
       </c>
       <c r="E43" s="22">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F43" s="22">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G43" s="26">
-        <f t="shared" ref="G43:G48" si="15">ROUND($C$4/(D43/E43*F43),0)</f>
-        <v>260</v>
+        <f t="shared" si="14"/>
+        <v>1300</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I43" s="24"/>
       <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>1.91</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="L43">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.6800000000000068</v>
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B43&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/stock/markets/shares/securities/"&amp;B43&amp;"/candles.xml?from="&amp;$L$7&amp;"&amp;till="&amp;$L$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+        <v>7</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7000000000000028</v>
+        <v>9.2999999999999545</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1600000000000108</v>
+        <v>12.399999999999977</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3999999999999915</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5999999999999943</v>
-      </c>
-      <c r="R43" s="29">
-        <v>7</v>
-      </c>
-      <c r="S43" s="25">
-        <v>-262</v>
+        <v>11.700000000000045</v>
+      </c>
+      <c r="R43" s="25">
+        <v>-114</v>
+      </c>
+      <c r="S43" s="29">
+        <v>6</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B44" s="22" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C44" s="22">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D44" s="25">
         <f>C44/10</f>
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="E44" s="22">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F44" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G44" s="26">
-        <f t="shared" si="15"/>
-        <v>223</v>
+        <f t="shared" ref="G44:G49" si="15">ROUND($C$4/(D44/E44*F44),0)</f>
+        <v>260</v>
       </c>
       <c r="H44" s="22">
-        <f t="shared" ref="H44:H46" si="16">ROUND(D44/E44,0)</f>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="I44" s="24"/>
       <c r="K44">
         <f t="shared" ca="1" si="7"/>
-        <v>22.16</v>
+        <v>1.91</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="8"/>
-        <v>22.399999999999864</v>
+        <v>2.6800000000000068</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="9"/>
-        <v>30.599999999999909</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="4"/>
-        <v>11.200000000000045</v>
+        <v>1.1600000000000108</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="5"/>
-        <v>23.400000000000091</v>
+        <v>1.3999999999999915</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="6"/>
-        <v>23.200000000000045</v>
-      </c>
-      <c r="R44" s="1"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="R44" s="29">
+        <v>7</v>
+      </c>
       <c r="S44" s="25">
-        <v>-8</v>
-      </c>
-      <c r="T44" s="29">
-        <v>5</v>
-      </c>
+        <v>-262</v>
+      </c>
+      <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B45" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C45" s="22">
-        <v>5.1400000000000001E-2</v>
+        <v>70</v>
       </c>
       <c r="D45" s="25">
-        <f>ROUND(C45/10,4)</f>
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0.1</v>
+        <f>C45/10</f>
+        <v>7</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0.5</v>
       </c>
       <c r="G45" s="26">
         <f t="shared" si="15"/>
+        <v>223</v>
+      </c>
+      <c r="H45" s="22">
+        <f t="shared" ref="H45:H47" si="16">ROUND(D45/E45,0)</f>
+        <v>14</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="K45">
+        <f t="shared" ca="1" si="7"/>
+        <v>22.16</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.399999999999864</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.599999999999909</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.200000000000045</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.400000000000091</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ca="1" si="6"/>
+        <v>23.200000000000045</v>
+      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="25">
+        <v>-8</v>
+      </c>
+      <c r="T45" s="29">
+        <v>5</v>
+      </c>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B46" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="22">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D46" s="25">
+        <f>ROUND(C46/10,4)</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G46" s="26">
+        <f t="shared" si="15"/>
         <v>306</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H46" s="22">
         <f t="shared" si="16"/>
         <v>51</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="30">
+      <c r="I46" s="24"/>
+      <c r="J46" s="30">
         <v>46057</v>
       </c>
-      <c r="K45">
-        <f ca="1">ROUND(AVERAGE(L45:P45),4)</f>
+      <c r="K46">
+        <f ca="1">ROUND(AVERAGE(L46:P46),4)</f>
         <v>2.46E-2</v>
       </c>
-      <c r="L45">
+      <c r="L46">
         <f t="shared" ca="1" si="8"/>
         <v>3.0799999999999939E-2</v>
       </c>
-      <c r="M45">
+      <c r="M46">
         <f t="shared" ca="1" si="9"/>
         <v>1.8400000000000083E-2</v>
       </c>
-      <c r="N45">
+      <c r="N46">
         <f t="shared" ca="1" si="4"/>
         <v>2.2399999999999975E-2</v>
       </c>
-      <c r="O45">
+      <c r="O46">
         <f t="shared" ca="1" si="5"/>
         <v>3.1000000000000028E-2</v>
       </c>
-      <c r="P45">
+      <c r="P46">
         <f t="shared" ca="1" si="6"/>
         <v>2.0199999999999996E-2</v>
       </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="R46" s="1"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>8.9</v>
       </c>
-      <c r="D46" s="25">
-        <f>C46/10</f>
+      <c r="D47" s="25">
+        <f>C47/10</f>
         <v>0.89</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>0.05</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>0.05</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G47" s="26">
         <f t="shared" si="15"/>
         <v>1753</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H47" s="22">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="30">
+      <c r="I47" s="23"/>
+      <c r="J47" s="30">
         <v>46063</v>
       </c>
-      <c r="K46">
+      <c r="K47">
         <f t="shared" ca="1" si="7"/>
         <v>8.2899999999999991</v>
       </c>
-      <c r="L46">
+      <c r="L47">
         <f t="shared" ca="1" si="8"/>
         <v>6.8500000000000227</v>
       </c>
-      <c r="M46">
+      <c r="M47">
         <f t="shared" ca="1" si="9"/>
         <v>6.3499999999999659</v>
       </c>
-      <c r="N46">
+      <c r="N47">
         <f t="shared" ca="1" si="4"/>
         <v>3.6500000000000341</v>
       </c>
-      <c r="O46">
+      <c r="O47">
         <f t="shared" ca="1" si="5"/>
         <v>7.8000000000000114</v>
       </c>
-      <c r="P46">
+      <c r="P47">
         <f t="shared" ca="1" si="6"/>
         <v>16.800000000000011</v>
       </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="29">
+      <c r="R47" s="1"/>
+      <c r="S47" s="29">
         <v>24</v>
       </c>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B48" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C48" s="22">
         <v>2.71</v>
       </c>
-      <c r="D47" s="25">
-        <f>C47/10</f>
+      <c r="D48" s="25">
+        <f>C48/10</f>
         <v>0.27100000000000002</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F48" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G48" s="26">
         <f t="shared" si="15"/>
         <v>5756</v>
       </c>
-      <c r="H47" s="22">
-        <f>ROUND(D47/E47,0)</f>
+      <c r="H48" s="22">
+        <f>ROUND(D48/E48,0)</f>
         <v>54</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="30">
+      <c r="I48" s="24"/>
+      <c r="J48" s="30">
         <v>46069</v>
       </c>
-      <c r="K47">
+      <c r="K48">
         <f t="shared" ca="1" si="7"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="L47">
+      <c r="L48">
         <f t="shared" ca="1" si="8"/>
         <v>2.355000000000004</v>
       </c>
-      <c r="M47">
+      <c r="M48">
         <f t="shared" ca="1" si="9"/>
         <v>4.125</v>
       </c>
-      <c r="N47">
+      <c r="N48">
         <f t="shared" ca="1" si="4"/>
         <v>0.98999999999999488</v>
       </c>
-      <c r="O47">
+      <c r="O48">
         <f t="shared" ca="1" si="5"/>
         <v>3.5649999999999977</v>
       </c>
-      <c r="P47">
+      <c r="P48">
         <f t="shared" ca="1" si="6"/>
         <v>1.7299999999999898</v>
       </c>
-      <c r="R47" s="29">
+      <c r="R48" s="29">
         <v>19</v>
       </c>
-      <c r="S47" s="29">
+      <c r="S48" s="29">
         <v>122</v>
       </c>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C49" s="22">
         <v>46.6</v>
       </c>
-      <c r="D48" s="25">
-        <f>C48/10</f>
+      <c r="D49" s="25">
+        <f>C49/10</f>
         <v>4.66</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E49" s="22">
         <v>0.5</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F49" s="22">
         <v>0.5</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G49" s="26">
         <f t="shared" si="15"/>
         <v>335</v>
       </c>
-      <c r="H48" s="22">
-        <f>ROUND(D48/E48,0)</f>
+      <c r="H49" s="22">
+        <f>ROUND(D49/E49,0)</f>
         <v>9</v>
       </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="30">
+      <c r="I49" s="24"/>
+      <c r="J49" s="30">
         <v>46063</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <f t="shared" ca="1" si="7"/>
         <v>41.5</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <f t="shared" ca="1" si="8"/>
         <v>73</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <f t="shared" ca="1" si="9"/>
         <v>33.5</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <f t="shared" ca="1" si="5"/>
         <v>25</v>
       </c>
-      <c r="P48">
+      <c r="P49">
         <f t="shared" ca="1" si="6"/>
         <v>28</v>
       </c>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>120.3</v>
       </c>
-      <c r="D49" s="25">
-        <f t="shared" ref="D49:D52" si="17">C49/10</f>
+      <c r="D50" s="25">
+        <f t="shared" ref="D50:D53" si="17">C50/10</f>
         <v>12.03</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>0.5</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>0.5</v>
       </c>
-      <c r="G49" s="26">
-        <f t="shared" ref="G49:G52" si="18">ROUND($C$4/(D49/E49*F49),0)</f>
+      <c r="G50" s="26">
+        <f t="shared" ref="G50:G53" si="18">ROUND($C$4/(D50/E50*F50),0)</f>
         <v>130</v>
       </c>
-      <c r="H49" s="22">
-        <f t="shared" ref="H49:H52" si="19">ROUND(D49/E49,0)</f>
+      <c r="H50" s="22">
+        <f t="shared" ref="H50:H53" si="19">ROUND(D50/E50,0)</f>
         <v>24</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="30">
+      <c r="I50" s="23"/>
+      <c r="J50" s="30">
         <v>46069</v>
       </c>
-      <c r="K49">
+      <c r="K50">
         <f t="shared" ca="1" si="7"/>
         <v>116.3</v>
       </c>
-      <c r="L49">
+      <c r="L50">
         <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
-      <c r="M49">
+      <c r="M50">
         <f t="shared" ca="1" si="9"/>
         <v>140.5</v>
       </c>
-      <c r="N49">
+      <c r="N50">
         <f t="shared" ca="1" si="4"/>
         <v>96</v>
       </c>
-      <c r="O49">
+      <c r="O50">
         <f t="shared" ca="1" si="5"/>
         <v>190</v>
       </c>
-      <c r="P49">
+      <c r="P50">
         <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R50" s="1">
         <v>-97</v>
       </c>
-      <c r="S49" s="25">
+      <c r="S50" s="25">
         <v>-176</v>
       </c>
-      <c r="T49" s="29">
+      <c r="T50" s="29">
         <v>11</v>
       </c>
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B51" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C51" s="22">
         <v>60</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D51" s="25">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>0.05</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>0.5</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G51" s="26">
         <f t="shared" si="18"/>
         <v>26</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H51" s="22">
         <f t="shared" si="19"/>
         <v>120</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="25">
+      <c r="I51" s="23"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="25">
         <v>-489</v>
       </c>
-      <c r="T50" s="29">
+      <c r="T51" s="29">
         <v>255</v>
       </c>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C52" s="22">
         <v>0.1</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D52" s="25">
         <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E52" s="22">
         <v>1E-3</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F52" s="22">
         <v>1</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G52" s="26">
         <f t="shared" si="18"/>
         <v>156</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H52" s="22">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="I51" s="24"/>
-      <c r="R51" s="29">
+      <c r="I52" s="24"/>
+      <c r="R52" s="29">
         <v>445</v>
       </c>
-      <c r="S51" s="25">
+      <c r="S52" s="25">
         <v>-21</v>
       </c>
-      <c r="T51" s="29">
+      <c r="T52" s="29">
         <v>125</v>
       </c>
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B52" s="27" t="s">
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B53" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C53" s="22">
         <v>550</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D53" s="25">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E53" s="22">
         <v>1</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F53" s="22">
         <v>1</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G53" s="26">
         <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H53" s="22">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="M52">
-        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B52&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B52&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
+      <c r="I53" s="24"/>
+      <c r="M53">
+        <f ca="1">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B53&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@high"),".",","))-VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE("https://iss.moex.com/iss/engines/futures/markets/forts/securities/"&amp;B53&amp;"/candles.xml?from="&amp;$M$7&amp;"&amp;till="&amp;$M$7&amp;"&amp;interval=24"),"//document//data//rows//row/@low"),".",","))</f>
         <v>852</v>
       </c>
-      <c r="R52" s="29">
+      <c r="R53" s="29">
         <v>459</v>
       </c>
-      <c r="S52" s="29">
+      <c r="S53" s="29">
         <v>596</v>
       </c>
-      <c r="T52" s="25">
+      <c r="T53" s="25">
         <v>-455</v>
       </c>
-      <c r="U52" s="1"/>
+      <c r="U53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
